--- a/SCE_skewness.xlsx
+++ b/SCE_skewness.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E134"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -151,13 +151,13 @@
         <v>0.75467979907989502</v>
       </c>
       <c r="C7" s="2">
-        <v>0.37359541654586792</v>
+        <v>0.37112769484519959</v>
       </c>
       <c r="D7" s="2">
         <v>0.30358356237411499</v>
       </c>
       <c r="E7" s="2">
-        <v>0.031045829877257347</v>
+        <v>0.027225419878959656</v>
       </c>
     </row>
     <row r="8">
@@ -168,13 +168,13 @@
         <v>0.45104503631591797</v>
       </c>
       <c r="C8" s="2">
-        <v>0.19957675039768219</v>
+        <v>0.19618795812129974</v>
       </c>
       <c r="D8" s="2">
         <v>0.10388252884149551</v>
       </c>
       <c r="E8" s="2">
-        <v>-0.16000984609127045</v>
+        <v>-0.16369490325450897</v>
       </c>
     </row>
     <row r="9">
@@ -185,13 +185,13 @@
         <v>0.52031427621841431</v>
       </c>
       <c r="C9" s="2">
-        <v>0.22638307511806488</v>
+        <v>0.22340568900108337</v>
       </c>
       <c r="D9" s="2">
         <v>0.10086610168218613</v>
       </c>
       <c r="E9" s="2">
-        <v>-0.18425792455673218</v>
+        <v>-0.18804660439491272</v>
       </c>
     </row>
     <row r="10">
@@ -202,13 +202,13 @@
         <v>-0.22879557311534882</v>
       </c>
       <c r="C10" s="2">
-        <v>-0.29398450255393982</v>
+        <v>-0.29991069436073303</v>
       </c>
       <c r="D10" s="2">
         <v>0.15720002353191376</v>
       </c>
       <c r="E10" s="2">
-        <v>-0.13143670558929443</v>
+        <v>-0.135605588555336</v>
       </c>
     </row>
     <row r="11">
@@ -219,13 +219,13 @@
         <v>0.020674310624599457</v>
       </c>
       <c r="C11" s="2">
-        <v>-0.35034158825874329</v>
+        <v>-0.35468354821205139</v>
       </c>
       <c r="D11" s="2">
         <v>0.11538553237915039</v>
       </c>
       <c r="E11" s="2">
-        <v>-0.18769852817058563</v>
+        <v>-0.19184057414531708</v>
       </c>
     </row>
     <row r="12">
@@ -236,13 +236,13 @@
         <v>-0.89462268352508545</v>
       </c>
       <c r="C12" s="2">
-        <v>-1.115288257598877</v>
+        <v>-1.1182965040206909</v>
       </c>
       <c r="D12" s="2">
         <v>0.030098624527454376</v>
       </c>
       <c r="E12" s="2">
-        <v>-0.25653201341629028</v>
+        <v>-0.26086828112602234</v>
       </c>
     </row>
     <row r="13">
@@ -253,13 +253,13 @@
         <v>0.082767561078071594</v>
       </c>
       <c r="C13" s="2">
-        <v>-0.32974639534950256</v>
+        <v>-0.33415678143501282</v>
       </c>
       <c r="D13" s="2">
         <v>-0.13790342211723328</v>
       </c>
       <c r="E13" s="2">
-        <v>-0.43923401832580566</v>
+        <v>-0.44335785508155823</v>
       </c>
     </row>
     <row r="14">
@@ -270,13 +270,13 @@
         <v>0.55153751373291016</v>
       </c>
       <c r="C14" s="2">
-        <v>0.23831188678741455</v>
+        <v>0.23148147761821747</v>
       </c>
       <c r="D14" s="2">
         <v>-0.136473149061203</v>
       </c>
       <c r="E14" s="2">
-        <v>-0.43076306581497192</v>
+        <v>-0.43470188975334168</v>
       </c>
     </row>
     <row r="15">
@@ -287,13 +287,13 @@
         <v>-0.21913042664527893</v>
       </c>
       <c r="C15" s="2">
-        <v>-0.63779318332672119</v>
+        <v>-0.64172047376632691</v>
       </c>
       <c r="D15" s="2">
         <v>-0.18043906986713409</v>
       </c>
       <c r="E15" s="2">
-        <v>-0.51135545969009399</v>
+        <v>-0.51491296291351318</v>
       </c>
     </row>
     <row r="16">
@@ -304,13 +304,13 @@
         <v>-0.012902386486530304</v>
       </c>
       <c r="C16" s="2">
-        <v>-0.24590587615966797</v>
+        <v>-0.25012171268463135</v>
       </c>
       <c r="D16" s="2">
         <v>-0.19662326574325562</v>
       </c>
       <c r="E16" s="2">
-        <v>-0.5149761438369751</v>
+        <v>-0.51853162050247192</v>
       </c>
     </row>
     <row r="17">
@@ -321,13 +321,13 @@
         <v>-1.0609734058380127</v>
       </c>
       <c r="C17" s="2">
-        <v>-1.4447412490844727</v>
+        <v>-1.4462181329727173</v>
       </c>
       <c r="D17" s="2">
-        <v>-0.14019788801670074</v>
+        <v>-0.14019788801670075</v>
       </c>
       <c r="E17" s="2">
-        <v>-0.48830372095108032</v>
+        <v>-0.49246624112129211</v>
       </c>
     </row>
     <row r="18">
@@ -338,13 +338,13 @@
         <v>0.53318673372268677</v>
       </c>
       <c r="C18" s="2">
-        <v>0.30262145400047302</v>
+        <v>0.30130943655967712</v>
       </c>
       <c r="D18" s="2">
         <v>-0.16055162250995636</v>
       </c>
       <c r="E18" s="2">
-        <v>-0.4897291362285614</v>
+        <v>-0.49377501010894775</v>
       </c>
     </row>
     <row r="19">
@@ -355,13 +355,13 @@
         <v>-0.62448883056640625</v>
       </c>
       <c r="C19" s="2">
-        <v>-1.0193157196044922</v>
+        <v>-1.0218106508255005</v>
       </c>
       <c r="D19" s="2">
         <v>-0.25215312838554382</v>
       </c>
       <c r="E19" s="2">
-        <v>-0.58840477466583252</v>
+        <v>-0.59246546030044556</v>
       </c>
     </row>
     <row r="20">
@@ -372,13 +372,13 @@
         <v>-0.12498348951339722</v>
       </c>
       <c r="C20" s="2">
-        <v>-0.38292798399925232</v>
+        <v>-0.38725116848945618</v>
       </c>
       <c r="D20" s="2">
         <v>-0.22514151036739349</v>
       </c>
       <c r="E20" s="2">
-        <v>-0.53109538555145264</v>
+        <v>-0.53533107042312622</v>
       </c>
     </row>
     <row r="21">
@@ -389,13 +389,13 @@
         <v>-0.38679426908493042</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.87523651123046875</v>
+        <v>-0.88370823860168457</v>
       </c>
       <c r="D21" s="2">
         <v>-0.27614706754684448</v>
       </c>
       <c r="E21" s="2">
-        <v>-0.58544844388961792</v>
+        <v>-0.58918356895446777</v>
       </c>
     </row>
     <row r="22">
@@ -406,13 +406,13 @@
         <v>-0.10041602700948715</v>
       </c>
       <c r="C22" s="2">
-        <v>-0.34257504343986511</v>
+        <v>-0.34593552350997925</v>
       </c>
       <c r="D22" s="2">
         <v>-0.2092270702123642</v>
       </c>
       <c r="E22" s="2">
-        <v>-0.49234983325004578</v>
+        <v>-0.4962293803691864</v>
       </c>
     </row>
     <row r="23">
@@ -423,13 +423,13 @@
         <v>-0.27287611365318298</v>
       </c>
       <c r="C23" s="2">
-        <v>-0.649769127368927</v>
+        <v>-0.65673255920410156</v>
       </c>
       <c r="D23" s="2">
         <v>-0.29087939858436584</v>
       </c>
       <c r="E23" s="2">
-        <v>-0.57511651515960693</v>
+        <v>-0.57930374145507813</v>
       </c>
     </row>
     <row r="24">
@@ -440,13 +440,13 @@
         <v>0.023974135518074036</v>
       </c>
       <c r="C24" s="2">
-        <v>-0.12200833112001419</v>
+        <v>-0.12751111388206482</v>
       </c>
       <c r="D24" s="2">
         <v>-0.24808692932128906</v>
       </c>
       <c r="E24" s="2">
-        <v>-0.53125894069671631</v>
+        <v>-0.53505796194076538</v>
       </c>
     </row>
     <row r="25">
@@ -457,13 +457,13 @@
         <v>-0.4719524085521698</v>
       </c>
       <c r="C25" s="2">
-        <v>-0.73508328199386597</v>
+        <v>-0.73479408025741577</v>
       </c>
       <c r="D25" s="2">
         <v>-0.31977397203445435</v>
       </c>
       <c r="E25" s="2">
-        <v>-0.60457718372344971</v>
+        <v>-0.60798221826553345</v>
       </c>
     </row>
     <row r="26">
@@ -474,13 +474,13 @@
         <v>-0.45869335532188416</v>
       </c>
       <c r="C26" s="2">
-        <v>-0.6068539023399353</v>
+        <v>-0.60963064432144165</v>
       </c>
       <c r="D26" s="2">
         <v>-0.21627253293991089</v>
       </c>
       <c r="E26" s="2">
-        <v>-0.46995842456817627</v>
+        <v>-0.4732118546962738</v>
       </c>
     </row>
     <row r="27">
@@ -491,13 +491,13 @@
         <v>-0.2016841322183609</v>
       </c>
       <c r="C27" s="2">
-        <v>-0.44227862358093262</v>
+        <v>-0.44635990262031555</v>
       </c>
       <c r="D27" s="2">
         <v>-0.15139244496822357</v>
       </c>
       <c r="E27" s="2">
-        <v>-0.40264913439750671</v>
+        <v>-0.40562885999679565</v>
       </c>
     </row>
     <row r="28">
@@ -508,13 +508,13 @@
         <v>-0.23935668170452118</v>
       </c>
       <c r="C28" s="2">
-        <v>-0.62459760904312134</v>
+        <v>-0.62359845638275147</v>
       </c>
       <c r="D28" s="2">
         <v>-0.093287214636802673</v>
       </c>
       <c r="E28" s="2">
-        <v>-0.33247274160385132</v>
+        <v>-0.33482721447944641</v>
       </c>
     </row>
     <row r="29">
@@ -525,13 +525,13 @@
         <v>-0.77016687393188477</v>
       </c>
       <c r="C29" s="2">
-        <v>-1.0427919626235962</v>
+        <v>-1.0435695648193359</v>
       </c>
       <c r="D29" s="2">
         <v>-0.1603572815656662</v>
       </c>
       <c r="E29" s="2">
-        <v>-0.40556925535202026</v>
+        <v>-0.40744262933731079</v>
       </c>
     </row>
     <row r="30">
@@ -542,13 +542,13 @@
         <v>0.54471868276596069</v>
       </c>
       <c r="C30" s="2">
-        <v>0.33633217215538025</v>
+        <v>0.329225093126297</v>
       </c>
       <c r="D30" s="2">
         <v>-0.097807548940181732</v>
       </c>
       <c r="E30" s="2">
-        <v>-0.33926427364349365</v>
+        <v>-0.34140095114707947</v>
       </c>
     </row>
     <row r="31">
@@ -559,13 +559,13 @@
         <v>0.48350468277931213</v>
       </c>
       <c r="C31" s="2">
-        <v>0.26320856809616089</v>
+        <v>0.26231139898300171</v>
       </c>
       <c r="D31" s="2">
         <v>-0.10886616259813309</v>
       </c>
       <c r="E31" s="2">
-        <v>-0.37626954913139343</v>
+        <v>-0.3785911500453949</v>
       </c>
     </row>
     <row r="32">
@@ -576,13 +576,13 @@
         <v>0.25007104873657227</v>
       </c>
       <c r="C32" s="2">
-        <v>-0.018181676045060158</v>
+        <v>-0.019517678767442703</v>
       </c>
       <c r="D32" s="2">
         <v>-0.21468514204025269</v>
       </c>
       <c r="E32" s="2">
-        <v>-0.49930432438850403</v>
+        <v>-0.50181424617767334</v>
       </c>
     </row>
     <row r="33">
@@ -593,13 +593,13 @@
         <v>-0.57965648174285889</v>
       </c>
       <c r="C33" s="2">
-        <v>-0.77987688779830933</v>
+        <v>-0.78104972839355469</v>
       </c>
       <c r="D33" s="2">
         <v>-0.1857101172208786</v>
       </c>
       <c r="E33" s="2">
-        <v>-0.46106541156768799</v>
+        <v>-0.46408173441886902</v>
       </c>
     </row>
     <row r="34">
@@ -610,13 +610,13 @@
         <v>0.090995185077190399</v>
       </c>
       <c r="C34" s="2">
-        <v>-0.13833856582641602</v>
+        <v>-0.14041894674301147</v>
       </c>
       <c r="D34" s="2">
         <v>-0.086152300238609314</v>
       </c>
       <c r="E34" s="2">
-        <v>-0.35192751884460449</v>
+        <v>-0.35507252812385559</v>
       </c>
     </row>
     <row r="35">
@@ -627,13 +627,13 @@
         <v>-0.55822086334228516</v>
       </c>
       <c r="C35" s="2">
-        <v>-0.93990129232406616</v>
+        <v>-0.94434249401092529</v>
       </c>
       <c r="D35" s="2">
         <v>-0.11454352736473083</v>
       </c>
       <c r="E35" s="2">
-        <v>-0.38586249947547913</v>
+        <v>-0.38850989937782288</v>
       </c>
     </row>
     <row r="36">
@@ -644,13 +644,13 @@
         <v>-1.1540549993515015</v>
       </c>
       <c r="C36" s="2">
-        <v>-1.5495917797088623</v>
+        <v>-1.5553679466247559</v>
       </c>
       <c r="D36" s="2">
         <v>-0.17915503680706024</v>
       </c>
       <c r="E36" s="2">
-        <v>-0.44647645950317383</v>
+        <v>-0.44893959164619446</v>
       </c>
     </row>
     <row r="37">
@@ -661,13 +661,13 @@
         <v>0.021418565884232521</v>
       </c>
       <c r="C37" s="2">
-        <v>-0.28044730424880981</v>
+        <v>-0.28400570154190064</v>
       </c>
       <c r="D37" s="2">
         <v>-0.1833871603012085</v>
       </c>
       <c r="E37" s="2">
-        <v>-0.44962015748023987</v>
+        <v>-0.45192486047744751</v>
       </c>
     </row>
     <row r="38">
@@ -678,13 +678,13 @@
         <v>0.12585350871086121</v>
       </c>
       <c r="C38" s="2">
-        <v>-0.06055096909403801</v>
+        <v>-0.062486816197633743</v>
       </c>
       <c r="D38" s="2">
         <v>-0.19518217444419861</v>
       </c>
       <c r="E38" s="2">
-        <v>-0.50113242864608765</v>
+        <v>-0.5039101243019104</v>
       </c>
     </row>
     <row r="39">
@@ -695,13 +695,13 @@
         <v>0.28919762372970581</v>
       </c>
       <c r="C39" s="2">
-        <v>0.030917372554540634</v>
+        <v>0.028288889676332474</v>
       </c>
       <c r="D39" s="2">
         <v>-0.15041124820709229</v>
       </c>
       <c r="E39" s="2">
-        <v>-0.42856630682945251</v>
+        <v>-0.43139615654945374</v>
       </c>
     </row>
     <row r="40">
@@ -712,13 +712,13 @@
         <v>-0.097998887300491333</v>
       </c>
       <c r="C40" s="2">
-        <v>-0.28231707215309143</v>
+        <v>-0.2815558910369873</v>
       </c>
       <c r="D40" s="2">
         <v>-0.075663968920707703</v>
       </c>
       <c r="E40" s="2">
-        <v>-0.36538821458816528</v>
+        <v>-0.36834657192230225</v>
       </c>
     </row>
     <row r="41">
@@ -729,13 +729,13 @@
         <v>0.21198192238807678</v>
       </c>
       <c r="C41" s="2">
-        <v>-0.04647504910826683</v>
+        <v>-0.046385053545236588</v>
       </c>
       <c r="D41" s="2">
         <v>0.0076738409698009491</v>
       </c>
       <c r="E41" s="2">
-        <v>-0.27135220170021057</v>
+        <v>-0.27365624904632568</v>
       </c>
     </row>
     <row r="42">
@@ -746,13 +746,13 @@
         <v>-0.68581163883209229</v>
       </c>
       <c r="C42" s="2">
-        <v>-1.2434871196746826</v>
+        <v>-1.2489173412322998</v>
       </c>
       <c r="D42" s="2">
         <v>0.037948276847600937</v>
       </c>
       <c r="E42" s="2">
-        <v>-0.24233236908912659</v>
+        <v>-0.24468819797039032</v>
       </c>
     </row>
     <row r="43">
@@ -763,13 +763,13 @@
         <v>0.49393346905708313</v>
       </c>
       <c r="C43" s="2">
-        <v>0.51475638151168823</v>
+        <v>0.51220703125</v>
       </c>
       <c r="D43" s="2">
         <v>0.027599811553955078</v>
       </c>
       <c r="E43" s="2">
-        <v>-0.27887871861457825</v>
+        <v>-0.28121733665466309</v>
       </c>
     </row>
     <row r="44">
@@ -780,13 +780,13 @@
         <v>0.11450470983982086</v>
       </c>
       <c r="C44" s="2">
-        <v>-0.37129849195480347</v>
+        <v>-0.37689641118049622</v>
       </c>
       <c r="D44" s="2">
         <v>-0.048547346144914627</v>
       </c>
       <c r="E44" s="2">
-        <v>-0.33222857117652893</v>
+        <v>-0.33418992161750793</v>
       </c>
     </row>
     <row r="45">
@@ -797,13 +797,13 @@
         <v>-0.4040147066116333</v>
       </c>
       <c r="C45" s="2">
-        <v>-0.70326769351959229</v>
+        <v>-0.7031550407409668</v>
       </c>
       <c r="D45" s="2">
         <v>-0.081148959696292877</v>
       </c>
       <c r="E45" s="2">
-        <v>-0.37292885780334473</v>
+        <v>-0.37507936358451843</v>
       </c>
     </row>
     <row r="46">
@@ -814,13 +814,13 @@
         <v>0.29388847947120667</v>
       </c>
       <c r="C46" s="2">
-        <v>-0.01926867850124836</v>
+        <v>-0.023293115198612213</v>
       </c>
       <c r="D46" s="2">
         <v>-0.1598929762840271</v>
       </c>
       <c r="E46" s="2">
-        <v>-0.44980883598327637</v>
+        <v>-0.45205196738243103</v>
       </c>
     </row>
     <row r="47">
@@ -831,13 +831,13 @@
         <v>0.032717324793338776</v>
       </c>
       <c r="C47" s="2">
-        <v>-0.38946807384490967</v>
+        <v>-0.39124903082847595</v>
       </c>
       <c r="D47" s="2">
         <v>-0.14775112271308899</v>
       </c>
       <c r="E47" s="2">
-        <v>-0.40449291467666626</v>
+        <v>-0.40616148710250854</v>
       </c>
     </row>
     <row r="48">
@@ -848,13 +848,13 @@
         <v>-0.39612677693367004</v>
       </c>
       <c r="C48" s="2">
-        <v>-0.44923147559165955</v>
+        <v>-0.44846445322036743</v>
       </c>
       <c r="D48" s="2">
         <v>-0.27623826265335083</v>
       </c>
       <c r="E48" s="2">
-        <v>-0.56766420602798462</v>
+        <v>-0.5689271092414856</v>
       </c>
     </row>
     <row r="49">
@@ -865,13 +865,13 @@
         <v>-0.39141345024108887</v>
       </c>
       <c r="C49" s="2">
-        <v>-0.64861959218978882</v>
+        <v>-0.64956092834472656</v>
       </c>
       <c r="D49" s="2">
         <v>-0.27205902338027954</v>
       </c>
       <c r="E49" s="2">
-        <v>-0.54088246822357178</v>
+        <v>-0.54185909032821655</v>
       </c>
     </row>
     <row r="50">
@@ -882,13 +882,13 @@
         <v>-0.49671423435211182</v>
       </c>
       <c r="C50" s="2">
-        <v>-0.73839485645294189</v>
+        <v>-0.73913830518722534</v>
       </c>
       <c r="D50" s="2">
         <v>-0.25660091638565063</v>
       </c>
       <c r="E50" s="2">
-        <v>-0.51839756965637207</v>
+        <v>-0.51924639940261841</v>
       </c>
     </row>
     <row r="51">
@@ -899,13 +899,13 @@
         <v>-0.57653486728668213</v>
       </c>
       <c r="C51" s="2">
-        <v>-0.83564382791519165</v>
+        <v>-0.83590322732925415</v>
       </c>
       <c r="D51" s="2">
         <v>-0.32184427976608276</v>
       </c>
       <c r="E51" s="2">
-        <v>-0.57879233360290527</v>
+        <v>-0.58002722263336182</v>
       </c>
     </row>
     <row r="52">
@@ -916,13 +916,13 @@
         <v>-0.66245073080062866</v>
       </c>
       <c r="C52" s="2">
-        <v>-0.95378494262695312</v>
+        <v>-0.95268362760543823</v>
       </c>
       <c r="D52" s="2">
         <v>-0.33927956223487854</v>
       </c>
       <c r="E52" s="2">
-        <v>-0.56797617673873901</v>
+        <v>-0.56911635398864746</v>
       </c>
     </row>
     <row r="53">
@@ -933,13 +933,13 @@
         <v>0.15211783349514008</v>
       </c>
       <c r="C53" s="2">
-        <v>-0.1302633136510849</v>
+        <v>-0.13328395783901215</v>
       </c>
       <c r="D53" s="2">
         <v>-0.35259756445884705</v>
       </c>
       <c r="E53" s="2">
-        <v>-0.61765438318252563</v>
+        <v>-0.61897540092468262</v>
       </c>
     </row>
     <row r="54">
@@ -950,13 +950,13 @@
         <v>-0.26489183306694031</v>
       </c>
       <c r="C54" s="2">
-        <v>-0.50090336799621582</v>
+        <v>-0.49964073300361633</v>
       </c>
       <c r="D54" s="2">
         <v>-0.30641192197799683</v>
       </c>
       <c r="E54" s="2">
-        <v>-0.5786813497543335</v>
+        <v>-0.57995998859405518</v>
       </c>
     </row>
     <row r="55">
@@ -967,13 +967,13 @@
         <v>-0.29330176115036011</v>
       </c>
       <c r="C55" s="2">
-        <v>-0.56282132863998413</v>
+        <v>-0.570320725440979</v>
       </c>
       <c r="D55" s="2">
         <v>-0.32997885346412659</v>
       </c>
       <c r="E55" s="2">
-        <v>-0.60420280694961548</v>
+        <v>-0.60612392425537109</v>
       </c>
     </row>
     <row r="56">
@@ -984,13 +984,13 @@
         <v>-0.12420023232698441</v>
       </c>
       <c r="C56" s="2">
-        <v>-0.29212284088134766</v>
+        <v>-0.29305112361907959</v>
       </c>
       <c r="D56" s="2">
         <v>-0.35911431908607483</v>
       </c>
       <c r="E56" s="2">
-        <v>-0.64414441585540771</v>
+        <v>-0.64619314670562744</v>
       </c>
     </row>
     <row r="57">
@@ -998,16 +998,16 @@
         <v>42948</v>
       </c>
       <c r="B57" s="2">
-        <v>-0.51598882675170898</v>
+        <v>-0.51598882675170899</v>
       </c>
       <c r="C57" s="2">
-        <v>-0.89633548259735107</v>
+        <v>-0.89719623327255249</v>
       </c>
       <c r="D57" s="2">
         <v>-0.24196623265743256</v>
       </c>
       <c r="E57" s="2">
-        <v>-0.53241664171218872</v>
+        <v>-0.53552317619323731</v>
       </c>
     </row>
     <row r="58">
@@ -1018,13 +1018,13 @@
         <v>0.024257250130176544</v>
       </c>
       <c r="C58" s="2">
-        <v>-0.29786220192909241</v>
+        <v>-0.29842212796211243</v>
       </c>
       <c r="D58" s="2">
         <v>-0.30076441168785095</v>
       </c>
       <c r="E58" s="2">
-        <v>-0.60098308324813843</v>
+        <v>-0.60423624515533447</v>
       </c>
     </row>
     <row r="59">
@@ -1035,13 +1035,13 @@
         <v>-0.7088165283203125</v>
       </c>
       <c r="C59" s="2">
-        <v>-0.96808779239654541</v>
+        <v>-0.97461378574371338</v>
       </c>
       <c r="D59" s="2">
         <v>-0.29284968972206116</v>
       </c>
       <c r="E59" s="2">
-        <v>-0.59720057249069214</v>
+        <v>-0.60077089071273804</v>
       </c>
     </row>
     <row r="60">
@@ -1052,13 +1052,13 @@
         <v>-0.83875411748886108</v>
       </c>
       <c r="C60" s="2">
-        <v>-1.1951185464859009</v>
+        <v>-1.1965259313583374</v>
       </c>
       <c r="D60" s="2">
         <v>-0.31478077173233032</v>
       </c>
       <c r="E60" s="2">
-        <v>-0.63931792974472046</v>
+        <v>-0.64221972227096558</v>
       </c>
     </row>
     <row r="61">
@@ -1069,13 +1069,13 @@
         <v>0.39188209176063538</v>
       </c>
       <c r="C61" s="2">
-        <v>0.051765009760856628</v>
+        <v>0.043345876038074494</v>
       </c>
       <c r="D61" s="2">
         <v>-0.32838353514671326</v>
       </c>
       <c r="E61" s="2">
-        <v>-0.67505419254302979</v>
+        <v>-0.67825490236282349</v>
       </c>
     </row>
     <row r="62">
@@ -1086,13 +1086,13 @@
         <v>-0.37706586718559265</v>
       </c>
       <c r="C62" s="2">
-        <v>-0.74736130237579346</v>
+        <v>-0.75170129537582398</v>
       </c>
       <c r="D62" s="2">
         <v>-0.32985919713973999</v>
       </c>
       <c r="E62" s="2">
-        <v>-0.66808515787124634</v>
+        <v>-0.67152732610702515</v>
       </c>
     </row>
     <row r="63">
@@ -1103,13 +1103,13 @@
         <v>-0.19365914165973663</v>
       </c>
       <c r="C63" s="2">
-        <v>-0.46686083078384399</v>
+        <v>-0.46845263242721558</v>
       </c>
       <c r="D63" s="2">
         <v>-0.24417248368263245</v>
       </c>
       <c r="E63" s="2">
-        <v>-0.56993728876113892</v>
+        <v>-0.57376980781555176</v>
       </c>
     </row>
     <row r="64">
@@ -1120,13 +1120,13 @@
         <v>-0.49068161845207214</v>
       </c>
       <c r="C64" s="2">
-        <v>-0.94187712669372559</v>
+        <v>-0.94336044788360596</v>
       </c>
       <c r="D64" s="2">
-        <v>-0.21772113442420959</v>
+        <v>-0.2177211344242096</v>
       </c>
       <c r="E64" s="2">
-        <v>-0.55203843116760254</v>
+        <v>-0.55554938316345215</v>
       </c>
     </row>
     <row r="65">
@@ -1137,13 +1137,13 @@
         <v>-0.24662499129772186</v>
       </c>
       <c r="C65" s="2">
-        <v>-0.61374956369400024</v>
+        <v>-0.61736768484115601</v>
       </c>
       <c r="D65" s="2">
         <v>-0.096363365650177002</v>
       </c>
       <c r="E65" s="2">
-        <v>-0.42835345864295959</v>
+        <v>-0.43236327171325684</v>
       </c>
     </row>
     <row r="66">
@@ -1154,13 +1154,13 @@
         <v>-0.5292697548866272</v>
       </c>
       <c r="C66" s="2">
-        <v>-0.8336142897605896</v>
+        <v>-0.83664810657501221</v>
       </c>
       <c r="D66" s="2">
         <v>-0.1127610057592392</v>
       </c>
       <c r="E66" s="2">
-        <v>-0.45558932423591614</v>
+        <v>-0.4592033326625824</v>
       </c>
     </row>
     <row r="67">
@@ -1171,13 +1171,13 @@
         <v>0.7954375147819519</v>
       </c>
       <c r="C67" s="2">
-        <v>0.585468590259552</v>
+        <v>0.58139598369598389</v>
       </c>
       <c r="D67" s="2">
         <v>-0.065585754811763763</v>
       </c>
       <c r="E67" s="2">
-        <v>-0.41949078440666199</v>
+        <v>-0.42369997501373291</v>
       </c>
     </row>
     <row r="68">
@@ -1188,13 +1188,13 @@
         <v>-0.47075435519218445</v>
       </c>
       <c r="C68" s="2">
-        <v>-0.80699777603149414</v>
+        <v>-0.81063026189804077</v>
       </c>
       <c r="D68" s="2">
         <v>-0.068046808242797852</v>
       </c>
       <c r="E68" s="2">
-        <v>-0.44573217630386353</v>
+        <v>-0.45069101452827454</v>
       </c>
     </row>
     <row r="69">
@@ -1205,13 +1205,13 @@
         <v>0.25346586108207703</v>
       </c>
       <c r="C69" s="2">
-        <v>-0.081953771412372589</v>
+        <v>-0.087850764393806458</v>
       </c>
       <c r="D69" s="2">
         <v>-0.078930631279945374</v>
       </c>
       <c r="E69" s="2">
-        <v>-0.46386006474494934</v>
+        <v>-0.46952247619628906</v>
       </c>
     </row>
     <row r="70">
@@ -1222,13 +1222,13 @@
         <v>0.24430331587791443</v>
       </c>
       <c r="C70" s="2">
-        <v>-0.19335795938968658</v>
+        <v>-0.19821478426456451</v>
       </c>
       <c r="D70" s="2">
         <v>-0.10793200135231018</v>
       </c>
       <c r="E70" s="2">
-        <v>-0.47235515713691711</v>
+        <v>-0.47816959023475647</v>
       </c>
     </row>
     <row r="71">
@@ -1239,13 +1239,13 @@
         <v>0.047511395066976547</v>
       </c>
       <c r="C71" s="2">
-        <v>-0.42247441411018372</v>
+        <v>-0.43217101693153381</v>
       </c>
       <c r="D71" s="2">
         <v>-0.15277969837188721</v>
       </c>
       <c r="E71" s="2">
-        <v>-0.49048572778701782</v>
+        <v>-0.49637442827224731</v>
       </c>
     </row>
     <row r="72">
@@ -1256,13 +1256,13 @@
         <v>-0.21580861508846283</v>
       </c>
       <c r="C72" s="2">
-        <v>-0.70303338766098022</v>
+        <v>-0.7113720178604126</v>
       </c>
       <c r="D72" s="2">
         <v>-0.21412444114685059</v>
       </c>
       <c r="E72" s="2">
-        <v>-0.5649225115776062</v>
+        <v>-0.57030570507049561</v>
       </c>
     </row>
     <row r="73">
@@ -1273,13 +1273,13 @@
         <v>-0.58863604068756104</v>
       </c>
       <c r="C73" s="2">
-        <v>-1.1050279140472412</v>
+        <v>-1.1128435134887695</v>
       </c>
       <c r="D73" s="2">
         <v>-0.20146757364273071</v>
       </c>
       <c r="E73" s="2">
-        <v>-0.53027039766311646</v>
+        <v>-0.53580015897750854</v>
       </c>
     </row>
     <row r="74">
@@ -1290,13 +1290,13 @@
         <v>-0.50763732194900513</v>
       </c>
       <c r="C74" s="2">
-        <v>-0.69020557403564453</v>
+        <v>-0.69519186019897461</v>
       </c>
       <c r="D74" s="2">
         <v>-0.24717943370342255</v>
       </c>
       <c r="E74" s="2">
-        <v>-0.56870245933532715</v>
+        <v>-0.57329279184341431</v>
       </c>
     </row>
     <row r="75">
@@ -1307,13 +1307,13 @@
         <v>-0.93289899826049805</v>
       </c>
       <c r="C75" s="2">
-        <v>-0.99678933620452881</v>
+        <v>-1.0004914999008179</v>
       </c>
       <c r="D75" s="2">
         <v>-0.31911718845367432</v>
       </c>
       <c r="E75" s="2">
-        <v>-0.61960852146148682</v>
+        <v>-0.62354612350463867</v>
       </c>
     </row>
     <row r="76">
@@ -1324,13 +1324,13 @@
         <v>0.24333480000495911</v>
       </c>
       <c r="C76" s="2">
-        <v>-0.084462292492389679</v>
+        <v>-0.083985656499862671</v>
       </c>
       <c r="D76" s="2">
         <v>-0.34663748741149902</v>
       </c>
       <c r="E76" s="2">
-        <v>-0.61614018678665161</v>
+        <v>-0.61919158697128296</v>
       </c>
     </row>
     <row r="77">
@@ -1341,13 +1341,13 @@
         <v>-0.35684254765510559</v>
       </c>
       <c r="C77" s="2">
-        <v>-0.49512901902198792</v>
+        <v>-0.50008046627044678</v>
       </c>
       <c r="D77" s="2">
         <v>-0.31957903504371643</v>
       </c>
       <c r="E77" s="2">
-        <v>-0.56271463632583618</v>
+        <v>-0.56515759229660034</v>
       </c>
     </row>
     <row r="78">
@@ -1358,13 +1358,13 @@
         <v>-0.15794084966182709</v>
       </c>
       <c r="C78" s="2">
-        <v>-0.42784217000007629</v>
+        <v>-0.42528429627418518</v>
       </c>
       <c r="D78" s="2">
         <v>-0.22663472592830658</v>
       </c>
       <c r="E78" s="2">
-        <v>-0.44073241949081421</v>
+        <v>-0.44302451610565186</v>
       </c>
     </row>
     <row r="79">
@@ -1375,13 +1375,13 @@
         <v>-0.40313661098480225</v>
       </c>
       <c r="C79" s="2">
-        <v>-0.65151262283325195</v>
+        <v>-0.65049481391906738</v>
       </c>
       <c r="D79" s="2">
         <v>-0.18005566298961639</v>
       </c>
       <c r="E79" s="2">
-        <v>-0.39391738176345825</v>
+        <v>-0.39625802636146546</v>
       </c>
     </row>
     <row r="80">
@@ -1392,13 +1392,13 @@
         <v>-0.20017130672931671</v>
       </c>
       <c r="C80" s="2">
-        <v>-0.39125952124595642</v>
+        <v>-0.39298039674758911</v>
       </c>
       <c r="D80" s="2">
         <v>-0.02626936137676239</v>
       </c>
       <c r="E80" s="2">
-        <v>-0.27381256222724915</v>
+        <v>-0.27605879306793213</v>
       </c>
     </row>
     <row r="81">
@@ -1409,13 +1409,13 @@
         <v>0.027717467397451401</v>
       </c>
       <c r="C81" s="2">
-        <v>-0.22220307588577271</v>
+        <v>-0.22506599128246307</v>
       </c>
       <c r="D81" s="2">
         <v>-0.034426335245370865</v>
       </c>
       <c r="E81" s="2">
-        <v>-0.26120314002037048</v>
+        <v>-0.26335826516151428</v>
       </c>
     </row>
     <row r="82">
@@ -1426,13 +1426,13 @@
         <v>0.2478628009557724</v>
       </c>
       <c r="C82" s="2">
-        <v>-0.0071882400661706924</v>
+        <v>-0.013645743019878864</v>
       </c>
       <c r="D82" s="2">
         <v>0.03372843936085701</v>
       </c>
       <c r="E82" s="2">
-        <v>-0.21910113096237183</v>
+        <v>-0.22126029431819916</v>
       </c>
     </row>
     <row r="83">
@@ -1443,13 +1443,13 @@
         <v>-0.088425688445568085</v>
       </c>
       <c r="C83" s="2">
-        <v>-0.26887014508247375</v>
+        <v>-0.27429339289665222</v>
       </c>
       <c r="D83" s="2">
         <v>0.017333682626485825</v>
       </c>
       <c r="E83" s="2">
-        <v>-0.23039865493774414</v>
+        <v>-0.23297512531280518</v>
       </c>
     </row>
     <row r="84">
@@ -1460,13 +1460,13 @@
         <v>0.4511776864528656</v>
       </c>
       <c r="C84" s="2">
-        <v>0.084154121577739716</v>
+        <v>0.081301599740982056</v>
       </c>
       <c r="D84" s="2">
         <v>0.0051900632679462433</v>
       </c>
       <c r="E84" s="2">
-        <v>-0.23462924361228943</v>
+        <v>-0.23770521581172943</v>
       </c>
     </row>
     <row r="85">
@@ -1477,13 +1477,13 @@
         <v>0.16992203891277313</v>
       </c>
       <c r="C85" s="2">
-        <v>0.029022490605711937</v>
+        <v>0.030319029465317726</v>
       </c>
       <c r="D85" s="2">
         <v>0.030686743557453156</v>
       </c>
       <c r="E85" s="2">
-        <v>-0.19142521917819977</v>
+        <v>-0.19430874288082123</v>
       </c>
     </row>
     <row r="86">
@@ -1494,13 +1494,13 @@
         <v>0.25655040144920349</v>
       </c>
       <c r="C86" s="2">
-        <v>-0.11621101200580597</v>
+        <v>-0.12119863927364349</v>
       </c>
       <c r="D86" s="2">
         <v>-0.00040994916344061494</v>
       </c>
       <c r="E86" s="2">
-        <v>-0.21359968185424805</v>
+        <v>-0.21629737317562103</v>
       </c>
     </row>
     <row r="87">
@@ -1511,13 +1511,13 @@
         <v>-0.30549365282058716</v>
       </c>
       <c r="C87" s="2">
-        <v>-0.52951991558074951</v>
+        <v>-0.53071779012680054</v>
       </c>
       <c r="D87" s="2">
         <v>-0.039005279541015625</v>
       </c>
       <c r="E87" s="2">
-        <v>-0.23527932167053223</v>
+        <v>-0.23747687041759491</v>
       </c>
     </row>
     <row r="88">
@@ -1528,13 +1528,13 @@
         <v>-0.51242917776107788</v>
       </c>
       <c r="C88" s="2">
-        <v>-0.68958795070648193</v>
+        <v>-0.69306564331054688</v>
       </c>
       <c r="D88" s="2">
         <v>-0.094004616141319275</v>
       </c>
       <c r="E88" s="2">
-        <v>-0.28949037194252014</v>
+        <v>-0.29099375009536743</v>
       </c>
     </row>
     <row r="89">
@@ -1545,13 +1545,13 @@
         <v>0.029298819601535797</v>
       </c>
       <c r="C89" s="2">
-        <v>-0.002423188416287303</v>
+        <v>-0.0024121745955199003</v>
       </c>
       <c r="D89" s="2">
         <v>-0.15146702527999878</v>
       </c>
       <c r="E89" s="2">
-        <v>-0.32730621099472046</v>
+        <v>-0.32885006070137024</v>
       </c>
     </row>
     <row r="90">
@@ -1562,13 +1562,13 @@
         <v>-0.25215277075767517</v>
       </c>
       <c r="C90" s="2">
-        <v>-0.42177331447601318</v>
+        <v>-0.42296361923217773</v>
       </c>
       <c r="D90" s="2">
         <v>-0.18715491890907288</v>
       </c>
       <c r="E90" s="2">
-        <v>-0.37959966063499451</v>
+        <v>-0.38195237517356873</v>
       </c>
     </row>
     <row r="91">
@@ -1579,13 +1579,13 @@
         <v>-0.099495157599449158</v>
       </c>
       <c r="C91" s="2">
-        <v>-0.20230494439601898</v>
+        <v>-0.20426125824451447</v>
       </c>
       <c r="D91" s="2">
-        <v>-0.22937063872814178</v>
+        <v>-0.22937063872814179</v>
       </c>
       <c r="E91" s="2">
-        <v>-0.37543055415153503</v>
+        <v>-0.37697112560272217</v>
       </c>
     </row>
     <row r="92">
@@ -1593,16 +1593,16 @@
         <v>44013</v>
       </c>
       <c r="B92" s="2">
-        <v>-0.58341974020004272</v>
+        <v>-0.58341974020004273</v>
       </c>
       <c r="C92" s="2">
-        <v>-0.75676971673965454</v>
+        <v>-0.75594514608383179</v>
       </c>
       <c r="D92" s="2">
         <v>-0.24346867203712463</v>
       </c>
       <c r="E92" s="2">
-        <v>-0.40046843886375427</v>
+        <v>-0.40221554040908813</v>
       </c>
     </row>
     <row r="93">
@@ -1613,13 +1613,13 @@
         <v>-0.06598401814699173</v>
       </c>
       <c r="C93" s="2">
-        <v>-0.25618845224380493</v>
+        <v>-0.25940540432929993</v>
       </c>
       <c r="D93" s="2">
         <v>-0.21950669586658478</v>
       </c>
       <c r="E93" s="2">
-        <v>-0.37369272112846375</v>
+        <v>-0.37515458464622498</v>
       </c>
     </row>
     <row r="94">
@@ -1630,13 +1630,13 @@
         <v>-0.15126897394657135</v>
       </c>
       <c r="C94" s="2">
-        <v>-0.44161835312843323</v>
+        <v>-0.44760176539421082</v>
       </c>
       <c r="D94" s="2">
-        <v>-0.23843617737293243</v>
+        <v>-0.23843617737293244</v>
       </c>
       <c r="E94" s="2">
-        <v>-0.42034873366355896</v>
+        <v>-0.4216860830783844</v>
       </c>
     </row>
     <row r="95">
@@ -1647,13 +1647,13 @@
         <v>-0.1233910396695137</v>
       </c>
       <c r="C95" s="2">
-        <v>-0.078689165413379669</v>
+        <v>-0.076367303729057312</v>
       </c>
       <c r="D95" s="2">
         <v>-0.12063248455524445</v>
       </c>
       <c r="E95" s="2">
-        <v>-0.32142388820648193</v>
+        <v>-0.32276785373687744</v>
       </c>
     </row>
     <row r="96">
@@ -1664,13 +1664,13 @@
         <v>-0.43237602710723877</v>
       </c>
       <c r="C96" s="2">
-        <v>-0.75486075878143311</v>
+        <v>-0.75791746377944946</v>
       </c>
       <c r="D96" s="2">
         <v>-0.091354772448539734</v>
       </c>
       <c r="E96" s="2">
-        <v>-0.32235130667686462</v>
+        <v>-0.32329970598220825</v>
       </c>
     </row>
     <row r="97">
@@ -1681,13 +1681,13 @@
         <v>-0.2967713475227356</v>
       </c>
       <c r="C97" s="2">
-        <v>-0.44860661029815674</v>
+        <v>-0.44951710104942322</v>
       </c>
       <c r="D97" s="2">
         <v>-0.079557500779628754</v>
       </c>
       <c r="E97" s="2">
-        <v>-0.31244182586669922</v>
+        <v>-0.31356674432754517</v>
       </c>
     </row>
     <row r="98">
@@ -1698,13 +1698,13 @@
         <v>-0.14106658101081848</v>
       </c>
       <c r="C98" s="2">
-        <v>-0.42232736945152283</v>
+        <v>-0.42119559645652771</v>
       </c>
       <c r="D98" s="2">
         <v>-0.0394136942923069</v>
       </c>
       <c r="E98" s="2">
-        <v>-0.29247733950614929</v>
+        <v>-0.2931104302406311</v>
       </c>
     </row>
     <row r="99">
@@ -1715,13 +1715,13 @@
         <v>0.80808055400848389</v>
       </c>
       <c r="C99" s="2">
-        <v>0.46855035424232483</v>
+        <v>0.46730023622512817</v>
       </c>
       <c r="D99" s="2">
         <v>-0.06220351904630661</v>
       </c>
       <c r="E99" s="2">
-        <v>-0.30512627959251404</v>
+        <v>-0.30554983019828796</v>
       </c>
     </row>
     <row r="100">
@@ -1732,13 +1732,13 @@
         <v>0.16400422155857086</v>
       </c>
       <c r="C100" s="2">
-        <v>-0.21065157651901245</v>
+        <v>-0.20904771983623505</v>
       </c>
       <c r="D100" s="2">
         <v>-0.074212342500686646</v>
       </c>
       <c r="E100" s="2">
-        <v>-0.35636565089225769</v>
+        <v>-0.35703134536743164</v>
       </c>
     </row>
     <row r="101">
@@ -1749,13 +1749,13 @@
         <v>-0.47724428772926331</v>
       </c>
       <c r="C101" s="2">
-        <v>-0.66758447885513306</v>
+        <v>-0.66834861040115356</v>
       </c>
       <c r="D101" s="2">
         <v>-0.10567409545183182</v>
       </c>
       <c r="E101" s="2">
-        <v>-0.37988454103469849</v>
+        <v>-0.380817711353302</v>
       </c>
     </row>
     <row r="102">
@@ -1766,13 +1766,13 @@
         <v>0.29531022906303406</v>
       </c>
       <c r="C102" s="2">
-        <v>-0.076508015394210815</v>
+        <v>-0.075298681855201721</v>
       </c>
       <c r="D102" s="2">
         <v>-0.055531982332468033</v>
       </c>
       <c r="E102" s="2">
-        <v>-0.33333480358123779</v>
+        <v>-0.33456072211265564</v>
       </c>
     </row>
     <row r="103">
@@ -1783,13 +1783,13 @@
         <v>-0.35637739300727844</v>
       </c>
       <c r="C103" s="2">
-        <v>-0.55545896291732788</v>
+        <v>-0.55955612659454346</v>
       </c>
       <c r="D103" s="2">
         <v>0.016286512836813927</v>
       </c>
       <c r="E103" s="2">
-        <v>-0.25765687227249146</v>
+        <v>-0.25962045788764954</v>
       </c>
     </row>
     <row r="104">
@@ -1800,13 +1800,13 @@
         <v>-0.23147046566009521</v>
       </c>
       <c r="C104" s="2">
-        <v>-0.53984338045120239</v>
+        <v>-0.53970092535018921</v>
       </c>
       <c r="D104" s="2">
         <v>-0.16860204935073853</v>
       </c>
       <c r="E104" s="2">
-        <v>-0.43544211983680725</v>
+        <v>-0.43771329522132874</v>
       </c>
     </row>
     <row r="105">
@@ -1817,13 +1817,13 @@
         <v>-0.71553176641464233</v>
       </c>
       <c r="C105" s="2">
-        <v>-0.96653079986572266</v>
+        <v>-0.97199481725692749</v>
       </c>
       <c r="D105" s="2">
         <v>-0.15435120463371277</v>
       </c>
       <c r="E105" s="2">
-        <v>-0.40116095542907715</v>
+        <v>-0.40437966585159302</v>
       </c>
     </row>
     <row r="106">
@@ -1834,13 +1834,13 @@
         <v>0.15450765192508698</v>
       </c>
       <c r="C106" s="2">
-        <v>-0.029658962041139603</v>
+        <v>-0.033204153180122375</v>
       </c>
       <c r="D106" s="2">
         <v>-0.063373111188411713</v>
       </c>
       <c r="E106" s="2">
-        <v>-0.30137762427330017</v>
+        <v>-0.30448660254478455</v>
       </c>
     </row>
     <row r="107">
@@ -1851,13 +1851,13 @@
         <v>0.50529986619949341</v>
       </c>
       <c r="C107" s="2">
-        <v>0.25877398252487183</v>
+        <v>0.2532666027545929</v>
       </c>
       <c r="D107" s="2">
-        <v>-0.089116953313350677</v>
+        <v>-0.089116953313350678</v>
       </c>
       <c r="E107" s="2">
-        <v>-0.28670549392700195</v>
+        <v>-0.29010346531867981</v>
       </c>
     </row>
     <row r="108">
@@ -1868,13 +1868,13 @@
         <v>-0.85591655969619751</v>
       </c>
       <c r="C108" s="2">
-        <v>-1.1315169334411621</v>
+        <v>-1.1355351209640503</v>
       </c>
       <c r="D108" s="2">
         <v>-0.08382522314786911</v>
       </c>
       <c r="E108" s="2">
-        <v>-0.27123197913169861</v>
+        <v>-0.27473005652427673</v>
       </c>
     </row>
     <row r="109">
@@ -1885,13 +1885,13 @@
         <v>0.29226183891296387</v>
       </c>
       <c r="C109" s="2">
-        <v>0.097878843545913696</v>
+        <v>0.090954951941967011</v>
       </c>
       <c r="D109" s="2">
         <v>-0.19660459458827972</v>
       </c>
       <c r="E109" s="2">
-        <v>-0.35972154140472412</v>
+        <v>-0.36357292532920838</v>
       </c>
     </row>
     <row r="110">
@@ -1902,13 +1902,13 @@
         <v>0.34155860543251038</v>
       </c>
       <c r="C110" s="2">
-        <v>0.23046556115150452</v>
+        <v>0.23068895936012268</v>
       </c>
       <c r="D110" s="2">
         <v>-0.22061219811439514</v>
       </c>
       <c r="E110" s="2">
-        <v>-0.37763023376464844</v>
+        <v>-0.38103839755058289</v>
       </c>
     </row>
     <row r="111">
@@ -1919,13 +1919,13 @@
         <v>0.06361563503742218</v>
       </c>
       <c r="C111" s="2">
-        <v>0.055541280657052994</v>
+        <v>0.05414951965212822</v>
       </c>
       <c r="D111" s="2">
         <v>-0.32563570141792297</v>
       </c>
       <c r="E111" s="2">
-        <v>-0.46315452456474304</v>
+        <v>-0.46627858281135559</v>
       </c>
     </row>
     <row r="112">
@@ -1936,13 +1936,13 @@
         <v>-0.30875179171562195</v>
       </c>
       <c r="C112" s="2">
-        <v>-0.41619747877120972</v>
+        <v>-0.42119544744491577</v>
       </c>
       <c r="D112" s="2">
         <v>-0.48997443914413452</v>
       </c>
       <c r="E112" s="2">
-        <v>-0.61548209190368652</v>
+        <v>-0.6178433895111084</v>
       </c>
     </row>
     <row r="113">
@@ -1953,13 +1953,13 @@
         <v>-1.2464848756790161</v>
       </c>
       <c r="C113" s="2">
-        <v>-1.3362492322921753</v>
+        <v>-1.3392868041992188</v>
       </c>
       <c r="D113" s="2">
         <v>-0.45804888010025024</v>
       </c>
       <c r="E113" s="2">
-        <v>-0.57515460252761841</v>
+        <v>-0.57714641094207764</v>
       </c>
     </row>
     <row r="114">
@@ -1970,13 +1970,13 @@
         <v>-0.93160015344619751</v>
       </c>
       <c r="C114" s="2">
-        <v>-1.1277091503143311</v>
+        <v>-1.1291841268539429</v>
       </c>
       <c r="D114" s="2">
         <v>-0.58391422033309937</v>
       </c>
       <c r="E114" s="2">
-        <v>-0.69027203321456909</v>
+        <v>-0.69155043363571167</v>
       </c>
     </row>
     <row r="115">
@@ -1987,13 +1987,13 @@
         <v>-0.79070389270782471</v>
       </c>
       <c r="C115" s="2">
-        <v>-0.79937750101089478</v>
+        <v>-0.8003658652305603</v>
       </c>
       <c r="D115" s="2">
         <v>-0.60402911901473999</v>
       </c>
       <c r="E115" s="2">
-        <v>-0.69308441877365112</v>
+        <v>-0.69452852010726929</v>
       </c>
     </row>
     <row r="116">
@@ -2001,16 +2001,16 @@
         <v>44743</v>
       </c>
       <c r="B116" s="2">
-        <v>-0.97374874353408813</v>
+        <v>-0.97374874353408814</v>
       </c>
       <c r="C116" s="2">
-        <v>-1.1121741533279419</v>
+        <v>-1.1108163595199585</v>
       </c>
       <c r="D116" s="2">
         <v>-0.63690668344497681</v>
       </c>
       <c r="E116" s="2">
-        <v>-0.73264515399932861</v>
+        <v>-0.73406153917312622</v>
       </c>
     </row>
     <row r="117">
@@ -2018,16 +2018,16 @@
         <v>44774</v>
       </c>
       <c r="B117" s="2">
-        <v>-0.56858664751052856</v>
+        <v>-0.56858664751052857</v>
       </c>
       <c r="C117" s="2">
-        <v>-0.76856976747512817</v>
+        <v>-0.76926249265670776</v>
       </c>
       <c r="D117" s="2">
         <v>-0.61852693557739258</v>
       </c>
       <c r="E117" s="2">
-        <v>-0.71675866842269897</v>
+        <v>-0.71761798858642578</v>
       </c>
     </row>
     <row r="118">
@@ -2038,13 +2038,13 @@
         <v>-0.8405260443687439</v>
       </c>
       <c r="C118" s="2">
-        <v>-0.93817812204360962</v>
+        <v>-0.93868106603622437</v>
       </c>
       <c r="D118" s="2">
         <v>-0.5726659893989563</v>
       </c>
       <c r="E118" s="2">
-        <v>-0.66780787706375122</v>
+        <v>-0.66845899820327759</v>
       </c>
     </row>
     <row r="119">
@@ -2055,13 +2055,13 @@
         <v>0.16052468121051788</v>
       </c>
       <c r="C119" s="2">
-        <v>0.20515434443950653</v>
+        <v>0.20388579368591309</v>
       </c>
       <c r="D119" s="2">
         <v>-0.54333215951919556</v>
       </c>
       <c r="E119" s="2">
-        <v>-0.64173376560211182</v>
+        <v>-0.64219552278518677</v>
       </c>
     </row>
     <row r="120">
@@ -2072,13 +2072,13 @@
         <v>-0.2322828620672226</v>
       </c>
       <c r="C120" s="2">
-        <v>-0.30050510168075562</v>
+        <v>-0.30164733529090881</v>
       </c>
       <c r="D120" s="2">
         <v>-0.53246229887008667</v>
       </c>
       <c r="E120" s="2">
-        <v>-0.64541107416152954</v>
+        <v>-0.64588505029678345</v>
       </c>
     </row>
     <row r="121">
@@ -2089,13 +2089,13 @@
         <v>-0.14333407580852509</v>
       </c>
       <c r="C121" s="2">
-        <v>-0.27321937680244446</v>
+        <v>-0.27320358157157898</v>
       </c>
       <c r="D121" s="2">
         <v>-0.53456318378448486</v>
       </c>
       <c r="E121" s="2">
-        <v>-0.66013753414154053</v>
+        <v>-0.66058343648910523</v>
       </c>
     </row>
     <row r="122">
@@ -2106,13 +2106,13 @@
         <v>-0.83373624086380005</v>
       </c>
       <c r="C122" s="2">
-        <v>-0.89569187164306641</v>
+        <v>-0.89685600996017456</v>
       </c>
       <c r="D122" s="2">
-        <v>-0.53031027317047119</v>
+        <v>-0.50244688987731934</v>
       </c>
       <c r="E122" s="2">
-        <v>-0.64658349752426147</v>
+        <v>-0.64468091726303101</v>
       </c>
     </row>
     <row r="123">
@@ -2123,13 +2123,13 @@
         <v>-0.66759538650512695</v>
       </c>
       <c r="C123" s="2">
-        <v>-0.89304208755493164</v>
+        <v>-0.89281255006790161</v>
       </c>
       <c r="D123" s="2">
-        <v>-0.48599371314048767</v>
+        <v>-0.43224349617958069</v>
       </c>
       <c r="E123" s="2">
-        <v>-0.60492712259292603</v>
+        <v>-0.59903669357299805</v>
       </c>
     </row>
     <row r="124">
@@ -2140,13 +2140,13 @@
         <v>-0.6928754448890686</v>
       </c>
       <c r="C124" s="2">
-        <v>-0.83247369527816772</v>
+        <v>-0.83357161283493042</v>
       </c>
       <c r="D124" s="2">
-        <v>-0.59374678134918213</v>
+        <v>-0.46384522318840027</v>
       </c>
       <c r="E124" s="2">
-        <v>-0.73994064331054688</v>
+        <v>-0.65837031602859497</v>
       </c>
     </row>
     <row r="125">
@@ -2154,53 +2154,85 @@
         <v>45017</v>
       </c>
       <c r="B125" s="2">
-        <v>-0.99265658855438232</v>
+        <v>-0.99265658855438233</v>
       </c>
       <c r="C125" s="2">
-        <v>-1.2447118759155273</v>
+        <v>-1.2431023120880127</v>
       </c>
       <c r="D125" s="2">
-        <v>-0.66603952646255493</v>
+        <v>-0.42486768960952759</v>
       </c>
       <c r="E125" s="2">
-        <v>-0.8278278112411499</v>
+        <v>-0.65131592750549316</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1">
         <v>45047</v>
       </c>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
+      <c r="B126" s="2">
+        <v>-0.2795403003692627</v>
+      </c>
+      <c r="C126" s="2">
+        <v>-0.62613946199417114</v>
+      </c>
+      <c r="D126" s="2">
+        <v>-0.46005940437316895</v>
+      </c>
+      <c r="E126" s="2">
+        <v>-0.69857996702194214</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1">
         <v>45078</v>
       </c>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
+      <c r="B127" s="2">
+        <v>-0.20869520306587219</v>
+      </c>
+      <c r="C127" s="2">
+        <v>-0.52788317203521729</v>
+      </c>
+      <c r="D127" s="2">
+        <v>-0.40667697787284851</v>
+      </c>
+      <c r="E127" s="2">
+        <v>-0.67025482654571533</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1">
         <v>45108</v>
       </c>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
+      <c r="B128" s="2">
+        <v>-0.1238909438252449</v>
+      </c>
+      <c r="C128" s="2">
+        <v>-0.33011671900749207</v>
+      </c>
+      <c r="D128" s="2">
+        <v>-0.36319059133529663</v>
+      </c>
+      <c r="E128" s="2">
+        <v>-0.63316190242767334</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1">
         <v>45139</v>
       </c>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
+      <c r="B129" s="2">
+        <v>0.11851492524147034</v>
+      </c>
+      <c r="C129" s="2">
+        <v>-0.23815810680389404</v>
+      </c>
+      <c r="D129" s="2">
+        <v>-0.29725360870361328</v>
+      </c>
+      <c r="E129" s="2">
+        <v>-0.59307992458343506</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1">
@@ -2247,6 +2279,24 @@
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
     </row>
+    <row r="135">
+      <c r="A135" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/SCE_skewness.xlsx
+++ b/SCE_skewness.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -151,13 +151,13 @@
         <v>0.75467979907989502</v>
       </c>
       <c r="C7" s="2">
-        <v>0.37112769484519959</v>
+        <v>0.37116172909736633</v>
       </c>
       <c r="D7" s="2">
         <v>0.30358356237411499</v>
       </c>
       <c r="E7" s="2">
-        <v>0.027225419878959656</v>
+        <v>0.026605214923620224</v>
       </c>
     </row>
     <row r="8">
@@ -168,13 +168,13 @@
         <v>0.45104503631591797</v>
       </c>
       <c r="C8" s="2">
-        <v>0.19618795812129974</v>
+        <v>0.19630293548107147</v>
       </c>
       <c r="D8" s="2">
         <v>0.10388252884149551</v>
       </c>
       <c r="E8" s="2">
-        <v>-0.16369490325450897</v>
+        <v>-0.16387467086315155</v>
       </c>
     </row>
     <row r="9">
@@ -185,13 +185,13 @@
         <v>0.52031427621841431</v>
       </c>
       <c r="C9" s="2">
-        <v>0.22340568900108337</v>
+        <v>0.2235625684261322</v>
       </c>
       <c r="D9" s="2">
         <v>0.10086610168218613</v>
       </c>
       <c r="E9" s="2">
-        <v>-0.18804660439491272</v>
+        <v>-0.18853399157524109</v>
       </c>
     </row>
     <row r="10">
@@ -202,13 +202,13 @@
         <v>-0.22879557311534882</v>
       </c>
       <c r="C10" s="2">
-        <v>-0.29991069436073303</v>
+        <v>-0.30223098397254944</v>
       </c>
       <c r="D10" s="2">
         <v>0.15720002353191376</v>
       </c>
       <c r="E10" s="2">
-        <v>-0.135605588555336</v>
+        <v>-0.13618330657482147</v>
       </c>
     </row>
     <row r="11">
@@ -219,13 +219,13 @@
         <v>0.020674310624599457</v>
       </c>
       <c r="C11" s="2">
-        <v>-0.35468354821205139</v>
+        <v>-0.35577017068862915</v>
       </c>
       <c r="D11" s="2">
         <v>0.11538553237915039</v>
       </c>
       <c r="E11" s="2">
-        <v>-0.19184057414531708</v>
+        <v>-0.19250209629535675</v>
       </c>
     </row>
     <row r="12">
@@ -236,13 +236,13 @@
         <v>-0.89462268352508545</v>
       </c>
       <c r="C12" s="2">
-        <v>-1.1182965040206909</v>
+        <v>-1.1162741184234619</v>
       </c>
       <c r="D12" s="2">
         <v>0.030098624527454376</v>
       </c>
       <c r="E12" s="2">
-        <v>-0.26086828112602234</v>
+        <v>-0.26181524991989136</v>
       </c>
     </row>
     <row r="13">
@@ -253,13 +253,13 @@
         <v>0.082767561078071594</v>
       </c>
       <c r="C13" s="2">
-        <v>-0.33415678143501282</v>
+        <v>-0.33648988604545593</v>
       </c>
       <c r="D13" s="2">
         <v>-0.13790342211723328</v>
       </c>
       <c r="E13" s="2">
-        <v>-0.44335785508155823</v>
+        <v>-0.44407323002815247</v>
       </c>
     </row>
     <row r="14">
@@ -270,13 +270,13 @@
         <v>0.55153751373291016</v>
       </c>
       <c r="C14" s="2">
-        <v>0.23148147761821747</v>
+        <v>0.23027147352695465</v>
       </c>
       <c r="D14" s="2">
         <v>-0.136473149061203</v>
       </c>
       <c r="E14" s="2">
-        <v>-0.43470188975334168</v>
+        <v>-0.43510058522224426</v>
       </c>
     </row>
     <row r="15">
@@ -287,13 +287,13 @@
         <v>-0.21913042664527893</v>
       </c>
       <c r="C15" s="2">
-        <v>-0.64172047376632691</v>
+        <v>-0.64305239915847778</v>
       </c>
       <c r="D15" s="2">
         <v>-0.18043906986713409</v>
       </c>
       <c r="E15" s="2">
-        <v>-0.51491296291351318</v>
+        <v>-0.51499253511428833</v>
       </c>
     </row>
     <row r="16">
@@ -304,13 +304,13 @@
         <v>-0.012902386486530304</v>
       </c>
       <c r="C16" s="2">
-        <v>-0.25012171268463135</v>
+        <v>-0.25265675783157349</v>
       </c>
       <c r="D16" s="2">
         <v>-0.19662326574325562</v>
       </c>
       <c r="E16" s="2">
-        <v>-0.51853162050247192</v>
+        <v>-0.51841467618942261</v>
       </c>
     </row>
     <row r="17">
@@ -321,13 +321,13 @@
         <v>-1.0609734058380127</v>
       </c>
       <c r="C17" s="2">
-        <v>-1.4462181329727173</v>
+        <v>-1.4440187215805054</v>
       </c>
       <c r="D17" s="2">
         <v>-0.14019788801670075</v>
       </c>
       <c r="E17" s="2">
-        <v>-0.49246624112129211</v>
+        <v>-0.49253007769584656</v>
       </c>
     </row>
     <row r="18">
@@ -338,13 +338,13 @@
         <v>0.53318673372268677</v>
       </c>
       <c r="C18" s="2">
-        <v>0.30130943655967712</v>
+        <v>0.30431640148162842</v>
       </c>
       <c r="D18" s="2">
         <v>-0.16055162250995636</v>
       </c>
       <c r="E18" s="2">
-        <v>-0.49377501010894775</v>
+        <v>-0.4937705397605896</v>
       </c>
     </row>
     <row r="19">
@@ -355,13 +355,13 @@
         <v>-0.62448883056640625</v>
       </c>
       <c r="C19" s="2">
-        <v>-1.0218106508255005</v>
+        <v>-1.0212585926055908</v>
       </c>
       <c r="D19" s="2">
         <v>-0.25215312838554382</v>
       </c>
       <c r="E19" s="2">
-        <v>-0.59246546030044556</v>
+        <v>-0.59254556894302368</v>
       </c>
     </row>
     <row r="20">
@@ -372,13 +372,13 @@
         <v>-0.12498348951339722</v>
       </c>
       <c r="C20" s="2">
-        <v>-0.38725116848945618</v>
+        <v>-0.38656926155090332</v>
       </c>
       <c r="D20" s="2">
         <v>-0.22514151036739349</v>
       </c>
       <c r="E20" s="2">
-        <v>-0.53533107042312622</v>
+        <v>-0.53529864549636841</v>
       </c>
     </row>
     <row r="21">
@@ -389,13 +389,13 @@
         <v>-0.38679426908493042</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.88370823860168457</v>
+        <v>-0.88331294059753418</v>
       </c>
       <c r="D21" s="2">
         <v>-0.27614706754684448</v>
       </c>
       <c r="E21" s="2">
-        <v>-0.58918356895446777</v>
+        <v>-0.58895236253738403</v>
       </c>
     </row>
     <row r="22">
@@ -406,13 +406,13 @@
         <v>-0.10041602700948715</v>
       </c>
       <c r="C22" s="2">
-        <v>-0.34593552350997925</v>
+        <v>-0.34765401482582092</v>
       </c>
       <c r="D22" s="2">
         <v>-0.2092270702123642</v>
       </c>
       <c r="E22" s="2">
-        <v>-0.4962293803691864</v>
+        <v>-0.49626687169075012</v>
       </c>
     </row>
     <row r="23">
@@ -423,13 +423,13 @@
         <v>-0.27287611365318298</v>
       </c>
       <c r="C23" s="2">
-        <v>-0.65673255920410156</v>
+        <v>-0.65870374441146851</v>
       </c>
       <c r="D23" s="2">
         <v>-0.29087939858436584</v>
       </c>
       <c r="E23" s="2">
-        <v>-0.57930374145507813</v>
+        <v>-0.57940411567687988</v>
       </c>
     </row>
     <row r="24">
@@ -440,13 +440,13 @@
         <v>0.023974135518074036</v>
       </c>
       <c r="C24" s="2">
-        <v>-0.12751111388206482</v>
+        <v>-0.12783032655715942</v>
       </c>
       <c r="D24" s="2">
         <v>-0.24808692932128906</v>
       </c>
       <c r="E24" s="2">
-        <v>-0.53505796194076538</v>
+        <v>-0.53558003902435303</v>
       </c>
     </row>
     <row r="25">
@@ -457,13 +457,13 @@
         <v>-0.4719524085521698</v>
       </c>
       <c r="C25" s="2">
-        <v>-0.73479408025741577</v>
+        <v>-0.73554003238677979</v>
       </c>
       <c r="D25" s="2">
         <v>-0.31977397203445435</v>
       </c>
       <c r="E25" s="2">
-        <v>-0.60798221826553345</v>
+        <v>-0.60904431343078613</v>
       </c>
     </row>
     <row r="26">
@@ -474,13 +474,13 @@
         <v>-0.45869335532188416</v>
       </c>
       <c r="C26" s="2">
-        <v>-0.60963064432144165</v>
+        <v>-0.60984927415847778</v>
       </c>
       <c r="D26" s="2">
         <v>-0.21627253293991089</v>
       </c>
       <c r="E26" s="2">
-        <v>-0.4732118546962738</v>
+        <v>-0.47442787885665894</v>
       </c>
     </row>
     <row r="27">
@@ -491,13 +491,13 @@
         <v>-0.2016841322183609</v>
       </c>
       <c r="C27" s="2">
-        <v>-0.44635990262031555</v>
+        <v>-0.4439186155796051</v>
       </c>
       <c r="D27" s="2">
         <v>-0.15139244496822357</v>
       </c>
       <c r="E27" s="2">
-        <v>-0.40562885999679565</v>
+        <v>-0.40665039420127869</v>
       </c>
     </row>
     <row r="28">
@@ -508,13 +508,13 @@
         <v>-0.23935668170452118</v>
       </c>
       <c r="C28" s="2">
-        <v>-0.62359845638275147</v>
+        <v>-0.62684231996536255</v>
       </c>
       <c r="D28" s="2">
         <v>-0.093287214636802673</v>
       </c>
       <c r="E28" s="2">
-        <v>-0.33482721447944641</v>
+        <v>-0.33557328581809998</v>
       </c>
     </row>
     <row r="29">
@@ -525,13 +525,13 @@
         <v>-0.77016687393188477</v>
       </c>
       <c r="C29" s="2">
-        <v>-1.0435695648193359</v>
+        <v>-1.0477476119995117</v>
       </c>
       <c r="D29" s="2">
         <v>-0.1603572815656662</v>
       </c>
       <c r="E29" s="2">
-        <v>-0.40744262933731079</v>
+        <v>-0.40801692008972168</v>
       </c>
     </row>
     <row r="30">
@@ -542,13 +542,13 @@
         <v>0.54471868276596069</v>
       </c>
       <c r="C30" s="2">
-        <v>0.329225093126297</v>
+        <v>0.32823514938354492</v>
       </c>
       <c r="D30" s="2">
         <v>-0.097807548940181732</v>
       </c>
       <c r="E30" s="2">
-        <v>-0.34140095114707947</v>
+        <v>-0.34170064330101013</v>
       </c>
     </row>
     <row r="31">
@@ -559,13 +559,13 @@
         <v>0.48350468277931213</v>
       </c>
       <c r="C31" s="2">
-        <v>0.26231139898300171</v>
+        <v>0.26234334707260132</v>
       </c>
       <c r="D31" s="2">
         <v>-0.10886616259813309</v>
       </c>
       <c r="E31" s="2">
-        <v>-0.3785911500453949</v>
+        <v>-0.37891542911529541</v>
       </c>
     </row>
     <row r="32">
@@ -576,13 +576,13 @@
         <v>0.25007104873657227</v>
       </c>
       <c r="C32" s="2">
-        <v>-0.019517678767442703</v>
+        <v>-0.01900981180369854</v>
       </c>
       <c r="D32" s="2">
         <v>-0.21468514204025269</v>
       </c>
       <c r="E32" s="2">
-        <v>-0.50181424617767334</v>
+        <v>-0.50258475542068481</v>
       </c>
     </row>
     <row r="33">
@@ -593,13 +593,13 @@
         <v>-0.57965648174285889</v>
       </c>
       <c r="C33" s="2">
-        <v>-0.78104972839355469</v>
+        <v>-0.77982300519943237</v>
       </c>
       <c r="D33" s="2">
         <v>-0.1857101172208786</v>
       </c>
       <c r="E33" s="2">
-        <v>-0.46408173441886902</v>
+        <v>-0.46421295404434204</v>
       </c>
     </row>
     <row r="34">
@@ -610,13 +610,13 @@
         <v>0.090995185077190399</v>
       </c>
       <c r="C34" s="2">
-        <v>-0.14041894674301147</v>
+        <v>-0.13869372010231018</v>
       </c>
       <c r="D34" s="2">
         <v>-0.086152300238609314</v>
       </c>
       <c r="E34" s="2">
-        <v>-0.35507252812385559</v>
+        <v>-0.35487213730812073</v>
       </c>
     </row>
     <row r="35">
@@ -627,13 +627,13 @@
         <v>-0.55822086334228516</v>
       </c>
       <c r="C35" s="2">
-        <v>-0.94434249401092529</v>
+        <v>-0.94478237628936768</v>
       </c>
       <c r="D35" s="2">
         <v>-0.11454352736473083</v>
       </c>
       <c r="E35" s="2">
-        <v>-0.38850989937782288</v>
+        <v>-0.38795655965805054</v>
       </c>
     </row>
     <row r="36">
@@ -644,13 +644,13 @@
         <v>-1.1540549993515015</v>
       </c>
       <c r="C36" s="2">
-        <v>-1.5553679466247559</v>
+        <v>-1.5569425821304321</v>
       </c>
       <c r="D36" s="2">
         <v>-0.17915503680706024</v>
       </c>
       <c r="E36" s="2">
-        <v>-0.44893959164619446</v>
+        <v>-0.44789701700210571</v>
       </c>
     </row>
     <row r="37">
@@ -661,13 +661,13 @@
         <v>0.021418565884232521</v>
       </c>
       <c r="C37" s="2">
-        <v>-0.28400570154190064</v>
+        <v>-0.2814960777759552</v>
       </c>
       <c r="D37" s="2">
         <v>-0.1833871603012085</v>
       </c>
       <c r="E37" s="2">
-        <v>-0.45192486047744751</v>
+        <v>-0.45090210437774658</v>
       </c>
     </row>
     <row r="38">
@@ -678,13 +678,13 @@
         <v>0.12585350871086121</v>
       </c>
       <c r="C38" s="2">
-        <v>-0.062486816197633743</v>
+        <v>-0.063680276274681091</v>
       </c>
       <c r="D38" s="2">
         <v>-0.19518217444419861</v>
       </c>
       <c r="E38" s="2">
-        <v>-0.5039101243019104</v>
+        <v>-0.50295746326446533</v>
       </c>
     </row>
     <row r="39">
@@ -695,13 +695,13 @@
         <v>0.28919762372970581</v>
       </c>
       <c r="C39" s="2">
-        <v>0.028288889676332474</v>
+        <v>0.030475417152047157</v>
       </c>
       <c r="D39" s="2">
         <v>-0.15041124820709229</v>
       </c>
       <c r="E39" s="2">
-        <v>-0.43139615654945374</v>
+        <v>-0.43061104416847229</v>
       </c>
     </row>
     <row r="40">
@@ -712,13 +712,13 @@
         <v>-0.097998887300491333</v>
       </c>
       <c r="C40" s="2">
-        <v>-0.2815558910369873</v>
+        <v>-0.27712082862854004</v>
       </c>
       <c r="D40" s="2">
         <v>-0.075663968920707703</v>
       </c>
       <c r="E40" s="2">
-        <v>-0.36834657192230225</v>
+        <v>-0.36752340197563171</v>
       </c>
     </row>
     <row r="41">
@@ -729,13 +729,13 @@
         <v>0.21198192238807678</v>
       </c>
       <c r="C41" s="2">
-        <v>-0.046385053545236588</v>
+        <v>-0.046055473387241364</v>
       </c>
       <c r="D41" s="2">
         <v>0.0076738409698009491</v>
       </c>
       <c r="E41" s="2">
-        <v>-0.27365624904632568</v>
+        <v>-0.27272042632102966</v>
       </c>
     </row>
     <row r="42">
@@ -746,13 +746,13 @@
         <v>-0.68581163883209229</v>
       </c>
       <c r="C42" s="2">
-        <v>-1.2489173412322998</v>
+        <v>-1.2483210563659668</v>
       </c>
       <c r="D42" s="2">
         <v>0.037948276847600937</v>
       </c>
       <c r="E42" s="2">
-        <v>-0.24468819797039032</v>
+        <v>-0.24390813708305359</v>
       </c>
     </row>
     <row r="43">
@@ -763,13 +763,13 @@
         <v>0.49393346905708313</v>
       </c>
       <c r="C43" s="2">
-        <v>0.51220703125</v>
+        <v>0.5124238133430481</v>
       </c>
       <c r="D43" s="2">
         <v>0.027599811553955078</v>
       </c>
       <c r="E43" s="2">
-        <v>-0.28121733665466309</v>
+        <v>-0.28022673726081848</v>
       </c>
     </row>
     <row r="44">
@@ -780,13 +780,13 @@
         <v>0.11450470983982086</v>
       </c>
       <c r="C44" s="2">
-        <v>-0.37689641118049622</v>
+        <v>-0.37699368596076965</v>
       </c>
       <c r="D44" s="2">
         <v>-0.048547346144914627</v>
       </c>
       <c r="E44" s="2">
-        <v>-0.33418992161750793</v>
+        <v>-0.33333298563957214</v>
       </c>
     </row>
     <row r="45">
@@ -797,13 +797,13 @@
         <v>-0.4040147066116333</v>
       </c>
       <c r="C45" s="2">
-        <v>-0.7031550407409668</v>
+        <v>-0.70371568202972412</v>
       </c>
       <c r="D45" s="2">
         <v>-0.081148959696292877</v>
       </c>
       <c r="E45" s="2">
-        <v>-0.37507936358451843</v>
+        <v>-0.37433019280433655</v>
       </c>
     </row>
     <row r="46">
@@ -814,13 +814,13 @@
         <v>0.29388847947120667</v>
       </c>
       <c r="C46" s="2">
-        <v>-0.023293115198612213</v>
+        <v>-0.022185420617461205</v>
       </c>
       <c r="D46" s="2">
         <v>-0.1598929762840271</v>
       </c>
       <c r="E46" s="2">
-        <v>-0.45205196738243103</v>
+        <v>-0.45115265250205994</v>
       </c>
     </row>
     <row r="47">
@@ -831,13 +831,13 @@
         <v>0.032717324793338776</v>
       </c>
       <c r="C47" s="2">
-        <v>-0.39124903082847595</v>
+        <v>-0.39054784178733826</v>
       </c>
       <c r="D47" s="2">
         <v>-0.14775112271308899</v>
       </c>
       <c r="E47" s="2">
-        <v>-0.40616148710250854</v>
+        <v>-0.40511858463287354</v>
       </c>
     </row>
     <row r="48">
@@ -848,13 +848,13 @@
         <v>-0.39612677693367004</v>
       </c>
       <c r="C48" s="2">
-        <v>-0.44846445322036743</v>
+        <v>-0.44748064875602722</v>
       </c>
       <c r="D48" s="2">
         <v>-0.27623826265335083</v>
       </c>
       <c r="E48" s="2">
-        <v>-0.5689271092414856</v>
+        <v>-0.56793004274368286</v>
       </c>
     </row>
     <row r="49">
@@ -865,13 +865,13 @@
         <v>-0.39141345024108887</v>
       </c>
       <c r="C49" s="2">
-        <v>-0.64956092834472656</v>
+        <v>-0.64609569311141968</v>
       </c>
       <c r="D49" s="2">
         <v>-0.27205902338027954</v>
       </c>
       <c r="E49" s="2">
-        <v>-0.54185909032821655</v>
+        <v>-0.54092800617218018</v>
       </c>
     </row>
     <row r="50">
@@ -882,13 +882,13 @@
         <v>-0.49671423435211182</v>
       </c>
       <c r="C50" s="2">
-        <v>-0.73913830518722534</v>
+        <v>-0.73745763301849365</v>
       </c>
       <c r="D50" s="2">
         <v>-0.25660091638565063</v>
       </c>
       <c r="E50" s="2">
-        <v>-0.51924639940261841</v>
+        <v>-0.51819252967834473</v>
       </c>
     </row>
     <row r="51">
@@ -899,13 +899,13 @@
         <v>-0.57653486728668213</v>
       </c>
       <c r="C51" s="2">
-        <v>-0.83590322732925415</v>
+        <v>-0.83401453495025635</v>
       </c>
       <c r="D51" s="2">
         <v>-0.32184427976608276</v>
       </c>
       <c r="E51" s="2">
-        <v>-0.58002722263336182</v>
+        <v>-0.57885861396789551</v>
       </c>
     </row>
     <row r="52">
@@ -916,13 +916,13 @@
         <v>-0.66245073080062866</v>
       </c>
       <c r="C52" s="2">
-        <v>-0.95268362760543823</v>
+        <v>-0.95287948846817017</v>
       </c>
       <c r="D52" s="2">
         <v>-0.33927956223487854</v>
       </c>
       <c r="E52" s="2">
-        <v>-0.56911635398864746</v>
+        <v>-0.56787919998168945</v>
       </c>
     </row>
     <row r="53">
@@ -933,13 +933,13 @@
         <v>0.15211783349514008</v>
       </c>
       <c r="C53" s="2">
-        <v>-0.13328395783901215</v>
+        <v>-0.13397516310214996</v>
       </c>
       <c r="D53" s="2">
         <v>-0.35259756445884705</v>
       </c>
       <c r="E53" s="2">
-        <v>-0.61897540092468262</v>
+        <v>-0.61769944429397583</v>
       </c>
     </row>
     <row r="54">
@@ -950,13 +950,13 @@
         <v>-0.26489183306694031</v>
       </c>
       <c r="C54" s="2">
-        <v>-0.49964073300361633</v>
+        <v>-0.4990963339805603</v>
       </c>
       <c r="D54" s="2">
         <v>-0.30641192197799683</v>
       </c>
       <c r="E54" s="2">
-        <v>-0.57995998859405518</v>
+        <v>-0.57913792133331299</v>
       </c>
     </row>
     <row r="55">
@@ -967,13 +967,13 @@
         <v>-0.29330176115036011</v>
       </c>
       <c r="C55" s="2">
-        <v>-0.570320725440979</v>
+        <v>-0.56818032264709473</v>
       </c>
       <c r="D55" s="2">
         <v>-0.32997885346412659</v>
       </c>
       <c r="E55" s="2">
-        <v>-0.60612392425537109</v>
+        <v>-0.60521650314331055</v>
       </c>
     </row>
     <row r="56">
@@ -984,13 +984,13 @@
         <v>-0.12420023232698441</v>
       </c>
       <c r="C56" s="2">
-        <v>-0.29305112361907959</v>
+        <v>-0.29173323512077332</v>
       </c>
       <c r="D56" s="2">
         <v>-0.35911431908607483</v>
       </c>
       <c r="E56" s="2">
-        <v>-0.64619314670562744</v>
+        <v>-0.64532804489135742</v>
       </c>
     </row>
     <row r="57">
@@ -1001,13 +1001,13 @@
         <v>-0.51598882675170899</v>
       </c>
       <c r="C57" s="2">
-        <v>-0.89719623327255249</v>
+        <v>-0.8958626389503479</v>
       </c>
       <c r="D57" s="2">
         <v>-0.24196623265743256</v>
       </c>
       <c r="E57" s="2">
-        <v>-0.53552317619323731</v>
+        <v>-0.53450316190719604</v>
       </c>
     </row>
     <row r="58">
@@ -1018,13 +1018,13 @@
         <v>0.024257250130176544</v>
       </c>
       <c r="C58" s="2">
-        <v>-0.29842212796211243</v>
+        <v>-0.29904189705848694</v>
       </c>
       <c r="D58" s="2">
         <v>-0.30076441168785095</v>
       </c>
       <c r="E58" s="2">
-        <v>-0.60423624515533447</v>
+        <v>-0.60288697481155396</v>
       </c>
     </row>
     <row r="59">
@@ -1035,13 +1035,13 @@
         <v>-0.7088165283203125</v>
       </c>
       <c r="C59" s="2">
-        <v>-0.97461378574371338</v>
+        <v>-0.97216469049453735</v>
       </c>
       <c r="D59" s="2">
         <v>-0.29284968972206116</v>
       </c>
       <c r="E59" s="2">
-        <v>-0.60077089071273804</v>
+        <v>-0.5995563268661499</v>
       </c>
     </row>
     <row r="60">
@@ -1052,13 +1052,13 @@
         <v>-0.83875411748886108</v>
       </c>
       <c r="C60" s="2">
-        <v>-1.1965259313583374</v>
+        <v>-1.1950186491012573</v>
       </c>
       <c r="D60" s="2">
         <v>-0.31478077173233032</v>
       </c>
       <c r="E60" s="2">
-        <v>-0.64221972227096558</v>
+        <v>-0.64128637313842774</v>
       </c>
     </row>
     <row r="61">
@@ -1069,13 +1069,13 @@
         <v>0.39188209176063538</v>
       </c>
       <c r="C61" s="2">
-        <v>0.043345876038074494</v>
+        <v>0.044544544070959091</v>
       </c>
       <c r="D61" s="2">
         <v>-0.32838353514671326</v>
       </c>
       <c r="E61" s="2">
-        <v>-0.67825490236282349</v>
+        <v>-0.67750483751296997</v>
       </c>
     </row>
     <row r="62">
@@ -1086,13 +1086,13 @@
         <v>-0.37706586718559265</v>
       </c>
       <c r="C62" s="2">
-        <v>-0.75170129537582398</v>
+        <v>-0.74942976236343384</v>
       </c>
       <c r="D62" s="2">
         <v>-0.32985919713973999</v>
       </c>
       <c r="E62" s="2">
-        <v>-0.67152732610702515</v>
+        <v>-0.67078381776809692</v>
       </c>
     </row>
     <row r="63">
@@ -1103,13 +1103,13 @@
         <v>-0.19365914165973663</v>
       </c>
       <c r="C63" s="2">
-        <v>-0.46845263242721558</v>
+        <v>-0.46912047266960144</v>
       </c>
       <c r="D63" s="2">
         <v>-0.24417248368263245</v>
       </c>
       <c r="E63" s="2">
-        <v>-0.57376980781555176</v>
+        <v>-0.57295811176300049</v>
       </c>
     </row>
     <row r="64">
@@ -1120,13 +1120,13 @@
         <v>-0.49068161845207214</v>
       </c>
       <c r="C64" s="2">
-        <v>-0.94336044788360596</v>
+        <v>-0.94375073909759522</v>
       </c>
       <c r="D64" s="2">
         <v>-0.2177211344242096</v>
       </c>
       <c r="E64" s="2">
-        <v>-0.55554938316345215</v>
+        <v>-0.55501282215118408</v>
       </c>
     </row>
     <row r="65">
@@ -1137,13 +1137,13 @@
         <v>-0.24662499129772186</v>
       </c>
       <c r="C65" s="2">
-        <v>-0.61736768484115601</v>
+        <v>-0.61769896745681763</v>
       </c>
       <c r="D65" s="2">
         <v>-0.096363365650177002</v>
       </c>
       <c r="E65" s="2">
-        <v>-0.43236327171325684</v>
+        <v>-0.43192780017852783</v>
       </c>
     </row>
     <row r="66">
@@ -1154,13 +1154,13 @@
         <v>-0.5292697548866272</v>
       </c>
       <c r="C66" s="2">
-        <v>-0.83664810657501221</v>
+        <v>-0.83537352085113525</v>
       </c>
       <c r="D66" s="2">
         <v>-0.1127610057592392</v>
       </c>
       <c r="E66" s="2">
-        <v>-0.4592033326625824</v>
+        <v>-0.4590848982334137</v>
       </c>
     </row>
     <row r="67">
@@ -1171,13 +1171,13 @@
         <v>0.7954375147819519</v>
       </c>
       <c r="C67" s="2">
-        <v>0.58139598369598389</v>
+        <v>0.58138912916183472</v>
       </c>
       <c r="D67" s="2">
         <v>-0.065585754811763763</v>
       </c>
       <c r="E67" s="2">
-        <v>-0.42369997501373291</v>
+        <v>-0.42404124140739441</v>
       </c>
     </row>
     <row r="68">
@@ -1188,13 +1188,13 @@
         <v>-0.47075435519218445</v>
       </c>
       <c r="C68" s="2">
-        <v>-0.81063026189804077</v>
+        <v>-0.8106568455696106</v>
       </c>
       <c r="D68" s="2">
         <v>-0.068046808242797852</v>
       </c>
       <c r="E68" s="2">
-        <v>-0.45069101452827454</v>
+        <v>-0.45046183466911316</v>
       </c>
     </row>
     <row r="69">
@@ -1205,13 +1205,13 @@
         <v>0.25346586108207703</v>
       </c>
       <c r="C69" s="2">
-        <v>-0.087850764393806458</v>
+        <v>-0.087253615260124207</v>
       </c>
       <c r="D69" s="2">
         <v>-0.078930631279945374</v>
       </c>
       <c r="E69" s="2">
-        <v>-0.46952247619628906</v>
+        <v>-0.46987423300743103</v>
       </c>
     </row>
     <row r="70">
@@ -1222,13 +1222,13 @@
         <v>0.24430331587791443</v>
       </c>
       <c r="C70" s="2">
-        <v>-0.19821478426456451</v>
+        <v>-0.19986927509307861</v>
       </c>
       <c r="D70" s="2">
         <v>-0.10793200135231018</v>
       </c>
       <c r="E70" s="2">
-        <v>-0.47816959023475647</v>
+        <v>-0.47850269079208374</v>
       </c>
     </row>
     <row r="71">
@@ -1239,13 +1239,13 @@
         <v>0.047511395066976547</v>
       </c>
       <c r="C71" s="2">
-        <v>-0.43217101693153381</v>
+        <v>-0.43403679132461548</v>
       </c>
       <c r="D71" s="2">
         <v>-0.15277969837188721</v>
       </c>
       <c r="E71" s="2">
-        <v>-0.49637442827224731</v>
+        <v>-0.49681010842323303</v>
       </c>
     </row>
     <row r="72">
@@ -1256,13 +1256,13 @@
         <v>-0.21580861508846283</v>
       </c>
       <c r="C72" s="2">
-        <v>-0.7113720178604126</v>
+        <v>-0.70690584182739258</v>
       </c>
       <c r="D72" s="2">
         <v>-0.21412444114685059</v>
       </c>
       <c r="E72" s="2">
-        <v>-0.57030570507049561</v>
+        <v>-0.57075190544128418</v>
       </c>
     </row>
     <row r="73">
@@ -1273,13 +1273,13 @@
         <v>-0.58863604068756104</v>
       </c>
       <c r="C73" s="2">
-        <v>-1.1128435134887695</v>
+        <v>-1.1184623241424561</v>
       </c>
       <c r="D73" s="2">
         <v>-0.20146757364273071</v>
       </c>
       <c r="E73" s="2">
-        <v>-0.53580015897750854</v>
+        <v>-0.5363849401473999</v>
       </c>
     </row>
     <row r="74">
@@ -1290,13 +1290,13 @@
         <v>-0.50763732194900513</v>
       </c>
       <c r="C74" s="2">
-        <v>-0.69519186019897461</v>
+        <v>-0.69535523653030396</v>
       </c>
       <c r="D74" s="2">
         <v>-0.24717943370342255</v>
       </c>
       <c r="E74" s="2">
-        <v>-0.57329279184341431</v>
+        <v>-0.57394880056381226</v>
       </c>
     </row>
     <row r="75">
@@ -1307,13 +1307,13 @@
         <v>-0.93289899826049805</v>
       </c>
       <c r="C75" s="2">
-        <v>-1.0004914999008179</v>
+        <v>-1.0001400709152222</v>
       </c>
       <c r="D75" s="2">
         <v>-0.31911718845367432</v>
       </c>
       <c r="E75" s="2">
-        <v>-0.62354612350463867</v>
+        <v>-0.62410879135131836</v>
       </c>
     </row>
     <row r="76">
@@ -1324,13 +1324,13 @@
         <v>0.24333480000495911</v>
       </c>
       <c r="C76" s="2">
-        <v>-0.083985656499862671</v>
+        <v>-0.084086976945400238</v>
       </c>
       <c r="D76" s="2">
         <v>-0.34663748741149902</v>
       </c>
       <c r="E76" s="2">
-        <v>-0.61919158697128296</v>
+        <v>-0.61949175596237183</v>
       </c>
     </row>
     <row r="77">
@@ -1341,13 +1341,13 @@
         <v>-0.35684254765510559</v>
       </c>
       <c r="C77" s="2">
-        <v>-0.50008046627044678</v>
+        <v>-0.5013541579246521</v>
       </c>
       <c r="D77" s="2">
         <v>-0.31957903504371643</v>
       </c>
       <c r="E77" s="2">
-        <v>-0.56515759229660034</v>
+        <v>-0.56603163480758667</v>
       </c>
     </row>
     <row r="78">
@@ -1358,13 +1358,13 @@
         <v>-0.15794084966182709</v>
       </c>
       <c r="C78" s="2">
-        <v>-0.42528429627418518</v>
+        <v>-0.4253285825252533</v>
       </c>
       <c r="D78" s="2">
         <v>-0.22663472592830658</v>
       </c>
       <c r="E78" s="2">
-        <v>-0.44302451610565186</v>
+        <v>-0.44332596659660339</v>
       </c>
     </row>
     <row r="79">
@@ -1375,13 +1375,13 @@
         <v>-0.40313661098480225</v>
       </c>
       <c r="C79" s="2">
-        <v>-0.65049481391906738</v>
+        <v>-0.651309072971344</v>
       </c>
       <c r="D79" s="2">
         <v>-0.18005566298961639</v>
       </c>
       <c r="E79" s="2">
-        <v>-0.39625802636146546</v>
+        <v>-0.39625018835067749</v>
       </c>
     </row>
     <row r="80">
@@ -1392,13 +1392,13 @@
         <v>-0.20017130672931671</v>
       </c>
       <c r="C80" s="2">
-        <v>-0.39298039674758911</v>
+        <v>-0.39248338341712952</v>
       </c>
       <c r="D80" s="2">
         <v>-0.02626936137676239</v>
       </c>
       <c r="E80" s="2">
-        <v>-0.27605879306793213</v>
+        <v>-0.27611836791038513</v>
       </c>
     </row>
     <row r="81">
@@ -1409,13 +1409,13 @@
         <v>0.027717467397451401</v>
       </c>
       <c r="C81" s="2">
-        <v>-0.22506599128246307</v>
+        <v>-0.22576476633548737</v>
       </c>
       <c r="D81" s="2">
         <v>-0.034426335245370865</v>
       </c>
       <c r="E81" s="2">
-        <v>-0.26335826516151428</v>
+        <v>-0.2634638249874115</v>
       </c>
     </row>
     <row r="82">
@@ -1426,13 +1426,13 @@
         <v>0.2478628009557724</v>
       </c>
       <c r="C82" s="2">
-        <v>-0.013645743019878864</v>
+        <v>-0.014111539348959923</v>
       </c>
       <c r="D82" s="2">
         <v>0.03372843936085701</v>
       </c>
       <c r="E82" s="2">
-        <v>-0.22126029431819916</v>
+        <v>-0.22121921181678772</v>
       </c>
     </row>
     <row r="83">
@@ -1443,13 +1443,13 @@
         <v>-0.088425688445568085</v>
       </c>
       <c r="C83" s="2">
-        <v>-0.27429339289665222</v>
+        <v>-0.27167326211929321</v>
       </c>
       <c r="D83" s="2">
         <v>0.017333682626485825</v>
       </c>
       <c r="E83" s="2">
-        <v>-0.23297512531280518</v>
+        <v>-0.23253564536571503</v>
       </c>
     </row>
     <row r="84">
@@ -1460,13 +1460,13 @@
         <v>0.4511776864528656</v>
       </c>
       <c r="C84" s="2">
-        <v>0.081301599740982056</v>
+        <v>0.081046499311923981</v>
       </c>
       <c r="D84" s="2">
         <v>0.0051900632679462433</v>
       </c>
       <c r="E84" s="2">
-        <v>-0.23770521581172943</v>
+        <v>-0.23724448680877686</v>
       </c>
     </row>
     <row r="85">
@@ -1477,13 +1477,13 @@
         <v>0.16992203891277313</v>
       </c>
       <c r="C85" s="2">
-        <v>0.030319029465317726</v>
+        <v>0.029803728684782982</v>
       </c>
       <c r="D85" s="2">
         <v>0.030686743557453156</v>
       </c>
       <c r="E85" s="2">
-        <v>-0.19430874288082123</v>
+        <v>-0.19375824928283692</v>
       </c>
     </row>
     <row r="86">
@@ -1494,13 +1494,13 @@
         <v>0.25655040144920349</v>
       </c>
       <c r="C86" s="2">
-        <v>-0.12119863927364349</v>
+        <v>-0.12115252017974854</v>
       </c>
       <c r="D86" s="2">
         <v>-0.00040994916344061494</v>
       </c>
       <c r="E86" s="2">
-        <v>-0.21629737317562103</v>
+        <v>-0.21569144725799561</v>
       </c>
     </row>
     <row r="87">
@@ -1511,13 +1511,13 @@
         <v>-0.30549365282058716</v>
       </c>
       <c r="C87" s="2">
-        <v>-0.53071779012680054</v>
+        <v>-0.52717649936676025</v>
       </c>
       <c r="D87" s="2">
         <v>-0.039005279541015625</v>
       </c>
       <c r="E87" s="2">
-        <v>-0.23747687041759491</v>
+        <v>-0.23678182065486908</v>
       </c>
     </row>
     <row r="88">
@@ -1528,13 +1528,13 @@
         <v>-0.51242917776107788</v>
       </c>
       <c r="C88" s="2">
-        <v>-0.69306564331054688</v>
+        <v>-0.69368863105773926</v>
       </c>
       <c r="D88" s="2">
         <v>-0.094004616141319275</v>
       </c>
       <c r="E88" s="2">
-        <v>-0.29099375009536743</v>
+        <v>-0.29064765572547913</v>
       </c>
     </row>
     <row r="89">
@@ -1545,13 +1545,13 @@
         <v>0.029298819601535797</v>
       </c>
       <c r="C89" s="2">
-        <v>-0.0024121745955199003</v>
+        <v>-0.0011072406778112054</v>
       </c>
       <c r="D89" s="2">
         <v>-0.15146702527999878</v>
       </c>
       <c r="E89" s="2">
-        <v>-0.32885006070137024</v>
+        <v>-0.32822492718696594</v>
       </c>
     </row>
     <row r="90">
@@ -1562,13 +1562,13 @@
         <v>-0.25215277075767517</v>
       </c>
       <c r="C90" s="2">
-        <v>-0.42296361923217773</v>
+        <v>-0.42316350340843201</v>
       </c>
       <c r="D90" s="2">
         <v>-0.18715491890907288</v>
       </c>
       <c r="E90" s="2">
-        <v>-0.38195237517356873</v>
+        <v>-0.38097852468490601</v>
       </c>
     </row>
     <row r="91">
@@ -1579,13 +1579,13 @@
         <v>-0.099495157599449158</v>
       </c>
       <c r="C91" s="2">
-        <v>-0.20426125824451447</v>
+        <v>-0.20392496883869171</v>
       </c>
       <c r="D91" s="2">
         <v>-0.22937063872814179</v>
       </c>
       <c r="E91" s="2">
-        <v>-0.37697112560272217</v>
+        <v>-0.37571761012077332</v>
       </c>
     </row>
     <row r="92">
@@ -1596,13 +1596,13 @@
         <v>-0.58341974020004273</v>
       </c>
       <c r="C92" s="2">
-        <v>-0.75594514608383179</v>
+        <v>-0.75646573305130005</v>
       </c>
       <c r="D92" s="2">
         <v>-0.24346867203712463</v>
       </c>
       <c r="E92" s="2">
-        <v>-0.40221554040908813</v>
+        <v>-0.4009513258934021</v>
       </c>
     </row>
     <row r="93">
@@ -1613,13 +1613,13 @@
         <v>-0.06598401814699173</v>
       </c>
       <c r="C93" s="2">
-        <v>-0.25940540432929993</v>
+        <v>-0.25714889168739319</v>
       </c>
       <c r="D93" s="2">
         <v>-0.21950669586658478</v>
       </c>
       <c r="E93" s="2">
-        <v>-0.37515458464622498</v>
+        <v>-0.3738364577293396</v>
       </c>
     </row>
     <row r="94">
@@ -1630,13 +1630,13 @@
         <v>-0.15126897394657135</v>
       </c>
       <c r="C94" s="2">
-        <v>-0.44760176539421082</v>
+        <v>-0.44497880339622498</v>
       </c>
       <c r="D94" s="2">
         <v>-0.23843617737293244</v>
       </c>
       <c r="E94" s="2">
-        <v>-0.4216860830783844</v>
+        <v>-0.42056441307067871</v>
       </c>
     </row>
     <row r="95">
@@ -1647,13 +1647,13 @@
         <v>-0.1233910396695137</v>
       </c>
       <c r="C95" s="2">
-        <v>-0.076367303729057312</v>
+        <v>-0.073804199695587158</v>
       </c>
       <c r="D95" s="2">
         <v>-0.12063248455524445</v>
       </c>
       <c r="E95" s="2">
-        <v>-0.32276785373687744</v>
+        <v>-0.32112652063369751</v>
       </c>
     </row>
     <row r="96">
@@ -1664,13 +1664,13 @@
         <v>-0.43237602710723877</v>
       </c>
       <c r="C96" s="2">
-        <v>-0.75791746377944946</v>
+        <v>-0.75427991151809692</v>
       </c>
       <c r="D96" s="2">
         <v>-0.091354772448539734</v>
       </c>
       <c r="E96" s="2">
-        <v>-0.32329970598220825</v>
+        <v>-0.32158094644546509</v>
       </c>
     </row>
     <row r="97">
@@ -1681,13 +1681,13 @@
         <v>-0.2967713475227356</v>
       </c>
       <c r="C97" s="2">
-        <v>-0.44951710104942322</v>
+        <v>-0.44965478777885437</v>
       </c>
       <c r="D97" s="2">
         <v>-0.079557500779628754</v>
       </c>
       <c r="E97" s="2">
-        <v>-0.31356674432754517</v>
+        <v>-0.31183415651321411</v>
       </c>
     </row>
     <row r="98">
@@ -1698,13 +1698,13 @@
         <v>-0.14106658101081848</v>
       </c>
       <c r="C98" s="2">
-        <v>-0.42119559645652771</v>
+        <v>-0.42165902256965637</v>
       </c>
       <c r="D98" s="2">
         <v>-0.0394136942923069</v>
       </c>
       <c r="E98" s="2">
-        <v>-0.2931104302406311</v>
+        <v>-0.29100161790847778</v>
       </c>
     </row>
     <row r="99">
@@ -1715,13 +1715,13 @@
         <v>0.80808055400848389</v>
       </c>
       <c r="C99" s="2">
-        <v>0.46730023622512817</v>
+        <v>0.47177776694297791</v>
       </c>
       <c r="D99" s="2">
         <v>-0.06220351904630661</v>
       </c>
       <c r="E99" s="2">
-        <v>-0.30554983019828796</v>
+        <v>-0.30408036708831787</v>
       </c>
     </row>
     <row r="100">
@@ -1732,13 +1732,13 @@
         <v>0.16400422155857086</v>
       </c>
       <c r="C100" s="2">
-        <v>-0.20904771983623505</v>
+        <v>-0.2080150693655014</v>
       </c>
       <c r="D100" s="2">
         <v>-0.074212342500686646</v>
       </c>
       <c r="E100" s="2">
-        <v>-0.35703134536743164</v>
+        <v>-0.35568642616271973</v>
       </c>
     </row>
     <row r="101">
@@ -1749,13 +1749,13 @@
         <v>-0.47724428772926331</v>
       </c>
       <c r="C101" s="2">
-        <v>-0.66834861040115356</v>
+        <v>-0.66874438524246216</v>
       </c>
       <c r="D101" s="2">
         <v>-0.10567409545183182</v>
       </c>
       <c r="E101" s="2">
-        <v>-0.380817711353302</v>
+        <v>-0.3796505331993103</v>
       </c>
     </row>
     <row r="102">
@@ -1766,13 +1766,13 @@
         <v>0.29531022906303406</v>
       </c>
       <c r="C102" s="2">
-        <v>-0.075298681855201721</v>
+        <v>-0.069656237959861755</v>
       </c>
       <c r="D102" s="2">
         <v>-0.055531982332468033</v>
       </c>
       <c r="E102" s="2">
-        <v>-0.33456072211265564</v>
+        <v>-0.33342543244361877</v>
       </c>
     </row>
     <row r="103">
@@ -1783,13 +1783,13 @@
         <v>-0.35637739300727844</v>
       </c>
       <c r="C103" s="2">
-        <v>-0.55955612659454346</v>
+        <v>-0.56268751621246338</v>
       </c>
       <c r="D103" s="2">
         <v>0.016286512836813927</v>
       </c>
       <c r="E103" s="2">
-        <v>-0.25962045788764954</v>
+        <v>-0.25815257430076599</v>
       </c>
     </row>
     <row r="104">
@@ -1800,13 +1800,13 @@
         <v>-0.23147046566009521</v>
       </c>
       <c r="C104" s="2">
-        <v>-0.53970092535018921</v>
+        <v>-0.53825879096984863</v>
       </c>
       <c r="D104" s="2">
         <v>-0.16860204935073853</v>
       </c>
       <c r="E104" s="2">
-        <v>-0.43771329522132874</v>
+        <v>-0.43679231405258179</v>
       </c>
     </row>
     <row r="105">
@@ -1817,13 +1817,13 @@
         <v>-0.71553176641464233</v>
       </c>
       <c r="C105" s="2">
-        <v>-0.97199481725692749</v>
+        <v>-0.96995663642883301</v>
       </c>
       <c r="D105" s="2">
         <v>-0.15435120463371277</v>
       </c>
       <c r="E105" s="2">
-        <v>-0.40437966585159302</v>
+        <v>-0.40378278493881226</v>
       </c>
     </row>
     <row r="106">
@@ -1834,13 +1834,13 @@
         <v>0.15450765192508698</v>
       </c>
       <c r="C106" s="2">
-        <v>-0.033204153180122375</v>
+        <v>-0.033628903329372406</v>
       </c>
       <c r="D106" s="2">
         <v>-0.063373111188411713</v>
       </c>
       <c r="E106" s="2">
-        <v>-0.30448660254478455</v>
+        <v>-0.30382043123245239</v>
       </c>
     </row>
     <row r="107">
@@ -1851,13 +1851,13 @@
         <v>0.50529986619949341</v>
       </c>
       <c r="C107" s="2">
-        <v>0.2532666027545929</v>
+        <v>0.25579649209976196</v>
       </c>
       <c r="D107" s="2">
         <v>-0.089116953313350678</v>
       </c>
       <c r="E107" s="2">
-        <v>-0.29010346531867981</v>
+        <v>-0.2901710569858551</v>
       </c>
     </row>
     <row r="108">
@@ -1868,13 +1868,13 @@
         <v>-0.85591655969619751</v>
       </c>
       <c r="C108" s="2">
-        <v>-1.1355351209640503</v>
+        <v>-1.1359796524047852</v>
       </c>
       <c r="D108" s="2">
         <v>-0.08382522314786911</v>
       </c>
       <c r="E108" s="2">
-        <v>-0.27473005652427673</v>
+        <v>-0.27497580647468567</v>
       </c>
     </row>
     <row r="109">
@@ -1885,13 +1885,13 @@
         <v>0.29226183891296387</v>
       </c>
       <c r="C109" s="2">
-        <v>0.090954951941967011</v>
+        <v>0.089070551097393036</v>
       </c>
       <c r="D109" s="2">
         <v>-0.19660459458827972</v>
       </c>
       <c r="E109" s="2">
-        <v>-0.36357292532920838</v>
+        <v>-0.36351269483566284</v>
       </c>
     </row>
     <row r="110">
@@ -1902,13 +1902,13 @@
         <v>0.34155860543251038</v>
       </c>
       <c r="C110" s="2">
-        <v>0.23068895936012268</v>
+        <v>0.23091693222522736</v>
       </c>
       <c r="D110" s="2">
         <v>-0.22061219811439514</v>
       </c>
       <c r="E110" s="2">
-        <v>-0.38103839755058289</v>
+        <v>-0.38118058443069458</v>
       </c>
     </row>
     <row r="111">
@@ -1919,13 +1919,13 @@
         <v>0.06361563503742218</v>
       </c>
       <c r="C111" s="2">
-        <v>0.05414951965212822</v>
+        <v>0.053187891840934753</v>
       </c>
       <c r="D111" s="2">
         <v>-0.32563570141792297</v>
       </c>
       <c r="E111" s="2">
-        <v>-0.46627858281135559</v>
+        <v>-0.46645256876945496</v>
       </c>
     </row>
     <row r="112">
@@ -1936,13 +1936,13 @@
         <v>-0.30875179171562195</v>
       </c>
       <c r="C112" s="2">
-        <v>-0.42119544744491577</v>
+        <v>-0.42593023180961609</v>
       </c>
       <c r="D112" s="2">
         <v>-0.48997443914413452</v>
       </c>
       <c r="E112" s="2">
-        <v>-0.6178433895111084</v>
+        <v>-0.61810809373855591</v>
       </c>
     </row>
     <row r="113">
@@ -1953,13 +1953,13 @@
         <v>-1.2464848756790161</v>
       </c>
       <c r="C113" s="2">
-        <v>-1.3392868041992188</v>
+        <v>-1.3350906372070313</v>
       </c>
       <c r="D113" s="2">
         <v>-0.45804888010025024</v>
       </c>
       <c r="E113" s="2">
-        <v>-0.57714641094207764</v>
+        <v>-0.5772932767868042</v>
       </c>
     </row>
     <row r="114">
@@ -1970,13 +1970,13 @@
         <v>-0.93160015344619751</v>
       </c>
       <c r="C114" s="2">
-        <v>-1.1291841268539429</v>
+        <v>-1.1289677619934082</v>
       </c>
       <c r="D114" s="2">
         <v>-0.58391422033309937</v>
       </c>
       <c r="E114" s="2">
-        <v>-0.69155043363571167</v>
+        <v>-0.6916462779045105</v>
       </c>
     </row>
     <row r="115">
@@ -1987,13 +1987,13 @@
         <v>-0.79070389270782471</v>
       </c>
       <c r="C115" s="2">
-        <v>-0.8003658652305603</v>
+        <v>-0.80107665061950684</v>
       </c>
       <c r="D115" s="2">
         <v>-0.60402911901473999</v>
       </c>
       <c r="E115" s="2">
-        <v>-0.69452852010726929</v>
+        <v>-0.69491451978683472</v>
       </c>
     </row>
     <row r="116">
@@ -2004,13 +2004,13 @@
         <v>-0.97374874353408814</v>
       </c>
       <c r="C116" s="2">
-        <v>-1.1108163595199585</v>
+        <v>-1.1091032028198242</v>
       </c>
       <c r="D116" s="2">
         <v>-0.63690668344497681</v>
       </c>
       <c r="E116" s="2">
-        <v>-0.73406153917312622</v>
+        <v>-0.7344595193862915</v>
       </c>
     </row>
     <row r="117">
@@ -2021,13 +2021,13 @@
         <v>-0.56858664751052857</v>
       </c>
       <c r="C117" s="2">
-        <v>-0.76926249265670776</v>
+        <v>-0.76864629983901978</v>
       </c>
       <c r="D117" s="2">
         <v>-0.61852693557739258</v>
       </c>
       <c r="E117" s="2">
-        <v>-0.71761798858642578</v>
+        <v>-0.71740430593490601</v>
       </c>
     </row>
     <row r="118">
@@ -2038,13 +2038,13 @@
         <v>-0.8405260443687439</v>
       </c>
       <c r="C118" s="2">
-        <v>-0.93868106603622437</v>
+        <v>-0.94010639190673828</v>
       </c>
       <c r="D118" s="2">
         <v>-0.5726659893989563</v>
       </c>
       <c r="E118" s="2">
-        <v>-0.66845899820327759</v>
+        <v>-0.66856920719146729</v>
       </c>
     </row>
     <row r="119">
@@ -2055,13 +2055,13 @@
         <v>0.16052468121051788</v>
       </c>
       <c r="C119" s="2">
-        <v>0.20388579368591309</v>
+        <v>0.20150277018547058</v>
       </c>
       <c r="D119" s="2">
         <v>-0.54333215951919556</v>
       </c>
       <c r="E119" s="2">
-        <v>-0.64219552278518677</v>
+        <v>-0.64214664697647095</v>
       </c>
     </row>
     <row r="120">
@@ -2072,13 +2072,13 @@
         <v>-0.2322828620672226</v>
       </c>
       <c r="C120" s="2">
-        <v>-0.30164733529090881</v>
+        <v>-0.30271750688552857</v>
       </c>
       <c r="D120" s="2">
         <v>-0.53246229887008667</v>
       </c>
       <c r="E120" s="2">
-        <v>-0.64588505029678345</v>
+        <v>-0.64556884765625</v>
       </c>
     </row>
     <row r="121">
@@ -2089,13 +2089,13 @@
         <v>-0.14333407580852509</v>
       </c>
       <c r="C121" s="2">
-        <v>-0.27320358157157898</v>
+        <v>-0.27243328094482422</v>
       </c>
       <c r="D121" s="2">
         <v>-0.53456318378448486</v>
       </c>
       <c r="E121" s="2">
-        <v>-0.66058343648910523</v>
+        <v>-0.66033971309661865</v>
       </c>
     </row>
     <row r="122">
@@ -2106,13 +2106,13 @@
         <v>-0.83373624086380005</v>
       </c>
       <c r="C122" s="2">
-        <v>-0.89685600996017456</v>
+        <v>-0.89557427167892456</v>
       </c>
       <c r="D122" s="2">
         <v>-0.50244688987731934</v>
       </c>
       <c r="E122" s="2">
-        <v>-0.64468091726303101</v>
+        <v>-0.64453893899917603</v>
       </c>
     </row>
     <row r="123">
@@ -2123,13 +2123,13 @@
         <v>-0.66759538650512695</v>
       </c>
       <c r="C123" s="2">
-        <v>-0.89281255006790161</v>
+        <v>-0.89116507768630981</v>
       </c>
       <c r="D123" s="2">
         <v>-0.43224349617958069</v>
       </c>
       <c r="E123" s="2">
-        <v>-0.59903669357299805</v>
+        <v>-0.59894311428070068</v>
       </c>
     </row>
     <row r="124">
@@ -2140,13 +2140,13 @@
         <v>-0.6928754448890686</v>
       </c>
       <c r="C124" s="2">
-        <v>-0.83357161283493042</v>
+        <v>-0.83187609910964966</v>
       </c>
       <c r="D124" s="2">
         <v>-0.46384522318840027</v>
       </c>
       <c r="E124" s="2">
-        <v>-0.65837031602859497</v>
+        <v>-0.65784531831741333</v>
       </c>
     </row>
     <row r="125">
@@ -2157,13 +2157,13 @@
         <v>-0.99265658855438233</v>
       </c>
       <c r="C125" s="2">
-        <v>-1.2431023120880127</v>
+        <v>-1.2420414686203003</v>
       </c>
       <c r="D125" s="2">
         <v>-0.42486768960952759</v>
       </c>
       <c r="E125" s="2">
-        <v>-0.65131592750549316</v>
+        <v>-0.65045130252838135</v>
       </c>
     </row>
     <row r="126">
@@ -2174,13 +2174,13 @@
         <v>-0.2795403003692627</v>
       </c>
       <c r="C126" s="2">
-        <v>-0.62613946199417114</v>
+        <v>-0.62643915414810181</v>
       </c>
       <c r="D126" s="2">
-        <v>-0.46005940437316895</v>
+        <v>-0.41055825352668762</v>
       </c>
       <c r="E126" s="2">
-        <v>-0.69857996702194214</v>
+        <v>-0.65910720825195313</v>
       </c>
     </row>
     <row r="127">
@@ -2191,13 +2191,13 @@
         <v>-0.20869520306587219</v>
       </c>
       <c r="C127" s="2">
-        <v>-0.52788317203521729</v>
+        <v>-0.52974385023117065</v>
       </c>
       <c r="D127" s="2">
-        <v>-0.40667697787284851</v>
+        <v>-0.35766100883483887</v>
       </c>
       <c r="E127" s="2">
-        <v>-0.67025482654571533</v>
+        <v>-0.62954884767532349</v>
       </c>
     </row>
     <row r="128">
@@ -2208,13 +2208,13 @@
         <v>-0.1238909438252449</v>
       </c>
       <c r="C128" s="2">
-        <v>-0.33011671900749207</v>
+        <v>-0.32861733436584473</v>
       </c>
       <c r="D128" s="2">
-        <v>-0.36319059133529663</v>
+        <v>-0.31338468194007874</v>
       </c>
       <c r="E128" s="2">
-        <v>-0.63316190242767334</v>
+        <v>-0.59217506647109985</v>
       </c>
     </row>
     <row r="129">
@@ -2225,23 +2225,31 @@
         <v>0.11851492524147034</v>
       </c>
       <c r="C129" s="2">
-        <v>-0.23815810680389404</v>
+        <v>-0.2361711859703064</v>
       </c>
       <c r="D129" s="2">
-        <v>-0.29725360870361328</v>
+        <v>-0.25013622641563416</v>
       </c>
       <c r="E129" s="2">
-        <v>-0.59307992458343506</v>
+        <v>-0.55222493410110474</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1">
         <v>45170</v>
       </c>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
+      <c r="B130" s="2">
+        <v>-0.014549159444868565</v>
+      </c>
+      <c r="C130" s="2">
+        <v>-0.35033655166625977</v>
+      </c>
+      <c r="D130" s="2">
+        <v>-0.10163213312625885</v>
+      </c>
+      <c r="E130" s="2">
+        <v>-0.41426160931587219</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1">
@@ -2297,6 +2305,51 @@
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
     </row>
+    <row r="137">
+      <c r="A137" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/SCE_skewness.xlsx
+++ b/SCE_skewness.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E147"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -151,13 +151,13 @@
         <v>0.75467979907989502</v>
       </c>
       <c r="C7" s="2">
-        <v>0.37116172909736633</v>
+        <v>0.37200570106506348</v>
       </c>
       <c r="D7" s="2">
         <v>0.30358356237411499</v>
       </c>
       <c r="E7" s="2">
-        <v>0.026605214923620224</v>
+        <v>0.025048216804862022</v>
       </c>
     </row>
     <row r="8">
@@ -168,13 +168,13 @@
         <v>0.45104503631591797</v>
       </c>
       <c r="C8" s="2">
-        <v>0.19630293548107147</v>
+        <v>0.18915952742099762</v>
       </c>
       <c r="D8" s="2">
         <v>0.10388252884149551</v>
       </c>
       <c r="E8" s="2">
-        <v>-0.16387467086315155</v>
+        <v>-0.16478277742862701</v>
       </c>
     </row>
     <row r="9">
@@ -185,13 +185,13 @@
         <v>0.52031427621841431</v>
       </c>
       <c r="C9" s="2">
-        <v>0.2235625684261322</v>
+        <v>0.22635224461555481</v>
       </c>
       <c r="D9" s="2">
         <v>0.10086610168218613</v>
       </c>
       <c r="E9" s="2">
-        <v>-0.18853399157524109</v>
+        <v>-0.18906256556510925</v>
       </c>
     </row>
     <row r="10">
@@ -202,13 +202,13 @@
         <v>-0.22879557311534882</v>
       </c>
       <c r="C10" s="2">
-        <v>-0.30223098397254944</v>
+        <v>-0.30987605452537537</v>
       </c>
       <c r="D10" s="2">
         <v>0.15720002353191376</v>
       </c>
       <c r="E10" s="2">
-        <v>-0.13618330657482147</v>
+        <v>-0.13653907179832459</v>
       </c>
     </row>
     <row r="11">
@@ -219,13 +219,13 @@
         <v>0.020674310624599457</v>
       </c>
       <c r="C11" s="2">
-        <v>-0.35577017068862915</v>
+        <v>-0.35240033268928528</v>
       </c>
       <c r="D11" s="2">
         <v>0.11538553237915039</v>
       </c>
       <c r="E11" s="2">
-        <v>-0.19250209629535675</v>
+        <v>-0.1924184113740921</v>
       </c>
     </row>
     <row r="12">
@@ -236,13 +236,13 @@
         <v>-0.89462268352508545</v>
       </c>
       <c r="C12" s="2">
-        <v>-1.1162741184234619</v>
+        <v>-1.1139377355575562</v>
       </c>
       <c r="D12" s="2">
         <v>0.030098624527454376</v>
       </c>
       <c r="E12" s="2">
-        <v>-0.26181524991989136</v>
+        <v>-0.26211622357368469</v>
       </c>
     </row>
     <row r="13">
@@ -253,13 +253,13 @@
         <v>0.082767561078071594</v>
       </c>
       <c r="C13" s="2">
-        <v>-0.33648988604545593</v>
+        <v>-0.33474135398864746</v>
       </c>
       <c r="D13" s="2">
         <v>-0.13790342211723328</v>
       </c>
       <c r="E13" s="2">
-        <v>-0.44407323002815247</v>
+        <v>-0.44298210740089417</v>
       </c>
     </row>
     <row r="14">
@@ -270,13 +270,13 @@
         <v>0.55153751373291016</v>
       </c>
       <c r="C14" s="2">
-        <v>0.23027147352695465</v>
+        <v>0.23112541437149048</v>
       </c>
       <c r="D14" s="2">
         <v>-0.136473149061203</v>
       </c>
       <c r="E14" s="2">
-        <v>-0.43510058522224426</v>
+        <v>-0.434907466173172</v>
       </c>
     </row>
     <row r="15">
@@ -287,13 +287,13 @@
         <v>-0.21913042664527893</v>
       </c>
       <c r="C15" s="2">
-        <v>-0.64305239915847778</v>
+        <v>-0.63945305347442627</v>
       </c>
       <c r="D15" s="2">
         <v>-0.18043906986713409</v>
       </c>
       <c r="E15" s="2">
-        <v>-0.51499253511428833</v>
+        <v>-0.51401138305664063</v>
       </c>
     </row>
     <row r="16">
@@ -304,13 +304,13 @@
         <v>-0.012902386486530304</v>
       </c>
       <c r="C16" s="2">
-        <v>-0.25265675783157349</v>
+        <v>-0.25527474284172058</v>
       </c>
       <c r="D16" s="2">
         <v>-0.19662326574325562</v>
       </c>
       <c r="E16" s="2">
-        <v>-0.51841467618942261</v>
+        <v>-0.51837706565856934</v>
       </c>
     </row>
     <row r="17">
@@ -321,13 +321,13 @@
         <v>-1.0609734058380127</v>
       </c>
       <c r="C17" s="2">
-        <v>-1.4440187215805054</v>
+        <v>-1.4386333227157593</v>
       </c>
       <c r="D17" s="2">
         <v>-0.14019788801670075</v>
       </c>
       <c r="E17" s="2">
-        <v>-0.49253007769584656</v>
+        <v>-0.49430415034294129</v>
       </c>
     </row>
     <row r="18">
@@ -338,13 +338,13 @@
         <v>0.53318673372268677</v>
       </c>
       <c r="C18" s="2">
-        <v>0.30431640148162842</v>
+        <v>0.29902410507202149</v>
       </c>
       <c r="D18" s="2">
         <v>-0.16055162250995636</v>
       </c>
       <c r="E18" s="2">
-        <v>-0.4937705397605896</v>
+        <v>-0.49616736173629761</v>
       </c>
     </row>
     <row r="19">
@@ -355,13 +355,13 @@
         <v>-0.62448883056640625</v>
       </c>
       <c r="C19" s="2">
-        <v>-1.0212585926055908</v>
+        <v>-1.0218113660812378</v>
       </c>
       <c r="D19" s="2">
         <v>-0.25215312838554382</v>
       </c>
       <c r="E19" s="2">
-        <v>-0.59254556894302368</v>
+        <v>-0.59646916389465332</v>
       </c>
     </row>
     <row r="20">
@@ -372,13 +372,13 @@
         <v>-0.12498348951339722</v>
       </c>
       <c r="C20" s="2">
-        <v>-0.38656926155090332</v>
+        <v>-0.39169168472290039</v>
       </c>
       <c r="D20" s="2">
         <v>-0.22514151036739349</v>
       </c>
       <c r="E20" s="2">
-        <v>-0.53529864549636841</v>
+        <v>-0.54054445028305054</v>
       </c>
     </row>
     <row r="21">
@@ -389,13 +389,13 @@
         <v>-0.38679426908493042</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.88331294059753418</v>
+        <v>-0.89728134870529175</v>
       </c>
       <c r="D21" s="2">
         <v>-0.27614706754684448</v>
       </c>
       <c r="E21" s="2">
-        <v>-0.58895236253738403</v>
+        <v>-0.5943150520324707</v>
       </c>
     </row>
     <row r="22">
@@ -406,13 +406,13 @@
         <v>-0.10041602700948715</v>
       </c>
       <c r="C22" s="2">
-        <v>-0.34765401482582092</v>
+        <v>-0.35151016712188721</v>
       </c>
       <c r="D22" s="2">
         <v>-0.2092270702123642</v>
       </c>
       <c r="E22" s="2">
-        <v>-0.49626687169075012</v>
+        <v>-0.5029137134552002</v>
       </c>
     </row>
     <row r="23">
@@ -423,13 +423,13 @@
         <v>-0.27287611365318298</v>
       </c>
       <c r="C23" s="2">
-        <v>-0.65870374441146851</v>
+        <v>-0.67159104347229004</v>
       </c>
       <c r="D23" s="2">
         <v>-0.29087939858436584</v>
       </c>
       <c r="E23" s="2">
-        <v>-0.57940411567687988</v>
+        <v>-0.58597272634506226</v>
       </c>
     </row>
     <row r="24">
@@ -440,13 +440,13 @@
         <v>0.023974135518074036</v>
       </c>
       <c r="C24" s="2">
-        <v>-0.12783032655715942</v>
+        <v>-0.13613028824329376</v>
       </c>
       <c r="D24" s="2">
         <v>-0.24808692932128906</v>
       </c>
       <c r="E24" s="2">
-        <v>-0.53558003902435303</v>
+        <v>-0.54083973169326782</v>
       </c>
     </row>
     <row r="25">
@@ -457,13 +457,13 @@
         <v>-0.4719524085521698</v>
       </c>
       <c r="C25" s="2">
-        <v>-0.73554003238677979</v>
+        <v>-0.73921036720275879</v>
       </c>
       <c r="D25" s="2">
         <v>-0.31977397203445435</v>
       </c>
       <c r="E25" s="2">
-        <v>-0.60904431343078613</v>
+        <v>-0.613711416721344</v>
       </c>
     </row>
     <row r="26">
@@ -474,13 +474,13 @@
         <v>-0.45869335532188416</v>
       </c>
       <c r="C26" s="2">
-        <v>-0.60984927415847778</v>
+        <v>-0.61602151393890381</v>
       </c>
       <c r="D26" s="2">
         <v>-0.21627253293991089</v>
       </c>
       <c r="E26" s="2">
-        <v>-0.47442787885665894</v>
+        <v>-0.47844904661178589</v>
       </c>
     </row>
     <row r="27">
@@ -491,13 +491,13 @@
         <v>-0.2016841322183609</v>
       </c>
       <c r="C27" s="2">
-        <v>-0.4439186155796051</v>
+        <v>-0.44850650429725647</v>
       </c>
       <c r="D27" s="2">
         <v>-0.15139244496822357</v>
       </c>
       <c r="E27" s="2">
-        <v>-0.40665039420127869</v>
+        <v>-0.41033411026000977</v>
       </c>
     </row>
     <row r="28">
@@ -508,13 +508,13 @@
         <v>-0.23935668170452118</v>
       </c>
       <c r="C28" s="2">
-        <v>-0.62684231996536255</v>
+        <v>-0.61561489105224609</v>
       </c>
       <c r="D28" s="2">
         <v>-0.093287214636802673</v>
       </c>
       <c r="E28" s="2">
-        <v>-0.33557328581809998</v>
+        <v>-0.3372471034526825</v>
       </c>
     </row>
     <row r="29">
@@ -525,13 +525,13 @@
         <v>-0.77016687393188477</v>
       </c>
       <c r="C29" s="2">
-        <v>-1.0477476119995117</v>
+        <v>-1.0475363731384277</v>
       </c>
       <c r="D29" s="2">
         <v>-0.1603572815656662</v>
       </c>
       <c r="E29" s="2">
-        <v>-0.40801692008972168</v>
+        <v>-0.40931633114814758</v>
       </c>
     </row>
     <row r="30">
@@ -542,13 +542,13 @@
         <v>0.54471868276596069</v>
       </c>
       <c r="C30" s="2">
-        <v>0.32823514938354492</v>
+        <v>0.32007983326911926</v>
       </c>
       <c r="D30" s="2">
         <v>-0.097807548940181732</v>
       </c>
       <c r="E30" s="2">
-        <v>-0.34170064330101013</v>
+        <v>-0.34280210733413696</v>
       </c>
     </row>
     <row r="31">
@@ -559,13 +559,13 @@
         <v>0.48350468277931213</v>
       </c>
       <c r="C31" s="2">
-        <v>0.26234334707260132</v>
+        <v>0.26152420043945313</v>
       </c>
       <c r="D31" s="2">
         <v>-0.10886616259813309</v>
       </c>
       <c r="E31" s="2">
-        <v>-0.37891542911529541</v>
+        <v>-0.37974521517753601</v>
       </c>
     </row>
     <row r="32">
@@ -576,13 +576,13 @@
         <v>0.25007104873657227</v>
       </c>
       <c r="C32" s="2">
-        <v>-0.01900981180369854</v>
+        <v>-0.013807973824441433</v>
       </c>
       <c r="D32" s="2">
         <v>-0.21468514204025269</v>
       </c>
       <c r="E32" s="2">
-        <v>-0.50258475542068481</v>
+        <v>-0.50347042083740234</v>
       </c>
     </row>
     <row r="33">
@@ -593,13 +593,13 @@
         <v>-0.57965648174285889</v>
       </c>
       <c r="C33" s="2">
-        <v>-0.77982300519943237</v>
+        <v>-0.78475332260131836</v>
       </c>
       <c r="D33" s="2">
         <v>-0.1857101172208786</v>
       </c>
       <c r="E33" s="2">
-        <v>-0.46421295404434204</v>
+        <v>-0.46545779705047608</v>
       </c>
     </row>
     <row r="34">
@@ -610,13 +610,13 @@
         <v>0.090995185077190399</v>
       </c>
       <c r="C34" s="2">
-        <v>-0.13869372010231018</v>
+        <v>-0.14058233797550202</v>
       </c>
       <c r="D34" s="2">
         <v>-0.086152300238609314</v>
       </c>
       <c r="E34" s="2">
-        <v>-0.35487213730812073</v>
+        <v>-0.35645213723182678</v>
       </c>
     </row>
     <row r="35">
@@ -627,13 +627,13 @@
         <v>-0.55822086334228516</v>
       </c>
       <c r="C35" s="2">
-        <v>-0.94478237628936768</v>
+        <v>-0.94850963354110718</v>
       </c>
       <c r="D35" s="2">
         <v>-0.11454352736473083</v>
       </c>
       <c r="E35" s="2">
-        <v>-0.38795655965805054</v>
+        <v>-0.38945770263671875</v>
       </c>
     </row>
     <row r="36">
@@ -644,13 +644,13 @@
         <v>-1.1540549993515015</v>
       </c>
       <c r="C36" s="2">
-        <v>-1.5569425821304321</v>
+        <v>-1.5620331764221191</v>
       </c>
       <c r="D36" s="2">
         <v>-0.17915503680706024</v>
       </c>
       <c r="E36" s="2">
-        <v>-0.44789701700210571</v>
+        <v>-0.44927936792373657</v>
       </c>
     </row>
     <row r="37">
@@ -661,13 +661,13 @@
         <v>0.021418565884232521</v>
       </c>
       <c r="C37" s="2">
-        <v>-0.2814960777759552</v>
+        <v>-0.27350151538848877</v>
       </c>
       <c r="D37" s="2">
         <v>-0.1833871603012085</v>
       </c>
       <c r="E37" s="2">
-        <v>-0.45090210437774658</v>
+        <v>-0.45218956470489502</v>
       </c>
     </row>
     <row r="38">
@@ -678,13 +678,13 @@
         <v>0.12585350871086121</v>
       </c>
       <c r="C38" s="2">
-        <v>-0.063680276274681091</v>
+        <v>-0.06648533046245575</v>
       </c>
       <c r="D38" s="2">
         <v>-0.19518217444419861</v>
       </c>
       <c r="E38" s="2">
-        <v>-0.50295746326446533</v>
+        <v>-0.50372898578643799</v>
       </c>
     </row>
     <row r="39">
@@ -695,13 +695,13 @@
         <v>0.28919762372970581</v>
       </c>
       <c r="C39" s="2">
-        <v>0.030475417152047157</v>
+        <v>0.023029768839478493</v>
       </c>
       <c r="D39" s="2">
         <v>-0.15041124820709229</v>
       </c>
       <c r="E39" s="2">
-        <v>-0.43061104416847229</v>
+        <v>-0.43104991316795349</v>
       </c>
     </row>
     <row r="40">
@@ -712,13 +712,13 @@
         <v>-0.097998887300491333</v>
       </c>
       <c r="C40" s="2">
-        <v>-0.27712082862854004</v>
+        <v>-0.27687084674835205</v>
       </c>
       <c r="D40" s="2">
         <v>-0.075663968920707703</v>
       </c>
       <c r="E40" s="2">
-        <v>-0.36752340197563171</v>
+        <v>-0.3672834038734436</v>
       </c>
     </row>
     <row r="41">
@@ -729,13 +729,13 @@
         <v>0.21198192238807678</v>
       </c>
       <c r="C41" s="2">
-        <v>-0.046055473387241364</v>
+        <v>-0.039999600499868393</v>
       </c>
       <c r="D41" s="2">
         <v>0.0076738409698009491</v>
       </c>
       <c r="E41" s="2">
-        <v>-0.27272042632102966</v>
+        <v>-0.27140545845031738</v>
       </c>
     </row>
     <row r="42">
@@ -746,13 +746,13 @@
         <v>-0.68581163883209229</v>
       </c>
       <c r="C42" s="2">
-        <v>-1.2483210563659668</v>
+        <v>-1.2486083507537842</v>
       </c>
       <c r="D42" s="2">
         <v>0.037948276847600937</v>
       </c>
       <c r="E42" s="2">
-        <v>-0.24390813708305359</v>
+        <v>-0.24335289001464844</v>
       </c>
     </row>
     <row r="43">
@@ -763,13 +763,13 @@
         <v>0.49393346905708313</v>
       </c>
       <c r="C43" s="2">
-        <v>0.5124238133430481</v>
+        <v>0.51352959871292114</v>
       </c>
       <c r="D43" s="2">
         <v>0.027599811553955078</v>
       </c>
       <c r="E43" s="2">
-        <v>-0.28022673726081848</v>
+        <v>-0.2787577211856842</v>
       </c>
     </row>
     <row r="44">
@@ -780,13 +780,13 @@
         <v>0.11450470983982086</v>
       </c>
       <c r="C44" s="2">
-        <v>-0.37699368596076965</v>
+        <v>-0.37461128830909729</v>
       </c>
       <c r="D44" s="2">
         <v>-0.048547346144914627</v>
       </c>
       <c r="E44" s="2">
-        <v>-0.33333298563957214</v>
+        <v>-0.33070912957191467</v>
       </c>
     </row>
     <row r="45">
@@ -797,13 +797,13 @@
         <v>-0.4040147066116333</v>
       </c>
       <c r="C45" s="2">
-        <v>-0.70371568202972412</v>
+        <v>-0.69913148880004883</v>
       </c>
       <c r="D45" s="2">
         <v>-0.081148959696292877</v>
       </c>
       <c r="E45" s="2">
-        <v>-0.37433019280433655</v>
+        <v>-0.37189340591430664</v>
       </c>
     </row>
     <row r="46">
@@ -814,13 +814,13 @@
         <v>0.29388847947120667</v>
       </c>
       <c r="C46" s="2">
-        <v>-0.022185420617461205</v>
+        <v>-0.021028490737080574</v>
       </c>
       <c r="D46" s="2">
         <v>-0.1598929762840271</v>
       </c>
       <c r="E46" s="2">
-        <v>-0.45115265250205994</v>
+        <v>-0.44955509901046753</v>
       </c>
     </row>
     <row r="47">
@@ -831,13 +831,13 @@
         <v>0.032717324793338776</v>
       </c>
       <c r="C47" s="2">
-        <v>-0.39054784178733826</v>
+        <v>-0.38512867689132691</v>
       </c>
       <c r="D47" s="2">
         <v>-0.14775112271308899</v>
       </c>
       <c r="E47" s="2">
-        <v>-0.40511858463287354</v>
+        <v>-0.40285450220108032</v>
       </c>
     </row>
     <row r="48">
@@ -848,13 +848,13 @@
         <v>-0.39612677693367004</v>
       </c>
       <c r="C48" s="2">
-        <v>-0.44748064875602722</v>
+        <v>-0.44453302025794983</v>
       </c>
       <c r="D48" s="2">
         <v>-0.27623826265335083</v>
       </c>
       <c r="E48" s="2">
-        <v>-0.56793004274368286</v>
+        <v>-0.56455355882644653</v>
       </c>
     </row>
     <row r="49">
@@ -865,13 +865,13 @@
         <v>-0.39141345024108887</v>
       </c>
       <c r="C49" s="2">
-        <v>-0.64609569311141968</v>
+        <v>-0.64752942323684692</v>
       </c>
       <c r="D49" s="2">
         <v>-0.27205902338027954</v>
       </c>
       <c r="E49" s="2">
-        <v>-0.54092800617218018</v>
+        <v>-0.53854244947433472</v>
       </c>
     </row>
     <row r="50">
@@ -882,13 +882,13 @@
         <v>-0.49671423435211182</v>
       </c>
       <c r="C50" s="2">
-        <v>-0.73745763301849365</v>
+        <v>-0.73895466327667236</v>
       </c>
       <c r="D50" s="2">
         <v>-0.25660091638565063</v>
       </c>
       <c r="E50" s="2">
-        <v>-0.51819252967834473</v>
+        <v>-0.51527345180511475</v>
       </c>
     </row>
     <row r="51">
@@ -899,13 +899,13 @@
         <v>-0.57653486728668213</v>
       </c>
       <c r="C51" s="2">
-        <v>-0.83401453495025635</v>
+        <v>-0.82830315828323364</v>
       </c>
       <c r="D51" s="2">
         <v>-0.32184427976608276</v>
       </c>
       <c r="E51" s="2">
-        <v>-0.57885861396789551</v>
+        <v>-0.57670319080352783</v>
       </c>
     </row>
     <row r="52">
@@ -916,13 +916,13 @@
         <v>-0.66245073080062866</v>
       </c>
       <c r="C52" s="2">
-        <v>-0.95287948846817017</v>
+        <v>-0.94176161289215088</v>
       </c>
       <c r="D52" s="2">
         <v>-0.33927956223487854</v>
       </c>
       <c r="E52" s="2">
-        <v>-0.56787919998168945</v>
+        <v>-0.56709831953048706</v>
       </c>
     </row>
     <row r="53">
@@ -933,13 +933,13 @@
         <v>0.15211783349514008</v>
       </c>
       <c r="C53" s="2">
-        <v>-0.13397516310214996</v>
+        <v>-0.14051161706447601</v>
       </c>
       <c r="D53" s="2">
         <v>-0.35259756445884705</v>
       </c>
       <c r="E53" s="2">
-        <v>-0.61769944429397583</v>
+        <v>-0.61745589971542358</v>
       </c>
     </row>
     <row r="54">
@@ -950,13 +950,13 @@
         <v>-0.26489183306694031</v>
       </c>
       <c r="C54" s="2">
-        <v>-0.4990963339805603</v>
+        <v>-0.48971018195152283</v>
       </c>
       <c r="D54" s="2">
         <v>-0.30641192197799683</v>
       </c>
       <c r="E54" s="2">
-        <v>-0.57913792133331299</v>
+        <v>-0.57827514410018921</v>
       </c>
     </row>
     <row r="55">
@@ -967,13 +967,13 @@
         <v>-0.29330176115036011</v>
       </c>
       <c r="C55" s="2">
-        <v>-0.56818032264709473</v>
+        <v>-0.57389652729034424</v>
       </c>
       <c r="D55" s="2">
         <v>-0.32997885346412659</v>
       </c>
       <c r="E55" s="2">
-        <v>-0.60521650314331055</v>
+        <v>-0.60504555702209473</v>
       </c>
     </row>
     <row r="56">
@@ -984,13 +984,13 @@
         <v>-0.12420023232698441</v>
       </c>
       <c r="C56" s="2">
-        <v>-0.29173323512077332</v>
+        <v>-0.29868453741073608</v>
       </c>
       <c r="D56" s="2">
         <v>-0.35911431908607483</v>
       </c>
       <c r="E56" s="2">
-        <v>-0.64532804489135742</v>
+        <v>-0.64524573087692261</v>
       </c>
     </row>
     <row r="57">
@@ -1001,13 +1001,13 @@
         <v>-0.51598882675170899</v>
       </c>
       <c r="C57" s="2">
-        <v>-0.8958626389503479</v>
+        <v>-0.89775162935256958</v>
       </c>
       <c r="D57" s="2">
         <v>-0.24196623265743256</v>
       </c>
       <c r="E57" s="2">
-        <v>-0.53450316190719604</v>
+        <v>-0.53644871711730957</v>
       </c>
     </row>
     <row r="58">
@@ -1018,13 +1018,13 @@
         <v>0.024257250130176544</v>
       </c>
       <c r="C58" s="2">
-        <v>-0.29904189705848694</v>
+        <v>-0.29490220546722412</v>
       </c>
       <c r="D58" s="2">
         <v>-0.30076441168785095</v>
       </c>
       <c r="E58" s="2">
-        <v>-0.60288697481155396</v>
+        <v>-0.60482752323150635</v>
       </c>
     </row>
     <row r="59">
@@ -1035,13 +1035,13 @@
         <v>-0.7088165283203125</v>
       </c>
       <c r="C59" s="2">
-        <v>-0.97216469049453735</v>
+        <v>-0.97988831996917725</v>
       </c>
       <c r="D59" s="2">
         <v>-0.29284968972206116</v>
       </c>
       <c r="E59" s="2">
-        <v>-0.5995563268661499</v>
+        <v>-0.60210239887237549</v>
       </c>
     </row>
     <row r="60">
@@ -1052,13 +1052,13 @@
         <v>-0.83875411748886108</v>
       </c>
       <c r="C60" s="2">
-        <v>-1.1950186491012573</v>
+        <v>-1.1901047229766846</v>
       </c>
       <c r="D60" s="2">
         <v>-0.31478077173233032</v>
       </c>
       <c r="E60" s="2">
-        <v>-0.64128637313842774</v>
+        <v>-0.64272284507751465</v>
       </c>
     </row>
     <row r="61">
@@ -1069,13 +1069,13 @@
         <v>0.39188209176063538</v>
       </c>
       <c r="C61" s="2">
-        <v>0.044544544070959091</v>
+        <v>0.037411272525787354</v>
       </c>
       <c r="D61" s="2">
         <v>-0.32838353514671326</v>
       </c>
       <c r="E61" s="2">
-        <v>-0.67750483751296997</v>
+        <v>-0.67772585153579712</v>
       </c>
     </row>
     <row r="62">
@@ -1086,13 +1086,13 @@
         <v>-0.37706586718559265</v>
       </c>
       <c r="C62" s="2">
-        <v>-0.74942976236343384</v>
+        <v>-0.75592070817947388</v>
       </c>
       <c r="D62" s="2">
         <v>-0.32985919713973999</v>
       </c>
       <c r="E62" s="2">
-        <v>-0.67078381776809692</v>
+        <v>-0.67104625701904297</v>
       </c>
     </row>
     <row r="63">
@@ -1103,13 +1103,13 @@
         <v>-0.19365914165973663</v>
       </c>
       <c r="C63" s="2">
-        <v>-0.46912047266960144</v>
+        <v>-0.46518418192863464</v>
       </c>
       <c r="D63" s="2">
         <v>-0.24417248368263245</v>
       </c>
       <c r="E63" s="2">
-        <v>-0.57295811176300049</v>
+        <v>-0.57324182987213135</v>
       </c>
     </row>
     <row r="64">
@@ -1120,13 +1120,13 @@
         <v>-0.49068161845207214</v>
       </c>
       <c r="C64" s="2">
-        <v>-0.94375073909759522</v>
+        <v>-0.93948072195053101</v>
       </c>
       <c r="D64" s="2">
         <v>-0.2177211344242096</v>
       </c>
       <c r="E64" s="2">
-        <v>-0.55501282215118408</v>
+        <v>-0.55378168821334839</v>
       </c>
     </row>
     <row r="65">
@@ -1137,13 +1137,13 @@
         <v>-0.24662499129772186</v>
       </c>
       <c r="C65" s="2">
-        <v>-0.61769896745681763</v>
+        <v>-0.6137116551399231</v>
       </c>
       <c r="D65" s="2">
         <v>-0.096363365650177002</v>
       </c>
       <c r="E65" s="2">
-        <v>-0.43192780017852783</v>
+        <v>-0.43131247162818909</v>
       </c>
     </row>
     <row r="66">
@@ -1154,13 +1154,13 @@
         <v>-0.5292697548866272</v>
       </c>
       <c r="C66" s="2">
-        <v>-0.83537352085113525</v>
+        <v>-0.83763480186462402</v>
       </c>
       <c r="D66" s="2">
         <v>-0.1127610057592392</v>
       </c>
       <c r="E66" s="2">
-        <v>-0.4590848982334137</v>
+        <v>-0.45756661891937256</v>
       </c>
     </row>
     <row r="67">
@@ -1171,13 +1171,13 @@
         <v>0.7954375147819519</v>
       </c>
       <c r="C67" s="2">
-        <v>0.58138912916183472</v>
+        <v>0.58533763885498047</v>
       </c>
       <c r="D67" s="2">
         <v>-0.065585754811763763</v>
       </c>
       <c r="E67" s="2">
-        <v>-0.42404124140739441</v>
+        <v>-0.42205935716629028</v>
       </c>
     </row>
     <row r="68">
@@ -1188,13 +1188,13 @@
         <v>-0.47075435519218445</v>
       </c>
       <c r="C68" s="2">
-        <v>-0.8106568455696106</v>
+        <v>-0.80474734306335449</v>
       </c>
       <c r="D68" s="2">
         <v>-0.068046808242797852</v>
       </c>
       <c r="E68" s="2">
-        <v>-0.45046183466911316</v>
+        <v>-0.45028138160705567</v>
       </c>
     </row>
     <row r="69">
@@ -1205,13 +1205,13 @@
         <v>0.25346586108207703</v>
       </c>
       <c r="C69" s="2">
-        <v>-0.087253615260124207</v>
+        <v>-0.08788183331489563</v>
       </c>
       <c r="D69" s="2">
         <v>-0.078930631279945374</v>
       </c>
       <c r="E69" s="2">
-        <v>-0.46987423300743103</v>
+        <v>-0.47008505463600159</v>
       </c>
     </row>
     <row r="70">
@@ -1222,13 +1222,13 @@
         <v>0.24430331587791443</v>
       </c>
       <c r="C70" s="2">
-        <v>-0.19986927509307861</v>
+        <v>-0.19887596368789673</v>
       </c>
       <c r="D70" s="2">
         <v>-0.10793200135231018</v>
       </c>
       <c r="E70" s="2">
-        <v>-0.47850269079208374</v>
+        <v>-0.4794418215751648</v>
       </c>
     </row>
     <row r="71">
@@ -1239,13 +1239,13 @@
         <v>0.047511395066976547</v>
       </c>
       <c r="C71" s="2">
-        <v>-0.43403679132461548</v>
+        <v>-0.43635544180870056</v>
       </c>
       <c r="D71" s="2">
         <v>-0.15277969837188721</v>
       </c>
       <c r="E71" s="2">
-        <v>-0.49681010842323303</v>
+        <v>-0.49822896718978882</v>
       </c>
     </row>
     <row r="72">
@@ -1256,13 +1256,13 @@
         <v>-0.21580861508846283</v>
       </c>
       <c r="C72" s="2">
-        <v>-0.70690584182739258</v>
+        <v>-0.71918225288391113</v>
       </c>
       <c r="D72" s="2">
         <v>-0.21412444114685059</v>
       </c>
       <c r="E72" s="2">
-        <v>-0.57075190544128418</v>
+        <v>-0.57164335250854492</v>
       </c>
     </row>
     <row r="73">
@@ -1273,13 +1273,13 @@
         <v>-0.58863604068756104</v>
       </c>
       <c r="C73" s="2">
-        <v>-1.1184623241424561</v>
+        <v>-1.1177139282226563</v>
       </c>
       <c r="D73" s="2">
         <v>-0.20146757364273071</v>
       </c>
       <c r="E73" s="2">
-        <v>-0.5363849401473999</v>
+        <v>-0.53877776861190796</v>
       </c>
     </row>
     <row r="74">
@@ -1290,13 +1290,13 @@
         <v>-0.50763732194900513</v>
       </c>
       <c r="C74" s="2">
-        <v>-0.69535523653030396</v>
+        <v>-0.69792252779006958</v>
       </c>
       <c r="D74" s="2">
         <v>-0.24717943370342255</v>
       </c>
       <c r="E74" s="2">
-        <v>-0.57394880056381226</v>
+        <v>-0.57484704256057739</v>
       </c>
     </row>
     <row r="75">
@@ -1307,13 +1307,13 @@
         <v>-0.93289899826049805</v>
       </c>
       <c r="C75" s="2">
-        <v>-1.0001400709152222</v>
+        <v>-1.0067191123962402</v>
       </c>
       <c r="D75" s="2">
         <v>-0.31911718845367432</v>
       </c>
       <c r="E75" s="2">
-        <v>-0.62410879135131836</v>
+        <v>-0.62441384792327881</v>
       </c>
     </row>
     <row r="76">
@@ -1324,13 +1324,13 @@
         <v>0.24333480000495911</v>
       </c>
       <c r="C76" s="2">
-        <v>-0.084086976945400238</v>
+        <v>-0.075391761958599091</v>
       </c>
       <c r="D76" s="2">
         <v>-0.34663748741149902</v>
       </c>
       <c r="E76" s="2">
-        <v>-0.61949175596237183</v>
+        <v>-0.61989390850067139</v>
       </c>
     </row>
     <row r="77">
@@ -1341,13 +1341,13 @@
         <v>-0.35684254765510559</v>
       </c>
       <c r="C77" s="2">
-        <v>-0.5013541579246521</v>
+        <v>-0.50895696878433228</v>
       </c>
       <c r="D77" s="2">
         <v>-0.31957903504371643</v>
       </c>
       <c r="E77" s="2">
-        <v>-0.56603163480758667</v>
+        <v>-0.56487590074539185</v>
       </c>
     </row>
     <row r="78">
@@ -1358,13 +1358,13 @@
         <v>-0.15794084966182709</v>
       </c>
       <c r="C78" s="2">
-        <v>-0.4253285825252533</v>
+        <v>-0.41250517964363098</v>
       </c>
       <c r="D78" s="2">
         <v>-0.22663472592830658</v>
       </c>
       <c r="E78" s="2">
-        <v>-0.44332596659660339</v>
+        <v>-0.44280135631561279</v>
       </c>
     </row>
     <row r="79">
@@ -1375,13 +1375,13 @@
         <v>-0.40313661098480225</v>
       </c>
       <c r="C79" s="2">
-        <v>-0.651309072971344</v>
+        <v>-0.64497733116149902</v>
       </c>
       <c r="D79" s="2">
         <v>-0.18005566298961639</v>
       </c>
       <c r="E79" s="2">
-        <v>-0.39625018835067749</v>
+        <v>-0.39642265439033508</v>
       </c>
     </row>
     <row r="80">
@@ -1392,13 +1392,13 @@
         <v>-0.20017130672931671</v>
       </c>
       <c r="C80" s="2">
-        <v>-0.39248338341712952</v>
+        <v>-0.39567610621452332</v>
       </c>
       <c r="D80" s="2">
         <v>-0.02626936137676239</v>
       </c>
       <c r="E80" s="2">
-        <v>-0.27611836791038513</v>
+        <v>-0.27563458681106567</v>
       </c>
     </row>
     <row r="81">
@@ -1409,13 +1409,13 @@
         <v>0.027717467397451401</v>
       </c>
       <c r="C81" s="2">
-        <v>-0.22576476633548737</v>
+        <v>-0.22402006387710571</v>
       </c>
       <c r="D81" s="2">
         <v>-0.034426335245370865</v>
       </c>
       <c r="E81" s="2">
-        <v>-0.2634638249874115</v>
+        <v>-0.26231229305267334</v>
       </c>
     </row>
     <row r="82">
@@ -1426,13 +1426,13 @@
         <v>0.2478628009557724</v>
       </c>
       <c r="C82" s="2">
-        <v>-0.014111539348959923</v>
+        <v>-0.019043095409870148</v>
       </c>
       <c r="D82" s="2">
         <v>0.03372843936085701</v>
       </c>
       <c r="E82" s="2">
-        <v>-0.22121921181678772</v>
+        <v>-0.21854895353317261</v>
       </c>
     </row>
     <row r="83">
@@ -1443,13 +1443,13 @@
         <v>-0.088425688445568085</v>
       </c>
       <c r="C83" s="2">
-        <v>-0.27167326211929321</v>
+        <v>-0.28051421046257019</v>
       </c>
       <c r="D83" s="2">
         <v>0.017333682626485825</v>
       </c>
       <c r="E83" s="2">
-        <v>-0.23253564536571503</v>
+        <v>-0.23043482005596161</v>
       </c>
     </row>
     <row r="84">
@@ -1460,13 +1460,13 @@
         <v>0.4511776864528656</v>
       </c>
       <c r="C84" s="2">
-        <v>0.081046499311923981</v>
+        <v>0.080373384058475494</v>
       </c>
       <c r="D84" s="2">
         <v>0.0051900632679462433</v>
       </c>
       <c r="E84" s="2">
-        <v>-0.23724448680877686</v>
+        <v>-0.23611898720264435</v>
       </c>
     </row>
     <row r="85">
@@ -1477,13 +1477,13 @@
         <v>0.16992203891277313</v>
       </c>
       <c r="C85" s="2">
-        <v>0.029803728684782982</v>
+        <v>0.044508863240480423</v>
       </c>
       <c r="D85" s="2">
         <v>0.030686743557453156</v>
       </c>
       <c r="E85" s="2">
-        <v>-0.19375824928283692</v>
+        <v>-0.19238762557506561</v>
       </c>
     </row>
     <row r="86">
@@ -1494,13 +1494,13 @@
         <v>0.25655040144920349</v>
       </c>
       <c r="C86" s="2">
-        <v>-0.12115252017974854</v>
+        <v>-0.11508689075708389</v>
       </c>
       <c r="D86" s="2">
         <v>-0.00040994916344061494</v>
       </c>
       <c r="E86" s="2">
-        <v>-0.21569144725799561</v>
+        <v>-0.21444359421730042</v>
       </c>
     </row>
     <row r="87">
@@ -1511,13 +1511,13 @@
         <v>-0.30549365282058716</v>
       </c>
       <c r="C87" s="2">
-        <v>-0.52717649936676025</v>
+        <v>-0.5194779634475708</v>
       </c>
       <c r="D87" s="2">
         <v>-0.039005279541015625</v>
       </c>
       <c r="E87" s="2">
-        <v>-0.23678182065486908</v>
+        <v>-0.2352079451084137</v>
       </c>
     </row>
     <row r="88">
@@ -1528,13 +1528,13 @@
         <v>-0.51242917776107788</v>
       </c>
       <c r="C88" s="2">
-        <v>-0.69368863105773926</v>
+        <v>-0.69613480567932129</v>
       </c>
       <c r="D88" s="2">
         <v>-0.094004616141319275</v>
       </c>
       <c r="E88" s="2">
-        <v>-0.29064765572547913</v>
+        <v>-0.2879263162612915</v>
       </c>
     </row>
     <row r="89">
@@ -1545,13 +1545,13 @@
         <v>0.029298819601535797</v>
       </c>
       <c r="C89" s="2">
-        <v>-0.0011072406778112054</v>
+        <v>-0.0020938226953148842</v>
       </c>
       <c r="D89" s="2">
         <v>-0.15146702527999878</v>
       </c>
       <c r="E89" s="2">
-        <v>-0.32822492718696594</v>
+        <v>-0.32523465156555176</v>
       </c>
     </row>
     <row r="90">
@@ -1562,13 +1562,13 @@
         <v>-0.25215277075767517</v>
       </c>
       <c r="C90" s="2">
-        <v>-0.42316350340843201</v>
+        <v>-0.42252376675605774</v>
       </c>
       <c r="D90" s="2">
         <v>-0.18715491890907288</v>
       </c>
       <c r="E90" s="2">
-        <v>-0.38097852468490601</v>
+        <v>-0.38046279549598694</v>
       </c>
     </row>
     <row r="91">
@@ -1579,13 +1579,13 @@
         <v>-0.099495157599449158</v>
       </c>
       <c r="C91" s="2">
-        <v>-0.20392496883869171</v>
+        <v>-0.20592226088047028</v>
       </c>
       <c r="D91" s="2">
         <v>-0.22937063872814179</v>
       </c>
       <c r="E91" s="2">
-        <v>-0.37571761012077332</v>
+        <v>-0.3746342658996582</v>
       </c>
     </row>
     <row r="92">
@@ -1596,13 +1596,13 @@
         <v>-0.58341974020004273</v>
       </c>
       <c r="C92" s="2">
-        <v>-0.75646573305130005</v>
+        <v>-0.75497949123382568</v>
       </c>
       <c r="D92" s="2">
         <v>-0.24346867203712463</v>
       </c>
       <c r="E92" s="2">
-        <v>-0.4009513258934021</v>
+        <v>-0.40066811442375183</v>
       </c>
     </row>
     <row r="93">
@@ -1613,13 +1613,13 @@
         <v>-0.06598401814699173</v>
       </c>
       <c r="C93" s="2">
-        <v>-0.25714889168739319</v>
+        <v>-0.25540173053741455</v>
       </c>
       <c r="D93" s="2">
         <v>-0.21950669586658478</v>
       </c>
       <c r="E93" s="2">
-        <v>-0.3738364577293396</v>
+        <v>-0.37337571382522583</v>
       </c>
     </row>
     <row r="94">
@@ -1630,13 +1630,13 @@
         <v>-0.15126897394657135</v>
       </c>
       <c r="C94" s="2">
-        <v>-0.44497880339622498</v>
+        <v>-0.45254454016685486</v>
       </c>
       <c r="D94" s="2">
         <v>-0.23843617737293244</v>
       </c>
       <c r="E94" s="2">
-        <v>-0.42056441307067871</v>
+        <v>-0.41908848285675049</v>
       </c>
     </row>
     <row r="95">
@@ -1647,13 +1647,13 @@
         <v>-0.1233910396695137</v>
       </c>
       <c r="C95" s="2">
-        <v>-0.073804199695587158</v>
+        <v>-0.06263008713722229</v>
       </c>
       <c r="D95" s="2">
         <v>-0.12063248455524445</v>
       </c>
       <c r="E95" s="2">
-        <v>-0.32112652063369751</v>
+        <v>-0.31941536068916321</v>
       </c>
     </row>
     <row r="96">
@@ -1664,13 +1664,13 @@
         <v>-0.43237602710723877</v>
       </c>
       <c r="C96" s="2">
-        <v>-0.75427991151809692</v>
+        <v>-0.75378257036209106</v>
       </c>
       <c r="D96" s="2">
         <v>-0.091354772448539734</v>
       </c>
       <c r="E96" s="2">
-        <v>-0.32158094644546509</v>
+        <v>-0.3185957670211792</v>
       </c>
     </row>
     <row r="97">
@@ -1681,13 +1681,13 @@
         <v>-0.2967713475227356</v>
       </c>
       <c r="C97" s="2">
-        <v>-0.44965478777885437</v>
+        <v>-0.45050317049026489</v>
       </c>
       <c r="D97" s="2">
         <v>-0.079557500779628754</v>
       </c>
       <c r="E97" s="2">
-        <v>-0.31183415651321411</v>
+        <v>-0.30902945995330811</v>
       </c>
     </row>
     <row r="98">
@@ -1698,13 +1698,13 @@
         <v>-0.14106658101081848</v>
       </c>
       <c r="C98" s="2">
-        <v>-0.42165902256965637</v>
+        <v>-0.41350874304771423</v>
       </c>
       <c r="D98" s="2">
         <v>-0.0394136942923069</v>
       </c>
       <c r="E98" s="2">
-        <v>-0.29100161790847778</v>
+        <v>-0.28942009806632996</v>
       </c>
     </row>
     <row r="99">
@@ -1715,13 +1715,13 @@
         <v>0.80808055400848389</v>
       </c>
       <c r="C99" s="2">
-        <v>0.47177776694297791</v>
+        <v>0.47453442215919495</v>
       </c>
       <c r="D99" s="2">
         <v>-0.06220351904630661</v>
       </c>
       <c r="E99" s="2">
-        <v>-0.30408036708831787</v>
+        <v>-0.30194306373596192</v>
       </c>
     </row>
     <row r="100">
@@ -1732,13 +1732,13 @@
         <v>0.16400422155857086</v>
       </c>
       <c r="C100" s="2">
-        <v>-0.2080150693655014</v>
+        <v>-0.19854606688022614</v>
       </c>
       <c r="D100" s="2">
         <v>-0.074212342500686646</v>
       </c>
       <c r="E100" s="2">
-        <v>-0.35568642616271973</v>
+        <v>-0.35501095652580261</v>
       </c>
     </row>
     <row r="101">
@@ -1749,13 +1749,13 @@
         <v>-0.47724428772926331</v>
       </c>
       <c r="C101" s="2">
-        <v>-0.66874438524246216</v>
+        <v>-0.66888254880905151</v>
       </c>
       <c r="D101" s="2">
         <v>-0.10567409545183182</v>
       </c>
       <c r="E101" s="2">
-        <v>-0.3796505331993103</v>
+        <v>-0.37973794341087341</v>
       </c>
     </row>
     <row r="102">
@@ -1766,13 +1766,13 @@
         <v>0.29531022906303406</v>
       </c>
       <c r="C102" s="2">
-        <v>-0.069656237959861755</v>
+        <v>-0.078917644917964935</v>
       </c>
       <c r="D102" s="2">
         <v>-0.055531982332468033</v>
       </c>
       <c r="E102" s="2">
-        <v>-0.33342543244361877</v>
+        <v>-0.33297756314277649</v>
       </c>
     </row>
     <row r="103">
@@ -1783,13 +1783,13 @@
         <v>-0.35637739300727844</v>
       </c>
       <c r="C103" s="2">
-        <v>-0.56268751621246338</v>
+        <v>-0.56525105237960815</v>
       </c>
       <c r="D103" s="2">
         <v>0.016286512836813927</v>
       </c>
       <c r="E103" s="2">
-        <v>-0.25815257430076599</v>
+        <v>-0.25974056124687195</v>
       </c>
     </row>
     <row r="104">
@@ -1800,13 +1800,13 @@
         <v>-0.23147046566009521</v>
       </c>
       <c r="C104" s="2">
-        <v>-0.53825879096984863</v>
+        <v>-0.5402413010597229</v>
       </c>
       <c r="D104" s="2">
         <v>-0.16860204935073853</v>
       </c>
       <c r="E104" s="2">
-        <v>-0.43679231405258179</v>
+        <v>-0.438121497631073</v>
       </c>
     </row>
     <row r="105">
@@ -1817,13 +1817,13 @@
         <v>-0.71553176641464233</v>
       </c>
       <c r="C105" s="2">
-        <v>-0.96995663642883301</v>
+        <v>-0.97632527351379395</v>
       </c>
       <c r="D105" s="2">
         <v>-0.15435120463371277</v>
       </c>
       <c r="E105" s="2">
-        <v>-0.40378278493881226</v>
+        <v>-0.40659651160240173</v>
       </c>
     </row>
     <row r="106">
@@ -1834,13 +1834,13 @@
         <v>0.15450765192508698</v>
       </c>
       <c r="C106" s="2">
-        <v>-0.033628903329372406</v>
+        <v>-0.029659932479262352</v>
       </c>
       <c r="D106" s="2">
         <v>-0.063373111188411713</v>
       </c>
       <c r="E106" s="2">
-        <v>-0.30382043123245239</v>
+        <v>-0.30608808994293213</v>
       </c>
     </row>
     <row r="107">
@@ -1851,13 +1851,13 @@
         <v>0.50529986619949341</v>
       </c>
       <c r="C107" s="2">
-        <v>0.25579649209976196</v>
+        <v>0.24562431871891022</v>
       </c>
       <c r="D107" s="2">
         <v>-0.089116953313350678</v>
       </c>
       <c r="E107" s="2">
-        <v>-0.2901710569858551</v>
+        <v>-0.291688472032547</v>
       </c>
     </row>
     <row r="108">
@@ -1868,13 +1868,13 @@
         <v>-0.85591655969619751</v>
       </c>
       <c r="C108" s="2">
-        <v>-1.1359796524047852</v>
+        <v>-1.1308939456939697</v>
       </c>
       <c r="D108" s="2">
         <v>-0.08382522314786911</v>
       </c>
       <c r="E108" s="2">
-        <v>-0.27497580647468567</v>
+        <v>-0.27645149827003479</v>
       </c>
     </row>
     <row r="109">
@@ -1885,13 +1885,13 @@
         <v>0.29226183891296387</v>
       </c>
       <c r="C109" s="2">
-        <v>0.089070551097393036</v>
+        <v>0.085178889334201813</v>
       </c>
       <c r="D109" s="2">
         <v>-0.19660459458827972</v>
       </c>
       <c r="E109" s="2">
-        <v>-0.36351269483566284</v>
+        <v>-0.36577138304710388</v>
       </c>
     </row>
     <row r="110">
@@ -1902,13 +1902,13 @@
         <v>0.34155860543251038</v>
       </c>
       <c r="C110" s="2">
-        <v>0.23091693222522736</v>
+        <v>0.23569321632385254</v>
       </c>
       <c r="D110" s="2">
         <v>-0.22061219811439514</v>
       </c>
       <c r="E110" s="2">
-        <v>-0.38118058443069458</v>
+        <v>-0.38262176513671875</v>
       </c>
     </row>
     <row r="111">
@@ -1919,13 +1919,13 @@
         <v>0.06361563503742218</v>
       </c>
       <c r="C111" s="2">
-        <v>0.053187891840934753</v>
+        <v>0.050678875297307968</v>
       </c>
       <c r="D111" s="2">
         <v>-0.32563570141792297</v>
       </c>
       <c r="E111" s="2">
-        <v>-0.46645256876945496</v>
+        <v>-0.46842068433761597</v>
       </c>
     </row>
     <row r="112">
@@ -1936,13 +1936,13 @@
         <v>-0.30875179171562195</v>
       </c>
       <c r="C112" s="2">
-        <v>-0.42593023180961609</v>
+        <v>-0.42811840772628784</v>
       </c>
       <c r="D112" s="2">
         <v>-0.48997443914413452</v>
       </c>
       <c r="E112" s="2">
-        <v>-0.61810809373855591</v>
+        <v>-0.6189071536064148</v>
       </c>
     </row>
     <row r="113">
@@ -1953,13 +1953,13 @@
         <v>-1.2464848756790161</v>
       </c>
       <c r="C113" s="2">
-        <v>-1.3350906372070313</v>
+        <v>-1.3441202640533447</v>
       </c>
       <c r="D113" s="2">
         <v>-0.45804888010025024</v>
       </c>
       <c r="E113" s="2">
-        <v>-0.5772932767868042</v>
+        <v>-0.57820647954940796</v>
       </c>
     </row>
     <row r="114">
@@ -1970,13 +1970,13 @@
         <v>-0.93160015344619751</v>
       </c>
       <c r="C114" s="2">
-        <v>-1.1289677619934082</v>
+        <v>-1.1279785633087158</v>
       </c>
       <c r="D114" s="2">
         <v>-0.58391422033309937</v>
       </c>
       <c r="E114" s="2">
-        <v>-0.6916462779045105</v>
+        <v>-0.69190341234207153</v>
       </c>
     </row>
     <row r="115">
@@ -1987,13 +1987,13 @@
         <v>-0.79070389270782471</v>
       </c>
       <c r="C115" s="2">
-        <v>-0.80107665061950684</v>
+        <v>-0.80185019969940186</v>
       </c>
       <c r="D115" s="2">
         <v>-0.60402911901473999</v>
       </c>
       <c r="E115" s="2">
-        <v>-0.69491451978683472</v>
+        <v>-0.69555079936981201</v>
       </c>
     </row>
     <row r="116">
@@ -2004,13 +2004,13 @@
         <v>-0.97374874353408814</v>
       </c>
       <c r="C116" s="2">
-        <v>-1.1091032028198242</v>
+        <v>-1.1087538003921509</v>
       </c>
       <c r="D116" s="2">
         <v>-0.63690668344497681</v>
       </c>
       <c r="E116" s="2">
-        <v>-0.7344595193862915</v>
+        <v>-0.73393779993057251</v>
       </c>
     </row>
     <row r="117">
@@ -2021,13 +2021,13 @@
         <v>-0.56858664751052857</v>
       </c>
       <c r="C117" s="2">
-        <v>-0.76864629983901978</v>
+        <v>-0.76458781957626343</v>
       </c>
       <c r="D117" s="2">
         <v>-0.61852693557739258</v>
       </c>
       <c r="E117" s="2">
-        <v>-0.71740430593490601</v>
+        <v>-0.71677196025848389</v>
       </c>
     </row>
     <row r="118">
@@ -2038,13 +2038,13 @@
         <v>-0.8405260443687439</v>
       </c>
       <c r="C118" s="2">
-        <v>-0.94010639190673828</v>
+        <v>-0.93809378147125244</v>
       </c>
       <c r="D118" s="2">
         <v>-0.5726659893989563</v>
       </c>
       <c r="E118" s="2">
-        <v>-0.66856920719146729</v>
+        <v>-0.6672443151473999</v>
       </c>
     </row>
     <row r="119">
@@ -2055,13 +2055,13 @@
         <v>0.16052468121051788</v>
       </c>
       <c r="C119" s="2">
-        <v>0.20150277018547058</v>
+        <v>0.20286667346954346</v>
       </c>
       <c r="D119" s="2">
         <v>-0.54333215951919556</v>
       </c>
       <c r="E119" s="2">
-        <v>-0.64214664697647095</v>
+        <v>-0.63964581489562988</v>
       </c>
     </row>
     <row r="120">
@@ -2072,13 +2072,13 @@
         <v>-0.2322828620672226</v>
       </c>
       <c r="C120" s="2">
-        <v>-0.30271750688552857</v>
+        <v>-0.29480385780334473</v>
       </c>
       <c r="D120" s="2">
         <v>-0.53246229887008667</v>
       </c>
       <c r="E120" s="2">
-        <v>-0.64556884765625</v>
+        <v>-0.64341259002685547</v>
       </c>
     </row>
     <row r="121">
@@ -2089,13 +2089,13 @@
         <v>-0.14333407580852509</v>
       </c>
       <c r="C121" s="2">
-        <v>-0.27243328094482422</v>
+        <v>-0.27362611889839172</v>
       </c>
       <c r="D121" s="2">
         <v>-0.53456318378448486</v>
       </c>
       <c r="E121" s="2">
-        <v>-0.66033971309661865</v>
+        <v>-0.65761208534240723</v>
       </c>
     </row>
     <row r="122">
@@ -2106,13 +2106,13 @@
         <v>-0.83373624086380005</v>
       </c>
       <c r="C122" s="2">
-        <v>-0.89557427167892456</v>
+        <v>-0.89837127923965454</v>
       </c>
       <c r="D122" s="2">
         <v>-0.50244688987731934</v>
       </c>
       <c r="E122" s="2">
-        <v>-0.64453893899917603</v>
+        <v>-0.64169484376907349</v>
       </c>
     </row>
     <row r="123">
@@ -2123,13 +2123,13 @@
         <v>-0.66759538650512695</v>
       </c>
       <c r="C123" s="2">
-        <v>-0.89116507768630981</v>
+        <v>-0.87959188222885132</v>
       </c>
       <c r="D123" s="2">
         <v>-0.43224349617958069</v>
       </c>
       <c r="E123" s="2">
-        <v>-0.59894311428070068</v>
+        <v>-0.594951331615448</v>
       </c>
     </row>
     <row r="124">
@@ -2140,13 +2140,13 @@
         <v>-0.6928754448890686</v>
       </c>
       <c r="C124" s="2">
-        <v>-0.83187609910964966</v>
+        <v>-0.83575129508972168</v>
       </c>
       <c r="D124" s="2">
         <v>-0.46384522318840027</v>
       </c>
       <c r="E124" s="2">
-        <v>-0.65784531831741333</v>
+        <v>-0.65522688627243042</v>
       </c>
     </row>
     <row r="125">
@@ -2157,13 +2157,13 @@
         <v>-0.99265658855438233</v>
       </c>
       <c r="C125" s="2">
-        <v>-1.2420414686203003</v>
+        <v>-1.2365491390228272</v>
       </c>
       <c r="D125" s="2">
         <v>-0.42486768960952759</v>
       </c>
       <c r="E125" s="2">
-        <v>-0.65045130252838135</v>
+        <v>-0.64985775947570801</v>
       </c>
     </row>
     <row r="126">
@@ -2174,13 +2174,13 @@
         <v>-0.2795403003692627</v>
       </c>
       <c r="C126" s="2">
-        <v>-0.62643915414810181</v>
+        <v>-0.62133294343948364</v>
       </c>
       <c r="D126" s="2">
         <v>-0.41055825352668762</v>
       </c>
       <c r="E126" s="2">
-        <v>-0.65910720825195313</v>
+        <v>-0.65901565551757813</v>
       </c>
     </row>
     <row r="127">
@@ -2191,13 +2191,13 @@
         <v>-0.20869520306587219</v>
       </c>
       <c r="C127" s="2">
-        <v>-0.52974385023117065</v>
+        <v>-0.51740223169326782</v>
       </c>
       <c r="D127" s="2">
-        <v>-0.35766100883483887</v>
+        <v>-0.37319645285606384</v>
       </c>
       <c r="E127" s="2">
-        <v>-0.62954884767532349</v>
+        <v>-0.65501141548156738</v>
       </c>
     </row>
     <row r="128">
@@ -2208,13 +2208,13 @@
         <v>-0.1238909438252449</v>
       </c>
       <c r="C128" s="2">
-        <v>-0.32861733436584473</v>
+        <v>-0.33961322903633118</v>
       </c>
       <c r="D128" s="2">
-        <v>-0.31338468194007874</v>
+        <v>-0.38565275073051453</v>
       </c>
       <c r="E128" s="2">
-        <v>-0.59217506647109985</v>
+        <v>-0.66244286298751831</v>
       </c>
     </row>
     <row r="129">
@@ -2225,13 +2225,13 @@
         <v>0.11851492524147034</v>
       </c>
       <c r="C129" s="2">
-        <v>-0.2361711859703064</v>
+        <v>-0.24648170173168182</v>
       </c>
       <c r="D129" s="2">
-        <v>-0.25013622641563416</v>
+        <v>-0.3713735044002533</v>
       </c>
       <c r="E129" s="2">
-        <v>-0.55222493410110474</v>
+        <v>-0.64866030216217041</v>
       </c>
     </row>
     <row r="130">
@@ -2242,86 +2242,150 @@
         <v>-0.014549159444868565</v>
       </c>
       <c r="C130" s="2">
-        <v>-0.35033655166625977</v>
+        <v>-0.35604721307754517</v>
       </c>
       <c r="D130" s="2">
-        <v>-0.10163213312625885</v>
+        <v>-0.3302956223487854</v>
       </c>
       <c r="E130" s="2">
-        <v>-0.41426160931587219</v>
+        <v>-0.62521839141845703</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1">
         <v>45200</v>
       </c>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
+      <c r="B131" s="2">
+        <v>-0.49747994542121887</v>
+      </c>
+      <c r="C131" s="2">
+        <v>-0.86233294010162354</v>
+      </c>
+      <c r="D131" s="2">
+        <v>-0.2482590526342392</v>
+      </c>
+      <c r="E131" s="2">
+        <v>-0.53311097621917725</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1">
         <v>45231</v>
       </c>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
+      <c r="B132" s="2">
+        <v>-0.77970212697982788</v>
+      </c>
+      <c r="C132" s="2">
+        <v>-0.94647508859634399</v>
+      </c>
+      <c r="D132" s="2">
+        <v>-0.28857755661010742</v>
+      </c>
+      <c r="E132" s="2">
+        <v>-0.55887335538864136</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1">
         <v>45261</v>
       </c>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
+      <c r="B133" s="2">
+        <v>-0.5643622875213623</v>
+      </c>
+      <c r="C133" s="2">
+        <v>-0.71170836687088013</v>
+      </c>
+      <c r="D133" s="2">
+        <v>-0.31260773539543152</v>
+      </c>
+      <c r="E133" s="2">
+        <v>-0.58257752656936646</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1">
         <v>45292</v>
       </c>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
+      <c r="B134" s="2">
+        <v>-0.62295544147491455</v>
+      </c>
+      <c r="C134" s="2">
+        <v>-1.0255715847015381</v>
+      </c>
+      <c r="D134" s="2">
+        <v>-0.35904130339622498</v>
+      </c>
+      <c r="E134" s="2">
+        <v>-0.59848195314407349</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1">
         <v>45323</v>
       </c>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
+      <c r="B135" s="2">
+        <v>0.45878866314888</v>
+      </c>
+      <c r="C135" s="2">
+        <v>0.20763330161571503</v>
+      </c>
+      <c r="D135" s="2">
+        <v>-0.40210282802581787</v>
+      </c>
+      <c r="E135" s="2">
+        <v>-0.62878632545471192</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1">
         <v>45352</v>
       </c>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
+      <c r="B136" s="2">
+        <v>-0.57156169414520264</v>
+      </c>
+      <c r="C136" s="2">
+        <v>-0.7492634654045105</v>
+      </c>
+      <c r="D136" s="2">
+        <v>-0.38847753405570984</v>
+      </c>
+      <c r="E136" s="2">
+        <v>-0.59542250633239746</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1">
         <v>45383</v>
       </c>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
+      <c r="B137" s="2">
+        <v>-0.34016242623329163</v>
+      </c>
+      <c r="C137" s="2">
+        <v>-0.55295062065124512</v>
+      </c>
+      <c r="D137" s="2">
+        <v>-0.32327342033386231</v>
+      </c>
+      <c r="E137" s="2">
+        <v>-0.53691375255584717</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1">
         <v>45413</v>
       </c>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
+      <c r="B138" s="2">
+        <v>-0.29938742518424988</v>
+      </c>
+      <c r="C138" s="2">
+        <v>-0.38962170481681824</v>
+      </c>
+      <c r="D138" s="2">
+        <v>-0.27505567669868469</v>
+      </c>
+      <c r="E138" s="2">
+        <v>-0.50195479393005371</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1">
@@ -2350,6 +2414,60 @@
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
     </row>
+    <row r="142">
+      <c r="A142" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/SCE_skewness.xlsx
+++ b/SCE_skewness.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E147"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -151,13 +151,13 @@
         <v>0.75467979907989502</v>
       </c>
       <c r="C7" s="2">
-        <v>0.37200570106506348</v>
+        <v>0.37337955832481384</v>
       </c>
       <c r="D7" s="2">
         <v>0.30358356237411499</v>
       </c>
       <c r="E7" s="2">
-        <v>0.025048216804862022</v>
+        <v>0.02568526566028595</v>
       </c>
     </row>
     <row r="8">
@@ -168,13 +168,13 @@
         <v>0.45104503631591797</v>
       </c>
       <c r="C8" s="2">
-        <v>0.18915952742099762</v>
+        <v>0.18892766535282135</v>
       </c>
       <c r="D8" s="2">
         <v>0.10388252884149551</v>
       </c>
       <c r="E8" s="2">
-        <v>-0.16478277742862701</v>
+        <v>-0.16413420438766479</v>
       </c>
     </row>
     <row r="9">
@@ -185,13 +185,13 @@
         <v>0.52031427621841431</v>
       </c>
       <c r="C9" s="2">
-        <v>0.22635224461555481</v>
+        <v>0.2265809178352356</v>
       </c>
       <c r="D9" s="2">
         <v>0.10086610168218613</v>
       </c>
       <c r="E9" s="2">
-        <v>-0.18906256556510925</v>
+        <v>-0.18826974928379059</v>
       </c>
     </row>
     <row r="10">
@@ -202,13 +202,13 @@
         <v>-0.22879557311534882</v>
       </c>
       <c r="C10" s="2">
-        <v>-0.30987605452537537</v>
+        <v>-0.30928468704223633</v>
       </c>
       <c r="D10" s="2">
         <v>0.15720002353191376</v>
       </c>
       <c r="E10" s="2">
-        <v>-0.13653907179832459</v>
+        <v>-0.13564604520797729</v>
       </c>
     </row>
     <row r="11">
@@ -219,13 +219,13 @@
         <v>0.020674310624599457</v>
       </c>
       <c r="C11" s="2">
-        <v>-0.35240033268928528</v>
+        <v>-0.35117712616920471</v>
       </c>
       <c r="D11" s="2">
         <v>0.11538553237915039</v>
       </c>
       <c r="E11" s="2">
-        <v>-0.1924184113740921</v>
+        <v>-0.19134916365146637</v>
       </c>
     </row>
     <row r="12">
@@ -236,13 +236,13 @@
         <v>-0.89462268352508545</v>
       </c>
       <c r="C12" s="2">
-        <v>-1.1139377355575562</v>
+        <v>-1.1132315397262573</v>
       </c>
       <c r="D12" s="2">
         <v>0.030098624527454376</v>
       </c>
       <c r="E12" s="2">
-        <v>-0.26211622357368469</v>
+        <v>-0.26107761263847351</v>
       </c>
     </row>
     <row r="13">
@@ -253,13 +253,13 @@
         <v>0.082767561078071594</v>
       </c>
       <c r="C13" s="2">
-        <v>-0.33474135398864746</v>
+        <v>-0.33308303356170654</v>
       </c>
       <c r="D13" s="2">
         <v>-0.13790342211723328</v>
       </c>
       <c r="E13" s="2">
-        <v>-0.44298210740089417</v>
+        <v>-0.44181504845619202</v>
       </c>
     </row>
     <row r="14">
@@ -270,13 +270,13 @@
         <v>0.55153751373291016</v>
       </c>
       <c r="C14" s="2">
-        <v>0.23112541437149048</v>
+        <v>0.23271985352039337</v>
       </c>
       <c r="D14" s="2">
         <v>-0.136473149061203</v>
       </c>
       <c r="E14" s="2">
-        <v>-0.434907466173172</v>
+        <v>-0.43374499678611755</v>
       </c>
     </row>
     <row r="15">
@@ -287,13 +287,13 @@
         <v>-0.21913042664527893</v>
       </c>
       <c r="C15" s="2">
-        <v>-0.63945305347442627</v>
+        <v>-0.636974036693573</v>
       </c>
       <c r="D15" s="2">
         <v>-0.18043906986713409</v>
       </c>
       <c r="E15" s="2">
-        <v>-0.51401138305664063</v>
+        <v>-0.51276034116744995</v>
       </c>
     </row>
     <row r="16">
@@ -304,13 +304,13 @@
         <v>-0.012902386486530304</v>
       </c>
       <c r="C16" s="2">
-        <v>-0.25527474284172058</v>
+        <v>-0.25417646765708923</v>
       </c>
       <c r="D16" s="2">
         <v>-0.19662326574325562</v>
       </c>
       <c r="E16" s="2">
-        <v>-0.51837706565856934</v>
+        <v>-0.51716363430023193</v>
       </c>
     </row>
     <row r="17">
@@ -321,13 +321,13 @@
         <v>-1.0609734058380127</v>
       </c>
       <c r="C17" s="2">
-        <v>-1.4386333227157593</v>
+        <v>-1.4377092123031616</v>
       </c>
       <c r="D17" s="2">
-        <v>-0.14019788801670075</v>
+        <v>-0.14019788801670074</v>
       </c>
       <c r="E17" s="2">
-        <v>-0.49430415034294129</v>
+        <v>-0.49307277798652649</v>
       </c>
     </row>
     <row r="18">
@@ -338,13 +338,13 @@
         <v>0.53318673372268677</v>
       </c>
       <c r="C18" s="2">
-        <v>0.29902410507202149</v>
+        <v>0.29921138286590576</v>
       </c>
       <c r="D18" s="2">
         <v>-0.16055162250995636</v>
       </c>
       <c r="E18" s="2">
-        <v>-0.49616736173629761</v>
+        <v>-0.49475118517875671</v>
       </c>
     </row>
     <row r="19">
@@ -355,13 +355,13 @@
         <v>-0.62448883056640625</v>
       </c>
       <c r="C19" s="2">
-        <v>-1.0218113660812378</v>
+        <v>-1.0204226970672607</v>
       </c>
       <c r="D19" s="2">
         <v>-0.25215312838554382</v>
       </c>
       <c r="E19" s="2">
-        <v>-0.59646916389465332</v>
+        <v>-0.59468656778335571</v>
       </c>
     </row>
     <row r="20">
@@ -372,13 +372,13 @@
         <v>-0.12498348951339722</v>
       </c>
       <c r="C20" s="2">
-        <v>-0.39169168472290039</v>
+        <v>-0.39080685377120972</v>
       </c>
       <c r="D20" s="2">
         <v>-0.22514151036739349</v>
       </c>
       <c r="E20" s="2">
-        <v>-0.54054445028305054</v>
+        <v>-0.5390288233757019</v>
       </c>
     </row>
     <row r="21">
@@ -389,13 +389,13 @@
         <v>-0.38679426908493042</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.89728134870529175</v>
+        <v>-0.89641386270523071</v>
       </c>
       <c r="D21" s="2">
         <v>-0.27614706754684448</v>
       </c>
       <c r="E21" s="2">
-        <v>-0.5943150520324707</v>
+        <v>-0.59278202056884766</v>
       </c>
     </row>
     <row r="22">
@@ -406,13 +406,13 @@
         <v>-0.10041602700948715</v>
       </c>
       <c r="C22" s="2">
-        <v>-0.35151016712188721</v>
+        <v>-0.34818866848945618</v>
       </c>
       <c r="D22" s="2">
         <v>-0.2092270702123642</v>
       </c>
       <c r="E22" s="2">
-        <v>-0.5029137134552002</v>
+        <v>-0.50142329931259155</v>
       </c>
     </row>
     <row r="23">
@@ -423,13 +423,13 @@
         <v>-0.27287611365318298</v>
       </c>
       <c r="C23" s="2">
-        <v>-0.67159104347229004</v>
+        <v>-0.66669869422912598</v>
       </c>
       <c r="D23" s="2">
         <v>-0.29087939858436584</v>
       </c>
       <c r="E23" s="2">
-        <v>-0.58597272634506226</v>
+        <v>-0.58444178104400635</v>
       </c>
     </row>
     <row r="24">
@@ -440,13 +440,13 @@
         <v>0.023974135518074036</v>
       </c>
       <c r="C24" s="2">
-        <v>-0.13613028824329376</v>
+        <v>-0.13605433702468872</v>
       </c>
       <c r="D24" s="2">
         <v>-0.24808692932128906</v>
       </c>
       <c r="E24" s="2">
-        <v>-0.54083973169326782</v>
+        <v>-0.53903239965438843</v>
       </c>
     </row>
     <row r="25">
@@ -457,13 +457,13 @@
         <v>-0.4719524085521698</v>
       </c>
       <c r="C25" s="2">
-        <v>-0.73921036720275879</v>
+        <v>-0.73795551061630249</v>
       </c>
       <c r="D25" s="2">
         <v>-0.31977397203445435</v>
       </c>
       <c r="E25" s="2">
-        <v>-0.613711416721344</v>
+        <v>-0.61176478862762451</v>
       </c>
     </row>
     <row r="26">
@@ -474,13 +474,13 @@
         <v>-0.45869335532188416</v>
       </c>
       <c r="C26" s="2">
-        <v>-0.61602151393890381</v>
+        <v>-0.61548060178756714</v>
       </c>
       <c r="D26" s="2">
         <v>-0.21627253293991089</v>
       </c>
       <c r="E26" s="2">
-        <v>-0.47844904661178589</v>
+        <v>-0.47655096650123596</v>
       </c>
     </row>
     <row r="27">
@@ -491,13 +491,13 @@
         <v>-0.2016841322183609</v>
       </c>
       <c r="C27" s="2">
-        <v>-0.44850650429725647</v>
+        <v>-0.44795498251914978</v>
       </c>
       <c r="D27" s="2">
         <v>-0.15139244496822357</v>
       </c>
       <c r="E27" s="2">
-        <v>-0.41033411026000977</v>
+        <v>-0.40867984294891357</v>
       </c>
     </row>
     <row r="28">
@@ -508,13 +508,13 @@
         <v>-0.23935668170452118</v>
       </c>
       <c r="C28" s="2">
-        <v>-0.61561489105224609</v>
+        <v>-0.61173796653747559</v>
       </c>
       <c r="D28" s="2">
         <v>-0.093287214636802673</v>
       </c>
       <c r="E28" s="2">
-        <v>-0.3372471034526825</v>
+        <v>-0.33605358004570007</v>
       </c>
     </row>
     <row r="29">
@@ -525,13 +525,13 @@
         <v>-0.77016687393188477</v>
       </c>
       <c r="C29" s="2">
-        <v>-1.0475363731384277</v>
+        <v>-1.0453985929489136</v>
       </c>
       <c r="D29" s="2">
         <v>-0.1603572815656662</v>
       </c>
       <c r="E29" s="2">
-        <v>-0.40931633114814758</v>
+        <v>-0.40825349092483521</v>
       </c>
     </row>
     <row r="30">
@@ -542,13 +542,13 @@
         <v>0.54471868276596069</v>
       </c>
       <c r="C30" s="2">
-        <v>0.32007983326911926</v>
+        <v>0.32051053643226624</v>
       </c>
       <c r="D30" s="2">
         <v>-0.097807548940181732</v>
       </c>
       <c r="E30" s="2">
-        <v>-0.34280210733413696</v>
+        <v>-0.3416256308555603</v>
       </c>
     </row>
     <row r="31">
@@ -559,13 +559,13 @@
         <v>0.48350468277931213</v>
       </c>
       <c r="C31" s="2">
-        <v>0.26152420043945313</v>
+        <v>0.26265150308609009</v>
       </c>
       <c r="D31" s="2">
         <v>-0.10886616259813309</v>
       </c>
       <c r="E31" s="2">
-        <v>-0.37974521517753601</v>
+        <v>-0.37845537066459656</v>
       </c>
     </row>
     <row r="32">
@@ -576,13 +576,13 @@
         <v>0.25007104873657227</v>
       </c>
       <c r="C32" s="2">
-        <v>-0.013807973824441433</v>
+        <v>-0.013062305748462677</v>
       </c>
       <c r="D32" s="2">
         <v>-0.21468514204025269</v>
       </c>
       <c r="E32" s="2">
-        <v>-0.50347042083740234</v>
+        <v>-0.50190573930740356</v>
       </c>
     </row>
     <row r="33">
@@ -593,13 +593,13 @@
         <v>-0.57965648174285889</v>
       </c>
       <c r="C33" s="2">
-        <v>-0.78475332260131836</v>
+        <v>-0.78585362434387207</v>
       </c>
       <c r="D33" s="2">
         <v>-0.1857101172208786</v>
       </c>
       <c r="E33" s="2">
-        <v>-0.46545779705047608</v>
+        <v>-0.46395048499107361</v>
       </c>
     </row>
     <row r="34">
@@ -610,13 +610,13 @@
         <v>0.090995185077190399</v>
       </c>
       <c r="C34" s="2">
-        <v>-0.14058233797550202</v>
+        <v>-0.13830468058586121</v>
       </c>
       <c r="D34" s="2">
         <v>-0.086152300238609314</v>
       </c>
       <c r="E34" s="2">
-        <v>-0.35645213723182678</v>
+        <v>-0.35510843992233276</v>
       </c>
     </row>
     <row r="35">
@@ -627,13 +627,13 @@
         <v>-0.55822086334228516</v>
       </c>
       <c r="C35" s="2">
-        <v>-0.94850963354110718</v>
+        <v>-0.94694817066192627</v>
       </c>
       <c r="D35" s="2">
         <v>-0.11454352736473083</v>
       </c>
       <c r="E35" s="2">
-        <v>-0.38945770263671875</v>
+        <v>-0.38788989186286926</v>
       </c>
     </row>
     <row r="36">
@@ -644,13 +644,13 @@
         <v>-1.1540549993515015</v>
       </c>
       <c r="C36" s="2">
-        <v>-1.5620331764221191</v>
+        <v>-1.5590084791183472</v>
       </c>
       <c r="D36" s="2">
         <v>-0.17915503680706024</v>
       </c>
       <c r="E36" s="2">
-        <v>-0.44927936792373657</v>
+        <v>-0.44776847958564758</v>
       </c>
     </row>
     <row r="37">
@@ -661,13 +661,13 @@
         <v>0.021418565884232521</v>
       </c>
       <c r="C37" s="2">
-        <v>-0.27350151538848877</v>
+        <v>-0.27014046907424927</v>
       </c>
       <c r="D37" s="2">
         <v>-0.1833871603012085</v>
       </c>
       <c r="E37" s="2">
-        <v>-0.45218956470489502</v>
+        <v>-0.45036318898200989</v>
       </c>
     </row>
     <row r="38">
@@ -678,13 +678,13 @@
         <v>0.12585350871086121</v>
       </c>
       <c r="C38" s="2">
-        <v>-0.06648533046245575</v>
+        <v>-0.065820306539535522</v>
       </c>
       <c r="D38" s="2">
         <v>-0.19518217444419861</v>
       </c>
       <c r="E38" s="2">
-        <v>-0.50372898578643799</v>
+        <v>-0.50150567293167114</v>
       </c>
     </row>
     <row r="39">
@@ -695,13 +695,13 @@
         <v>0.28919762372970581</v>
       </c>
       <c r="C39" s="2">
-        <v>0.023029768839478493</v>
+        <v>0.025477409362792969</v>
       </c>
       <c r="D39" s="2">
         <v>-0.15041124820709229</v>
       </c>
       <c r="E39" s="2">
-        <v>-0.43104991316795349</v>
+        <v>-0.42923125624656677</v>
       </c>
     </row>
     <row r="40">
@@ -712,13 +712,13 @@
         <v>-0.097998887300491333</v>
       </c>
       <c r="C40" s="2">
-        <v>-0.27687084674835205</v>
+        <v>-0.27625578641891479</v>
       </c>
       <c r="D40" s="2">
         <v>-0.075663968920707703</v>
       </c>
       <c r="E40" s="2">
-        <v>-0.3672834038734436</v>
+        <v>-0.365407794713974</v>
       </c>
     </row>
     <row r="41">
@@ -729,13 +729,13 @@
         <v>0.21198192238807678</v>
       </c>
       <c r="C41" s="2">
-        <v>-0.039999600499868393</v>
+        <v>-0.036414600908756256</v>
       </c>
       <c r="D41" s="2">
         <v>0.0076738409698009491</v>
       </c>
       <c r="E41" s="2">
-        <v>-0.27140545845031738</v>
+        <v>-0.26977312564849854</v>
       </c>
     </row>
     <row r="42">
@@ -746,13 +746,13 @@
         <v>-0.68581163883209229</v>
       </c>
       <c r="C42" s="2">
-        <v>-1.2486083507537842</v>
+        <v>-1.2461357116699219</v>
       </c>
       <c r="D42" s="2">
         <v>0.037948276847600937</v>
       </c>
       <c r="E42" s="2">
-        <v>-0.24335289001464844</v>
+        <v>-0.24209095537662506</v>
       </c>
     </row>
     <row r="43">
@@ -763,13 +763,13 @@
         <v>0.49393346905708313</v>
       </c>
       <c r="C43" s="2">
-        <v>0.51352959871292114</v>
+        <v>0.51216477155685425</v>
       </c>
       <c r="D43" s="2">
         <v>0.027599811553955078</v>
       </c>
       <c r="E43" s="2">
-        <v>-0.2787577211856842</v>
+        <v>-0.27720198035240173</v>
       </c>
     </row>
     <row r="44">
@@ -780,13 +780,13 @@
         <v>0.11450470983982086</v>
       </c>
       <c r="C44" s="2">
-        <v>-0.37461128830909729</v>
+        <v>-0.37253689765930176</v>
       </c>
       <c r="D44" s="2">
         <v>-0.048547346144914627</v>
       </c>
       <c r="E44" s="2">
-        <v>-0.33070912957191467</v>
+        <v>-0.32933053374290466</v>
       </c>
     </row>
     <row r="45">
@@ -797,13 +797,13 @@
         <v>-0.4040147066116333</v>
       </c>
       <c r="C45" s="2">
-        <v>-0.69913148880004883</v>
+        <v>-0.69829648733139038</v>
       </c>
       <c r="D45" s="2">
         <v>-0.081148959696292877</v>
       </c>
       <c r="E45" s="2">
-        <v>-0.37189340591430664</v>
+        <v>-0.37052679061889648</v>
       </c>
     </row>
     <row r="46">
@@ -814,13 +814,13 @@
         <v>0.29388847947120667</v>
       </c>
       <c r="C46" s="2">
-        <v>-0.021028490737080574</v>
+        <v>-0.021000979468226433</v>
       </c>
       <c r="D46" s="2">
         <v>-0.1598929762840271</v>
       </c>
       <c r="E46" s="2">
-        <v>-0.44955509901046753</v>
+        <v>-0.44842860102653503</v>
       </c>
     </row>
     <row r="47">
@@ -831,13 +831,13 @@
         <v>0.032717324793338776</v>
       </c>
       <c r="C47" s="2">
-        <v>-0.38512867689132691</v>
+        <v>-0.38181942701339722</v>
       </c>
       <c r="D47" s="2">
         <v>-0.14775112271308899</v>
       </c>
       <c r="E47" s="2">
-        <v>-0.40285450220108032</v>
+        <v>-0.40203151106834412</v>
       </c>
     </row>
     <row r="48">
@@ -848,13 +848,13 @@
         <v>-0.39612677693367004</v>
       </c>
       <c r="C48" s="2">
-        <v>-0.44453302025794983</v>
+        <v>-0.44367972016334534</v>
       </c>
       <c r="D48" s="2">
         <v>-0.27623826265335083</v>
       </c>
       <c r="E48" s="2">
-        <v>-0.56455355882644653</v>
+        <v>-0.56342154741287231</v>
       </c>
     </row>
     <row r="49">
@@ -865,13 +865,13 @@
         <v>-0.39141345024108887</v>
       </c>
       <c r="C49" s="2">
-        <v>-0.64752942323684692</v>
+        <v>-0.64702218770980835</v>
       </c>
       <c r="D49" s="2">
         <v>-0.27205902338027954</v>
       </c>
       <c r="E49" s="2">
-        <v>-0.53854244947433472</v>
+        <v>-0.53750693798065186</v>
       </c>
     </row>
     <row r="50">
@@ -882,13 +882,13 @@
         <v>-0.49671423435211182</v>
       </c>
       <c r="C50" s="2">
-        <v>-0.73895466327667236</v>
+        <v>-0.73753088712692261</v>
       </c>
       <c r="D50" s="2">
         <v>-0.25660091638565063</v>
       </c>
       <c r="E50" s="2">
-        <v>-0.51527345180511475</v>
+        <v>-0.51418614387512207</v>
       </c>
     </row>
     <row r="51">
@@ -899,13 +899,13 @@
         <v>-0.57653486728668213</v>
       </c>
       <c r="C51" s="2">
-        <v>-0.82830315828323364</v>
+        <v>-0.82856184244155884</v>
       </c>
       <c r="D51" s="2">
         <v>-0.32184427976608276</v>
       </c>
       <c r="E51" s="2">
-        <v>-0.57670319080352783</v>
+        <v>-0.57549870014190674</v>
       </c>
     </row>
     <row r="52">
@@ -916,13 +916,13 @@
         <v>-0.66245073080062866</v>
       </c>
       <c r="C52" s="2">
-        <v>-0.94176161289215088</v>
+        <v>-0.94034546613693237</v>
       </c>
       <c r="D52" s="2">
         <v>-0.33927956223487854</v>
       </c>
       <c r="E52" s="2">
-        <v>-0.56709831953048706</v>
+        <v>-0.56610667705535889</v>
       </c>
     </row>
     <row r="53">
@@ -933,13 +933,13 @@
         <v>0.15211783349514008</v>
       </c>
       <c r="C53" s="2">
-        <v>-0.14051161706447601</v>
+        <v>-0.13930535316467285</v>
       </c>
       <c r="D53" s="2">
         <v>-0.35259756445884705</v>
       </c>
       <c r="E53" s="2">
-        <v>-0.61745589971542358</v>
+        <v>-0.61612677574157715</v>
       </c>
     </row>
     <row r="54">
@@ -950,13 +950,13 @@
         <v>-0.26489183306694031</v>
       </c>
       <c r="C54" s="2">
-        <v>-0.48971018195152283</v>
+        <v>-0.48840954899787903</v>
       </c>
       <c r="D54" s="2">
         <v>-0.30641192197799683</v>
       </c>
       <c r="E54" s="2">
-        <v>-0.57827514410018921</v>
+        <v>-0.57676118612289429</v>
       </c>
     </row>
     <row r="55">
@@ -967,13 +967,13 @@
         <v>-0.29330176115036011</v>
       </c>
       <c r="C55" s="2">
-        <v>-0.57389652729034424</v>
+        <v>-0.57281386852264404</v>
       </c>
       <c r="D55" s="2">
         <v>-0.32997885346412659</v>
       </c>
       <c r="E55" s="2">
-        <v>-0.60504555702209473</v>
+        <v>-0.60386437177658081</v>
       </c>
     </row>
     <row r="56">
@@ -984,13 +984,13 @@
         <v>-0.12420023232698441</v>
       </c>
       <c r="C56" s="2">
-        <v>-0.29868453741073608</v>
+        <v>-0.29729107022285461</v>
       </c>
       <c r="D56" s="2">
         <v>-0.35911431908607483</v>
       </c>
       <c r="E56" s="2">
-        <v>-0.64524573087692261</v>
+        <v>-0.64386242628097534</v>
       </c>
     </row>
     <row r="57">
@@ -998,16 +998,16 @@
         <v>42948</v>
       </c>
       <c r="B57" s="2">
-        <v>-0.51598882675170899</v>
+        <v>-0.51598882675170898</v>
       </c>
       <c r="C57" s="2">
-        <v>-0.89775162935256958</v>
+        <v>-0.89386099576950073</v>
       </c>
       <c r="D57" s="2">
         <v>-0.24196623265743256</v>
       </c>
       <c r="E57" s="2">
-        <v>-0.53644871711730957</v>
+        <v>-0.53505933284759521</v>
       </c>
     </row>
     <row r="58">
@@ -1018,13 +1018,13 @@
         <v>0.024257250130176544</v>
       </c>
       <c r="C58" s="2">
-        <v>-0.29490220546722412</v>
+        <v>-0.29273155331611633</v>
       </c>
       <c r="D58" s="2">
         <v>-0.30076441168785095</v>
       </c>
       <c r="E58" s="2">
-        <v>-0.60482752323150635</v>
+        <v>-0.60341405868530273</v>
       </c>
     </row>
     <row r="59">
@@ -1035,13 +1035,13 @@
         <v>-0.7088165283203125</v>
       </c>
       <c r="C59" s="2">
-        <v>-0.97988831996917725</v>
+        <v>-0.98145973682403564</v>
       </c>
       <c r="D59" s="2">
         <v>-0.29284968972206116</v>
       </c>
       <c r="E59" s="2">
-        <v>-0.60210239887237549</v>
+        <v>-0.60051560401916504</v>
       </c>
     </row>
     <row r="60">
@@ -1052,13 +1052,13 @@
         <v>-0.83875411748886108</v>
       </c>
       <c r="C60" s="2">
-        <v>-1.1901047229766846</v>
+        <v>-1.1885443925857544</v>
       </c>
       <c r="D60" s="2">
         <v>-0.31478077173233032</v>
       </c>
       <c r="E60" s="2">
-        <v>-0.64272284507751465</v>
+        <v>-0.64107418060302734</v>
       </c>
     </row>
     <row r="61">
@@ -1069,13 +1069,13 @@
         <v>0.39188209176063538</v>
       </c>
       <c r="C61" s="2">
-        <v>0.037411272525787354</v>
+        <v>0.038882255554199219</v>
       </c>
       <c r="D61" s="2">
         <v>-0.32838353514671326</v>
       </c>
       <c r="E61" s="2">
-        <v>-0.67772585153579712</v>
+        <v>-0.67621862888336182</v>
       </c>
     </row>
     <row r="62">
@@ -1086,13 +1086,13 @@
         <v>-0.37706586718559265</v>
       </c>
       <c r="C62" s="2">
-        <v>-0.75592070817947388</v>
+        <v>-0.75449752807617188</v>
       </c>
       <c r="D62" s="2">
         <v>-0.32985919713973999</v>
       </c>
       <c r="E62" s="2">
-        <v>-0.67104625701904297</v>
+        <v>-0.66980671882629395</v>
       </c>
     </row>
     <row r="63">
@@ -1103,13 +1103,13 @@
         <v>-0.19365914165973663</v>
       </c>
       <c r="C63" s="2">
-        <v>-0.46518418192863464</v>
+        <v>-0.462323397397995</v>
       </c>
       <c r="D63" s="2">
         <v>-0.24417248368263245</v>
       </c>
       <c r="E63" s="2">
-        <v>-0.57324182987213135</v>
+        <v>-0.5722273588180542</v>
       </c>
     </row>
     <row r="64">
@@ -1120,13 +1120,13 @@
         <v>-0.49068161845207214</v>
       </c>
       <c r="C64" s="2">
-        <v>-0.93948072195053101</v>
+        <v>-0.93784123659133911</v>
       </c>
       <c r="D64" s="2">
-        <v>-0.2177211344242096</v>
+        <v>-0.21772113442420959</v>
       </c>
       <c r="E64" s="2">
-        <v>-0.55378168821334839</v>
+        <v>-0.55255210399627686</v>
       </c>
     </row>
     <row r="65">
@@ -1137,13 +1137,13 @@
         <v>-0.24662499129772186</v>
       </c>
       <c r="C65" s="2">
-        <v>-0.6137116551399231</v>
+        <v>-0.61359125375747681</v>
       </c>
       <c r="D65" s="2">
         <v>-0.096363365650177002</v>
       </c>
       <c r="E65" s="2">
-        <v>-0.43131247162818909</v>
+        <v>-0.43050423264503479</v>
       </c>
     </row>
     <row r="66">
@@ -1154,13 +1154,13 @@
         <v>-0.5292697548866272</v>
       </c>
       <c r="C66" s="2">
-        <v>-0.83763480186462402</v>
+        <v>-0.83615344762802124</v>
       </c>
       <c r="D66" s="2">
         <v>-0.1127610057592392</v>
       </c>
       <c r="E66" s="2">
-        <v>-0.45756661891937256</v>
+        <v>-0.45665323734283447</v>
       </c>
     </row>
     <row r="67">
@@ -1171,13 +1171,13 @@
         <v>0.7954375147819519</v>
       </c>
       <c r="C67" s="2">
-        <v>0.58533763885498047</v>
+        <v>0.58548253774642944</v>
       </c>
       <c r="D67" s="2">
         <v>-0.065585754811763763</v>
       </c>
       <c r="E67" s="2">
-        <v>-0.42205935716629028</v>
+        <v>-0.42106780409812927</v>
       </c>
     </row>
     <row r="68">
@@ -1188,13 +1188,13 @@
         <v>-0.47075435519218445</v>
       </c>
       <c r="C68" s="2">
-        <v>-0.80474734306335449</v>
+        <v>-0.80438238382339478</v>
       </c>
       <c r="D68" s="2">
         <v>-0.068046808242797852</v>
       </c>
       <c r="E68" s="2">
-        <v>-0.45028138160705567</v>
+        <v>-0.44981804490089417</v>
       </c>
     </row>
     <row r="69">
@@ -1205,13 +1205,13 @@
         <v>0.25346586108207703</v>
       </c>
       <c r="C69" s="2">
-        <v>-0.08788183331489563</v>
+        <v>-0.090113550424575806</v>
       </c>
       <c r="D69" s="2">
         <v>-0.078930631279945374</v>
       </c>
       <c r="E69" s="2">
-        <v>-0.47008505463600159</v>
+        <v>-0.46969485282897949</v>
       </c>
     </row>
     <row r="70">
@@ -1222,13 +1222,13 @@
         <v>0.24430331587791443</v>
       </c>
       <c r="C70" s="2">
-        <v>-0.19887596368789673</v>
+        <v>-0.19645890593528748</v>
       </c>
       <c r="D70" s="2">
         <v>-0.10793200135231018</v>
       </c>
       <c r="E70" s="2">
-        <v>-0.4794418215751648</v>
+        <v>-0.47897642850875854</v>
       </c>
     </row>
     <row r="71">
@@ -1239,13 +1239,13 @@
         <v>0.047511395066976547</v>
       </c>
       <c r="C71" s="2">
-        <v>-0.43635544180870056</v>
+        <v>-0.43422847986221313</v>
       </c>
       <c r="D71" s="2">
         <v>-0.15277969837188721</v>
       </c>
       <c r="E71" s="2">
-        <v>-0.49822896718978882</v>
+        <v>-0.49816536903381348</v>
       </c>
     </row>
     <row r="72">
@@ -1256,13 +1256,13 @@
         <v>-0.21580861508846283</v>
       </c>
       <c r="C72" s="2">
-        <v>-0.71918225288391113</v>
+        <v>-0.72107559442520142</v>
       </c>
       <c r="D72" s="2">
         <v>-0.21412444114685059</v>
       </c>
       <c r="E72" s="2">
-        <v>-0.57164335250854492</v>
+        <v>-0.57134461402893066</v>
       </c>
     </row>
     <row r="73">
@@ -1273,13 +1273,13 @@
         <v>-0.58863604068756104</v>
       </c>
       <c r="C73" s="2">
-        <v>-1.1177139282226563</v>
+        <v>-1.1167327165603638</v>
       </c>
       <c r="D73" s="2">
         <v>-0.20146757364273071</v>
       </c>
       <c r="E73" s="2">
-        <v>-0.53877776861190796</v>
+        <v>-0.53838640451431274</v>
       </c>
     </row>
     <row r="74">
@@ -1290,13 +1290,13 @@
         <v>-0.50763732194900513</v>
       </c>
       <c r="C74" s="2">
-        <v>-0.69792252779006958</v>
+        <v>-0.69712537527084351</v>
       </c>
       <c r="D74" s="2">
         <v>-0.24717943370342255</v>
       </c>
       <c r="E74" s="2">
-        <v>-0.57484704256057739</v>
+        <v>-0.57371270656585693</v>
       </c>
     </row>
     <row r="75">
@@ -1307,13 +1307,13 @@
         <v>-0.93289899826049805</v>
       </c>
       <c r="C75" s="2">
-        <v>-1.0067191123962402</v>
+        <v>-1.0088537931442261</v>
       </c>
       <c r="D75" s="2">
         <v>-0.31911718845367432</v>
       </c>
       <c r="E75" s="2">
-        <v>-0.62441384792327881</v>
+        <v>-0.62345558404922485</v>
       </c>
     </row>
     <row r="76">
@@ -1324,13 +1324,13 @@
         <v>0.24333480000495911</v>
       </c>
       <c r="C76" s="2">
-        <v>-0.075391761958599091</v>
+        <v>-0.07313062995672226</v>
       </c>
       <c r="D76" s="2">
         <v>-0.34663748741149902</v>
       </c>
       <c r="E76" s="2">
-        <v>-0.61989390850067139</v>
+        <v>-0.61919796466827393</v>
       </c>
     </row>
     <row r="77">
@@ -1341,13 +1341,13 @@
         <v>-0.35684254765510559</v>
       </c>
       <c r="C77" s="2">
-        <v>-0.50895696878433228</v>
+        <v>-0.50775885581970215</v>
       </c>
       <c r="D77" s="2">
         <v>-0.31957903504371643</v>
       </c>
       <c r="E77" s="2">
-        <v>-0.56487590074539185</v>
+        <v>-0.5639948844909668</v>
       </c>
     </row>
     <row r="78">
@@ -1358,13 +1358,13 @@
         <v>-0.15794084966182709</v>
       </c>
       <c r="C78" s="2">
-        <v>-0.41250517964363098</v>
+        <v>-0.4080500602722168</v>
       </c>
       <c r="D78" s="2">
         <v>-0.22663472592830658</v>
       </c>
       <c r="E78" s="2">
-        <v>-0.44280135631561279</v>
+        <v>-0.44186952710151672</v>
       </c>
     </row>
     <row r="79">
@@ -1375,13 +1375,13 @@
         <v>-0.40313661098480225</v>
       </c>
       <c r="C79" s="2">
-        <v>-0.64497733116149902</v>
+        <v>-0.64414465427398682</v>
       </c>
       <c r="D79" s="2">
         <v>-0.18005566298961639</v>
       </c>
       <c r="E79" s="2">
-        <v>-0.39642265439033508</v>
+        <v>-0.39551743865013123</v>
       </c>
     </row>
     <row r="80">
@@ -1392,13 +1392,13 @@
         <v>-0.20017130672931671</v>
       </c>
       <c r="C80" s="2">
-        <v>-0.39567610621452332</v>
+        <v>-0.39590990543365479</v>
       </c>
       <c r="D80" s="2">
         <v>-0.02626936137676239</v>
       </c>
       <c r="E80" s="2">
-        <v>-0.27563458681106567</v>
+        <v>-0.27408850193023682</v>
       </c>
     </row>
     <row r="81">
@@ -1409,13 +1409,13 @@
         <v>0.027717467397451401</v>
       </c>
       <c r="C81" s="2">
-        <v>-0.22402006387710571</v>
+        <v>-0.224248006939888</v>
       </c>
       <c r="D81" s="2">
         <v>-0.034426335245370865</v>
       </c>
       <c r="E81" s="2">
-        <v>-0.26231229305267334</v>
+        <v>-0.26072028279304504</v>
       </c>
     </row>
     <row r="82">
@@ -1426,13 +1426,13 @@
         <v>0.2478628009557724</v>
       </c>
       <c r="C82" s="2">
-        <v>-0.019043095409870148</v>
+        <v>-0.017604542896151543</v>
       </c>
       <c r="D82" s="2">
         <v>0.03372843936085701</v>
       </c>
       <c r="E82" s="2">
-        <v>-0.21854895353317261</v>
+        <v>-0.21704863011837006</v>
       </c>
     </row>
     <row r="83">
@@ -1443,13 +1443,13 @@
         <v>-0.088425688445568085</v>
       </c>
       <c r="C83" s="2">
-        <v>-0.28051421046257019</v>
+        <v>-0.2799564003944397</v>
       </c>
       <c r="D83" s="2">
         <v>0.017333682626485825</v>
       </c>
       <c r="E83" s="2">
-        <v>-0.23043482005596161</v>
+        <v>-0.22952137887477875</v>
       </c>
     </row>
     <row r="84">
@@ -1460,13 +1460,13 @@
         <v>0.4511776864528656</v>
       </c>
       <c r="C84" s="2">
-        <v>0.080373384058475494</v>
+        <v>0.084006480872631073</v>
       </c>
       <c r="D84" s="2">
         <v>0.0051900632679462433</v>
       </c>
       <c r="E84" s="2">
-        <v>-0.23611898720264435</v>
+        <v>-0.23525558412075043</v>
       </c>
     </row>
     <row r="85">
@@ -1477,13 +1477,13 @@
         <v>0.16992203891277313</v>
       </c>
       <c r="C85" s="2">
-        <v>0.044508863240480423</v>
+        <v>0.047183524817228317</v>
       </c>
       <c r="D85" s="2">
         <v>0.030686743557453156</v>
       </c>
       <c r="E85" s="2">
-        <v>-0.19238762557506561</v>
+        <v>-0.19155406951904297</v>
       </c>
     </row>
     <row r="86">
@@ -1494,13 +1494,13 @@
         <v>0.25655040144920349</v>
       </c>
       <c r="C86" s="2">
-        <v>-0.11508689075708389</v>
+        <v>-0.114714115858078</v>
       </c>
       <c r="D86" s="2">
         <v>-0.00040994916344061494</v>
       </c>
       <c r="E86" s="2">
-        <v>-0.21444359421730042</v>
+        <v>-0.21345280110836029</v>
       </c>
     </row>
     <row r="87">
@@ -1511,13 +1511,13 @@
         <v>-0.30549365282058716</v>
       </c>
       <c r="C87" s="2">
-        <v>-0.5194779634475708</v>
+        <v>-0.52030473947525024</v>
       </c>
       <c r="D87" s="2">
         <v>-0.039005279541015625</v>
       </c>
       <c r="E87" s="2">
-        <v>-0.2352079451084137</v>
+        <v>-0.23432376980781555</v>
       </c>
     </row>
     <row r="88">
@@ -1528,13 +1528,13 @@
         <v>-0.51242917776107788</v>
       </c>
       <c r="C88" s="2">
-        <v>-0.69613480567932129</v>
+        <v>-0.69575250148773193</v>
       </c>
       <c r="D88" s="2">
         <v>-0.094004616141319275</v>
       </c>
       <c r="E88" s="2">
-        <v>-0.2879263162612915</v>
+        <v>-0.28699550032615662</v>
       </c>
     </row>
     <row r="89">
@@ -1545,13 +1545,13 @@
         <v>0.029298819601535797</v>
       </c>
       <c r="C89" s="2">
-        <v>-0.0020938226953148842</v>
+        <v>-0.0025962803047150373</v>
       </c>
       <c r="D89" s="2">
         <v>-0.15146702527999878</v>
       </c>
       <c r="E89" s="2">
-        <v>-0.32523465156555176</v>
+        <v>-0.32457232475280762</v>
       </c>
     </row>
     <row r="90">
@@ -1562,13 +1562,13 @@
         <v>-0.25215277075767517</v>
       </c>
       <c r="C90" s="2">
-        <v>-0.42252376675605774</v>
+        <v>-0.4213365912437439</v>
       </c>
       <c r="D90" s="2">
         <v>-0.18715491890907288</v>
       </c>
       <c r="E90" s="2">
-        <v>-0.38046279549598694</v>
+        <v>-0.38004526495933533</v>
       </c>
     </row>
     <row r="91">
@@ -1579,13 +1579,13 @@
         <v>-0.099495157599449158</v>
       </c>
       <c r="C91" s="2">
-        <v>-0.20592226088047028</v>
+        <v>-0.20544330775737762</v>
       </c>
       <c r="D91" s="2">
-        <v>-0.22937063872814179</v>
+        <v>-0.22937063872814178</v>
       </c>
       <c r="E91" s="2">
-        <v>-0.3746342658996582</v>
+        <v>-0.37420555949211121</v>
       </c>
     </row>
     <row r="92">
@@ -1593,16 +1593,16 @@
         <v>44013</v>
       </c>
       <c r="B92" s="2">
-        <v>-0.58341974020004273</v>
+        <v>-0.58341974020004272</v>
       </c>
       <c r="C92" s="2">
-        <v>-0.75497949123382568</v>
+        <v>-0.7540019154548645</v>
       </c>
       <c r="D92" s="2">
         <v>-0.24346867203712463</v>
       </c>
       <c r="E92" s="2">
-        <v>-0.40066811442375183</v>
+        <v>-0.4000873863697052</v>
       </c>
     </row>
     <row r="93">
@@ -1613,13 +1613,13 @@
         <v>-0.06598401814699173</v>
       </c>
       <c r="C93" s="2">
-        <v>-0.25540173053741455</v>
+        <v>-0.25418496131896973</v>
       </c>
       <c r="D93" s="2">
         <v>-0.21950669586658478</v>
       </c>
       <c r="E93" s="2">
-        <v>-0.37337571382522583</v>
+        <v>-0.37271407246589661</v>
       </c>
     </row>
     <row r="94">
@@ -1630,13 +1630,13 @@
         <v>-0.15126897394657135</v>
       </c>
       <c r="C94" s="2">
-        <v>-0.45254454016685486</v>
+        <v>-0.45207309722900391</v>
       </c>
       <c r="D94" s="2">
-        <v>-0.23843617737293244</v>
+        <v>-0.23843617737293243</v>
       </c>
       <c r="E94" s="2">
-        <v>-0.41908848285675049</v>
+        <v>-0.41809466481208801</v>
       </c>
     </row>
     <row r="95">
@@ -1647,13 +1647,13 @@
         <v>-0.1233910396695137</v>
       </c>
       <c r="C95" s="2">
-        <v>-0.06263008713722229</v>
+        <v>-0.062156625092029572</v>
       </c>
       <c r="D95" s="2">
         <v>-0.12063248455524445</v>
       </c>
       <c r="E95" s="2">
-        <v>-0.31941536068916321</v>
+        <v>-0.31846067309379578</v>
       </c>
     </row>
     <row r="96">
@@ -1664,13 +1664,13 @@
         <v>-0.43237602710723877</v>
       </c>
       <c r="C96" s="2">
-        <v>-0.75378257036209106</v>
+        <v>-0.75324124097824097</v>
       </c>
       <c r="D96" s="2">
         <v>-0.091354772448539734</v>
       </c>
       <c r="E96" s="2">
-        <v>-0.3185957670211792</v>
+        <v>-0.31734803318977356</v>
       </c>
     </row>
     <row r="97">
@@ -1681,13 +1681,13 @@
         <v>-0.2967713475227356</v>
       </c>
       <c r="C97" s="2">
-        <v>-0.45050317049026489</v>
+        <v>-0.44939252734184265</v>
       </c>
       <c r="D97" s="2">
         <v>-0.079557500779628754</v>
       </c>
       <c r="E97" s="2">
-        <v>-0.30902945995330811</v>
+        <v>-0.30792030692100525</v>
       </c>
     </row>
     <row r="98">
@@ -1698,13 +1698,13 @@
         <v>-0.14106658101081848</v>
       </c>
       <c r="C98" s="2">
-        <v>-0.41350874304771423</v>
+        <v>-0.41102182865142822</v>
       </c>
       <c r="D98" s="2">
         <v>-0.0394136942923069</v>
       </c>
       <c r="E98" s="2">
-        <v>-0.28942009806632996</v>
+        <v>-0.2882331907749176</v>
       </c>
     </row>
     <row r="99">
@@ -1715,13 +1715,13 @@
         <v>0.80808055400848389</v>
       </c>
       <c r="C99" s="2">
-        <v>0.47453442215919495</v>
+        <v>0.47536942362785339</v>
       </c>
       <c r="D99" s="2">
         <v>-0.06220351904630661</v>
       </c>
       <c r="E99" s="2">
-        <v>-0.30194306373596192</v>
+        <v>-0.30071619153022766</v>
       </c>
     </row>
     <row r="100">
@@ -1732,13 +1732,13 @@
         <v>0.16400422155857086</v>
       </c>
       <c r="C100" s="2">
-        <v>-0.19854606688022614</v>
+        <v>-0.19542939960956573</v>
       </c>
       <c r="D100" s="2">
         <v>-0.074212342500686646</v>
       </c>
       <c r="E100" s="2">
-        <v>-0.35501095652580261</v>
+        <v>-0.35366103053092957</v>
       </c>
     </row>
     <row r="101">
@@ -1749,13 +1749,13 @@
         <v>-0.47724428772926331</v>
       </c>
       <c r="C101" s="2">
-        <v>-0.66888254880905151</v>
+        <v>-0.66915237903594971</v>
       </c>
       <c r="D101" s="2">
         <v>-0.10567409545183182</v>
       </c>
       <c r="E101" s="2">
-        <v>-0.37973794341087341</v>
+        <v>-0.37862983345985413</v>
       </c>
     </row>
     <row r="102">
@@ -1766,13 +1766,13 @@
         <v>0.29531022906303406</v>
       </c>
       <c r="C102" s="2">
-        <v>-0.078917644917964935</v>
+        <v>-0.077001169323921204</v>
       </c>
       <c r="D102" s="2">
         <v>-0.055531982332468033</v>
       </c>
       <c r="E102" s="2">
-        <v>-0.33297756314277649</v>
+        <v>-0.33176529407501221</v>
       </c>
     </row>
     <row r="103">
@@ -1783,13 +1783,13 @@
         <v>-0.35637739300727844</v>
       </c>
       <c r="C103" s="2">
-        <v>-0.56525105237960815</v>
+        <v>-0.56442004442214966</v>
       </c>
       <c r="D103" s="2">
         <v>0.016286512836813927</v>
       </c>
       <c r="E103" s="2">
-        <v>-0.25974056124687195</v>
+        <v>-0.25880521535873413</v>
       </c>
     </row>
     <row r="104">
@@ -1800,13 +1800,13 @@
         <v>-0.23147046566009521</v>
       </c>
       <c r="C104" s="2">
-        <v>-0.5402413010597229</v>
+        <v>-0.53866016864776611</v>
       </c>
       <c r="D104" s="2">
         <v>-0.16860204935073853</v>
       </c>
       <c r="E104" s="2">
-        <v>-0.438121497631073</v>
+        <v>-0.43719446659088135</v>
       </c>
     </row>
     <row r="105">
@@ -1817,13 +1817,13 @@
         <v>-0.71553176641464233</v>
       </c>
       <c r="C105" s="2">
-        <v>-0.97632527351379395</v>
+        <v>-0.97796052694320679</v>
       </c>
       <c r="D105" s="2">
         <v>-0.15435120463371277</v>
       </c>
       <c r="E105" s="2">
-        <v>-0.40659651160240173</v>
+        <v>-0.40607616305351257</v>
       </c>
     </row>
     <row r="106">
@@ -1834,13 +1834,13 @@
         <v>0.15450765192508698</v>
       </c>
       <c r="C106" s="2">
-        <v>-0.029659932479262352</v>
+        <v>-0.027611576020717621</v>
       </c>
       <c r="D106" s="2">
         <v>-0.063373111188411713</v>
       </c>
       <c r="E106" s="2">
-        <v>-0.30608808994293213</v>
+        <v>-0.30539503693580627</v>
       </c>
     </row>
     <row r="107">
@@ -1851,13 +1851,13 @@
         <v>0.50529986619949341</v>
       </c>
       <c r="C107" s="2">
-        <v>0.24562431871891022</v>
+        <v>0.24561889469623566</v>
       </c>
       <c r="D107" s="2">
-        <v>-0.089116953313350678</v>
+        <v>-0.089116953313350677</v>
       </c>
       <c r="E107" s="2">
-        <v>-0.291688472032547</v>
+        <v>-0.29146614670753479</v>
       </c>
     </row>
     <row r="108">
@@ -1868,13 +1868,13 @@
         <v>-0.85591655969619751</v>
       </c>
       <c r="C108" s="2">
-        <v>-1.1308939456939697</v>
+        <v>-1.1301338672637939</v>
       </c>
       <c r="D108" s="2">
         <v>-0.08382522314786911</v>
       </c>
       <c r="E108" s="2">
-        <v>-0.27645149827003479</v>
+        <v>-0.27632617950439453</v>
       </c>
     </row>
     <row r="109">
@@ -1885,13 +1885,13 @@
         <v>0.29226183891296387</v>
       </c>
       <c r="C109" s="2">
-        <v>0.085178889334201813</v>
+        <v>0.084635399281978607</v>
       </c>
       <c r="D109" s="2">
         <v>-0.19660459458827972</v>
       </c>
       <c r="E109" s="2">
-        <v>-0.36577138304710388</v>
+        <v>-0.36580654978752136</v>
       </c>
     </row>
     <row r="110">
@@ -1902,13 +1902,13 @@
         <v>0.34155860543251038</v>
       </c>
       <c r="C110" s="2">
-        <v>0.23569321632385254</v>
+        <v>0.23697769641876221</v>
       </c>
       <c r="D110" s="2">
         <v>-0.22061219811439514</v>
       </c>
       <c r="E110" s="2">
-        <v>-0.38262176513671875</v>
+        <v>-0.38279062509536743</v>
       </c>
     </row>
     <row r="111">
@@ -1919,13 +1919,13 @@
         <v>0.06361563503742218</v>
       </c>
       <c r="C111" s="2">
-        <v>0.050678875297307968</v>
+        <v>0.048358969390392303</v>
       </c>
       <c r="D111" s="2">
         <v>-0.32563570141792297</v>
       </c>
       <c r="E111" s="2">
-        <v>-0.46842068433761597</v>
+        <v>-0.4687170684337616</v>
       </c>
     </row>
     <row r="112">
@@ -1936,13 +1936,13 @@
         <v>-0.30875179171562195</v>
       </c>
       <c r="C112" s="2">
-        <v>-0.42811840772628784</v>
+        <v>-0.42816036939620972</v>
       </c>
       <c r="D112" s="2">
         <v>-0.48997443914413452</v>
       </c>
       <c r="E112" s="2">
-        <v>-0.6189071536064148</v>
+        <v>-0.61922025680541992</v>
       </c>
     </row>
     <row r="113">
@@ -1953,13 +1953,13 @@
         <v>-1.2464848756790161</v>
       </c>
       <c r="C113" s="2">
-        <v>-1.3441202640533447</v>
+        <v>-1.3439836502075195</v>
       </c>
       <c r="D113" s="2">
         <v>-0.45804888010025024</v>
       </c>
       <c r="E113" s="2">
-        <v>-0.57820647954940796</v>
+        <v>-0.57867574691772461</v>
       </c>
     </row>
     <row r="114">
@@ -1970,13 +1970,13 @@
         <v>-0.93160015344619751</v>
       </c>
       <c r="C114" s="2">
-        <v>-1.1279785633087158</v>
+        <v>-1.1308170557022095</v>
       </c>
       <c r="D114" s="2">
         <v>-0.58391422033309937</v>
       </c>
       <c r="E114" s="2">
-        <v>-0.69190341234207153</v>
+        <v>-0.69239151477813721</v>
       </c>
     </row>
     <row r="115">
@@ -1987,13 +1987,13 @@
         <v>-0.79070389270782471</v>
       </c>
       <c r="C115" s="2">
-        <v>-0.80185019969940186</v>
+        <v>-0.80094969272613525</v>
       </c>
       <c r="D115" s="2">
         <v>-0.60402911901473999</v>
       </c>
       <c r="E115" s="2">
-        <v>-0.69555079936981201</v>
+        <v>-0.69588828086853027</v>
       </c>
     </row>
     <row r="116">
@@ -2001,16 +2001,16 @@
         <v>44743</v>
       </c>
       <c r="B116" s="2">
-        <v>-0.97374874353408814</v>
+        <v>-0.97374874353408813</v>
       </c>
       <c r="C116" s="2">
-        <v>-1.1087538003921509</v>
+        <v>-1.1089098453521729</v>
       </c>
       <c r="D116" s="2">
         <v>-0.63690668344497681</v>
       </c>
       <c r="E116" s="2">
-        <v>-0.73393779993057251</v>
+        <v>-0.7337462306022644</v>
       </c>
     </row>
     <row r="117">
@@ -2018,16 +2018,16 @@
         <v>44774</v>
       </c>
       <c r="B117" s="2">
-        <v>-0.56858664751052857</v>
+        <v>-0.56858664751052856</v>
       </c>
       <c r="C117" s="2">
-        <v>-0.76458781957626343</v>
+        <v>-0.76523292064666748</v>
       </c>
       <c r="D117" s="2">
         <v>-0.61852693557739258</v>
       </c>
       <c r="E117" s="2">
-        <v>-0.71677196025848389</v>
+        <v>-0.71638971567153931</v>
       </c>
     </row>
     <row r="118">
@@ -2038,13 +2038,13 @@
         <v>-0.8405260443687439</v>
       </c>
       <c r="C118" s="2">
-        <v>-0.93809378147125244</v>
+        <v>-0.93880671262741089</v>
       </c>
       <c r="D118" s="2">
         <v>-0.5726659893989563</v>
       </c>
       <c r="E118" s="2">
-        <v>-0.6672443151473999</v>
+        <v>-0.66688072681427002</v>
       </c>
     </row>
     <row r="119">
@@ -2055,13 +2055,13 @@
         <v>0.16052468121051788</v>
       </c>
       <c r="C119" s="2">
-        <v>0.20286667346954346</v>
+        <v>0.2055065929889679</v>
       </c>
       <c r="D119" s="2">
         <v>-0.54333215951919556</v>
       </c>
       <c r="E119" s="2">
-        <v>-0.63964581489562988</v>
+        <v>-0.63886642456054688</v>
       </c>
     </row>
     <row r="120">
@@ -2072,13 +2072,13 @@
         <v>-0.2322828620672226</v>
       </c>
       <c r="C120" s="2">
-        <v>-0.29480385780334473</v>
+        <v>-0.29236260056495667</v>
       </c>
       <c r="D120" s="2">
         <v>-0.53246229887008667</v>
       </c>
       <c r="E120" s="2">
-        <v>-0.64341259002685547</v>
+        <v>-0.64264547824859619</v>
       </c>
     </row>
     <row r="121">
@@ -2089,13 +2089,13 @@
         <v>-0.14333407580852509</v>
       </c>
       <c r="C121" s="2">
-        <v>-0.27362611889839172</v>
+        <v>-0.2719515860080719</v>
       </c>
       <c r="D121" s="2">
         <v>-0.53456318378448486</v>
       </c>
       <c r="E121" s="2">
-        <v>-0.65761208534240723</v>
+        <v>-0.6565203070640564</v>
       </c>
     </row>
     <row r="122">
@@ -2106,13 +2106,13 @@
         <v>-0.83373624086380005</v>
       </c>
       <c r="C122" s="2">
-        <v>-0.89837127923965454</v>
+        <v>-0.89840292930603027</v>
       </c>
       <c r="D122" s="2">
         <v>-0.50244688987731934</v>
       </c>
       <c r="E122" s="2">
-        <v>-0.64169484376907349</v>
+        <v>-0.64065128564834595</v>
       </c>
     </row>
     <row r="123">
@@ -2123,13 +2123,13 @@
         <v>-0.66759538650512695</v>
       </c>
       <c r="C123" s="2">
-        <v>-0.87959188222885132</v>
+        <v>-0.8786882758140564</v>
       </c>
       <c r="D123" s="2">
         <v>-0.43224349617958069</v>
       </c>
       <c r="E123" s="2">
-        <v>-0.594951331615448</v>
+        <v>-0.59371459484100342</v>
       </c>
     </row>
     <row r="124">
@@ -2140,13 +2140,13 @@
         <v>-0.6928754448890686</v>
       </c>
       <c r="C124" s="2">
-        <v>-0.83575129508972168</v>
+        <v>-0.83496105670928955</v>
       </c>
       <c r="D124" s="2">
         <v>-0.46384522318840027</v>
       </c>
       <c r="E124" s="2">
-        <v>-0.65522688627243042</v>
+        <v>-0.65432173013687134</v>
       </c>
     </row>
     <row r="125">
@@ -2154,16 +2154,16 @@
         <v>45017</v>
       </c>
       <c r="B125" s="2">
-        <v>-0.99265658855438233</v>
+        <v>-0.99265658855438232</v>
       </c>
       <c r="C125" s="2">
-        <v>-1.2365491390228272</v>
+        <v>-1.2337833642959595</v>
       </c>
       <c r="D125" s="2">
         <v>-0.42486768960952759</v>
       </c>
       <c r="E125" s="2">
-        <v>-0.64985775947570801</v>
+        <v>-0.6493486762046814</v>
       </c>
     </row>
     <row r="126">
@@ -2174,13 +2174,13 @@
         <v>-0.2795403003692627</v>
       </c>
       <c r="C126" s="2">
-        <v>-0.62133294343948364</v>
+        <v>-0.62241172790527344</v>
       </c>
       <c r="D126" s="2">
         <v>-0.41055825352668762</v>
       </c>
       <c r="E126" s="2">
-        <v>-0.65901565551757813</v>
+        <v>-0.65857589244842529</v>
       </c>
     </row>
     <row r="127">
@@ -2191,13 +2191,13 @@
         <v>-0.20869520306587219</v>
       </c>
       <c r="C127" s="2">
-        <v>-0.51740223169326782</v>
+        <v>-0.51637649536132812</v>
       </c>
       <c r="D127" s="2">
         <v>-0.37319645285606384</v>
       </c>
       <c r="E127" s="2">
-        <v>-0.65501141548156738</v>
+        <v>-0.6545373797416687</v>
       </c>
     </row>
     <row r="128">
@@ -2208,13 +2208,13 @@
         <v>-0.1238909438252449</v>
       </c>
       <c r="C128" s="2">
-        <v>-0.33961322903633118</v>
+        <v>-0.33995729684829712</v>
       </c>
       <c r="D128" s="2">
         <v>-0.38565275073051453</v>
       </c>
       <c r="E128" s="2">
-        <v>-0.66244286298751831</v>
+        <v>-0.66187423467636108</v>
       </c>
     </row>
     <row r="129">
@@ -2225,13 +2225,13 @@
         <v>0.11851492524147034</v>
       </c>
       <c r="C129" s="2">
-        <v>-0.24648170173168182</v>
+        <v>-0.24760521948337555</v>
       </c>
       <c r="D129" s="2">
         <v>-0.3713735044002533</v>
       </c>
       <c r="E129" s="2">
-        <v>-0.64866030216217041</v>
+        <v>-0.64820742607116699</v>
       </c>
     </row>
     <row r="130">
@@ -2242,13 +2242,13 @@
         <v>-0.014549159444868565</v>
       </c>
       <c r="C130" s="2">
-        <v>-0.35604721307754517</v>
+        <v>-0.35499680042266846</v>
       </c>
       <c r="D130" s="2">
         <v>-0.3302956223487854</v>
       </c>
       <c r="E130" s="2">
-        <v>-0.62521839141845703</v>
+        <v>-0.62483847141265869</v>
       </c>
     </row>
     <row r="131">
@@ -2259,13 +2259,13 @@
         <v>-0.49747994542121887</v>
       </c>
       <c r="C131" s="2">
-        <v>-0.86233294010162354</v>
+        <v>-0.86205631494522095</v>
       </c>
       <c r="D131" s="2">
         <v>-0.2482590526342392</v>
       </c>
       <c r="E131" s="2">
-        <v>-0.53311097621917725</v>
+        <v>-0.53256702423095703</v>
       </c>
     </row>
     <row r="132">
@@ -2276,13 +2276,13 @@
         <v>-0.77970212697982788</v>
       </c>
       <c r="C132" s="2">
-        <v>-0.94647508859634399</v>
+        <v>-0.94472008943557739</v>
       </c>
       <c r="D132" s="2">
         <v>-0.28857755661010742</v>
       </c>
       <c r="E132" s="2">
-        <v>-0.55887335538864136</v>
+        <v>-0.55870336294174194</v>
       </c>
     </row>
     <row r="133">
@@ -2293,13 +2293,13 @@
         <v>-0.5643622875213623</v>
       </c>
       <c r="C133" s="2">
-        <v>-0.71170836687088013</v>
+        <v>-0.71195971965789795</v>
       </c>
       <c r="D133" s="2">
         <v>-0.31260773539543152</v>
       </c>
       <c r="E133" s="2">
-        <v>-0.58257752656936646</v>
+        <v>-0.58255696296691895</v>
       </c>
     </row>
     <row r="134">
@@ -2310,13 +2310,13 @@
         <v>-0.62295544147491455</v>
       </c>
       <c r="C134" s="2">
-        <v>-1.0255715847015381</v>
+        <v>-1.0234626531600952</v>
       </c>
       <c r="D134" s="2">
         <v>-0.35904130339622498</v>
       </c>
       <c r="E134" s="2">
-        <v>-0.59848195314407349</v>
+        <v>-0.59823280572891235</v>
       </c>
     </row>
     <row r="135">
@@ -2327,13 +2327,13 @@
         <v>0.45878866314888</v>
       </c>
       <c r="C135" s="2">
-        <v>0.20763330161571503</v>
+        <v>0.20803150534629822</v>
       </c>
       <c r="D135" s="2">
-        <v>-0.40210282802581787</v>
+        <v>-0.41105476021766663</v>
       </c>
       <c r="E135" s="2">
-        <v>-0.62878632545471192</v>
+        <v>-0.62000107765197754</v>
       </c>
     </row>
     <row r="136">
@@ -2344,13 +2344,13 @@
         <v>-0.57156169414520264</v>
       </c>
       <c r="C136" s="2">
-        <v>-0.7492634654045105</v>
+        <v>-0.75160354375839233</v>
       </c>
       <c r="D136" s="2">
-        <v>-0.38847753405570984</v>
+        <v>-0.38155457377433777</v>
       </c>
       <c r="E136" s="2">
-        <v>-0.59542250633239746</v>
+        <v>-0.56558668613433838</v>
       </c>
     </row>
     <row r="137">
@@ -2361,13 +2361,13 @@
         <v>-0.34016242623329163</v>
       </c>
       <c r="C137" s="2">
-        <v>-0.55295062065124512</v>
+        <v>-0.55463987588882446</v>
       </c>
       <c r="D137" s="2">
-        <v>-0.32327342033386231</v>
+        <v>-0.33178612589836121</v>
       </c>
       <c r="E137" s="2">
-        <v>-0.53691375255584717</v>
+        <v>-0.51819503307342529</v>
       </c>
     </row>
     <row r="138">
@@ -2378,32 +2378,48 @@
         <v>-0.29938742518424988</v>
       </c>
       <c r="C138" s="2">
-        <v>-0.38962170481681824</v>
+        <v>-0.3886878490447998</v>
       </c>
       <c r="D138" s="2">
-        <v>-0.27505567669868469</v>
+        <v>-0.2985609769821167</v>
       </c>
       <c r="E138" s="2">
-        <v>-0.50195479393005371</v>
+        <v>-0.4905143678188324</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1">
         <v>45444</v>
       </c>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
+      <c r="B139" s="2">
+        <v>-0.48267009854316711</v>
+      </c>
+      <c r="C139" s="2">
+        <v>-0.55091136693954468</v>
+      </c>
+      <c r="D139" s="2">
+        <v>-0.2444952130317688</v>
+      </c>
+      <c r="E139" s="2">
+        <v>-0.40168964862823486</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1">
         <v>45474</v>
       </c>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
+      <c r="B140" s="2">
+        <v>-0.23197831213474274</v>
+      </c>
+      <c r="C140" s="2">
+        <v>-0.37232685089111328</v>
+      </c>
+      <c r="D140" s="2">
+        <v>-0.38515198230743408</v>
+      </c>
+      <c r="E140" s="2">
+        <v>-0.52363389730453491</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1">
@@ -2468,6 +2484,24 @@
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
     </row>
+    <row r="148">
+      <c r="A148" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>